--- a/スケジュール管理/ガントチャート(随時更新).xlsx
+++ b/スケジュール管理/ガントチャート(随時更新).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
   <workbookPr checkCompatibility="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://asojukustudent.sharepoint.com/sites/SD3D_abcc23227/Shared Documents/【Time3】PL酒見/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1024" documentId="8_{DC4E01AC-1792-944E-B797-35F481E3C1C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{55B9774D-03BE-9445-855B-51E6B203ADF0}"/>
+  <xr:revisionPtr revIDLastSave="1072" documentId="8_{DC4E01AC-1792-944E-B797-35F481E3C1C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2F4373CF-EF4D-C74B-97D0-D015ACCE9007}"/>
   <bookViews>
-    <workbookView xWindow="10380" yWindow="840" windowWidth="22980" windowHeight="17740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9840" yWindow="1560" windowWidth="22980" windowHeight="17740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="スケジュール" sheetId="5" r:id="rId1"/>
@@ -1917,7 +1917,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="260">
+  <cellXfs count="265">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2175,7 +2175,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2337,6 +2337,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2424,6 +2427,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -11284,12 +11291,12 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>61</xdr:col>
-      <xdr:colOff>81977</xdr:colOff>
+      <xdr:col>63</xdr:col>
+      <xdr:colOff>60811</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>236428</xdr:rowOff>
+      <xdr:rowOff>244895</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1282595" cy="285335"/>
+    <xdr:ext cx="415498" cy="285335"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="178" name="テキスト ボックス 177">
@@ -11303,8 +11310,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12464477" y="9096190"/>
-          <a:ext cx="1282595" cy="285335"/>
+          <a:off x="12769278" y="9084095"/>
+          <a:ext cx="415498" cy="285335"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11334,22 +11341,6 @@
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
             <a:t>中村</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
-            <a:t>(</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
-            <a:t>完成期限：</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
-            <a:t>6/26</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-GB" altLang="ja-JP" sz="900"/>
-            <a:t>)</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
         </a:p>
@@ -11549,12 +11540,12 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>60</xdr:col>
-      <xdr:colOff>166806</xdr:colOff>
+      <xdr:col>62</xdr:col>
+      <xdr:colOff>132940</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>231640</xdr:rowOff>
+      <xdr:rowOff>257040</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1167179" cy="285335"/>
+    <xdr:ext cx="300082" cy="285335"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="187" name="テキスト ボックス 186">
@@ -11568,8 +11559,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12352758" y="10179973"/>
-          <a:ext cx="1167179" cy="285335"/>
+          <a:off x="12646673" y="10179973"/>
+          <a:ext cx="300082" cy="285335"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11599,22 +11590,6 @@
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
             <a:t>王</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
-            <a:t>(</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
-            <a:t>完成期限：</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
-            <a:t>6/22</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-GB" altLang="ja-JP" sz="900"/>
-            <a:t>)</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
         </a:p>
@@ -11814,12 +11789,12 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>58</xdr:col>
-      <xdr:colOff>93544</xdr:colOff>
+      <xdr:col>60</xdr:col>
+      <xdr:colOff>59677</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>241151</xdr:rowOff>
+      <xdr:rowOff>258085</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1282595" cy="285335"/>
+    <xdr:ext cx="415498" cy="285335"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="191" name="テキスト ボックス 190">
@@ -11833,8 +11808,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11886401" y="11278056"/>
-          <a:ext cx="1282595" cy="285335"/>
+          <a:off x="12183944" y="11264752"/>
+          <a:ext cx="415498" cy="285335"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11865,23 +11840,6 @@
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
             <a:t>藤井</a:t>
           </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
-            <a:t>(</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
-            <a:t>完成期限：</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
-            <a:t>6/20</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-GB" altLang="ja-JP" sz="900"/>
-            <a:t>)</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -12413,93 +12371,6 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>74</xdr:col>
-      <xdr:colOff>87313</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>20029</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1804533" cy="285335"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="135" name="テキスト ボックス 134">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F7E8922-2D71-CD47-BD2F-E9DC434B8F90}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="15024932" y="14594791"/>
-          <a:ext cx="1804533" cy="285335"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
-            <a:t>池田</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-GB" altLang="ja-JP" sz="900"/>
-            <a:t>:</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
-            <a:t>パワポ作成完成</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-GB" altLang="ja-JP" sz="900"/>
-            <a:t>(</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
-            <a:t>期限</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-GB" altLang="ja-JP" sz="900"/>
-            <a:t>:7/</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
-            <a:t>6</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-GB" altLang="ja-JP" sz="900"/>
-            <a:t>)</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>60</xdr:col>
@@ -12765,7 +12636,7 @@
       <xdr:row>31</xdr:row>
       <xdr:rowOff>191890</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2090509" cy="285335"/>
+    <xdr:ext cx="1454244" cy="285335"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="4312" name="テキスト ボックス 4311">
@@ -12779,8 +12650,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12220138" y="7963080"/>
-          <a:ext cx="2090509" cy="285335"/>
+          <a:off x="11921386" y="7824590"/>
+          <a:ext cx="1454244" cy="285335"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12811,18 +12682,7 @@
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
             <a:t>池田：動作確認指摘事項</a:t>
           </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
-            <a:t>(</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
-            <a:t>期限：</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
-            <a:t>6/19)</a:t>
-          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -14086,7 +13946,7 @@
       <xdr:row>5</xdr:row>
       <xdr:rowOff>27979</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2151166" cy="285335"/>
+    <xdr:ext cx="1489254" cy="285335"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="4404" name="テキスト ボックス 4403">
@@ -14100,8 +13960,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11757794" y="920003"/>
-          <a:ext cx="2151166" cy="285335"/>
+          <a:off x="11477184" y="916979"/>
+          <a:ext cx="1489254" cy="285335"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -14132,18 +13992,7 @@
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
             <a:t>池田：動作確認指摘事項</a:t>
           </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
-            <a:t>(</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
-            <a:t>期限：</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
-            <a:t>6/19)</a:t>
-          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -14964,6 +14813,2385 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>79</xdr:col>
+      <xdr:colOff>168217</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>32451</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="415498" cy="285335"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="54" name="テキスト ボックス 53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9A9A7D9-1DE0-6A4D-881C-9D03AD12E24D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15674917" y="14332651"/>
+          <a:ext cx="415498" cy="285335"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
+            <a:t>酒見</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>76</xdr:col>
+      <xdr:colOff>3791</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>196518</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>77</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>197135</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="55" name="直線コネクタ 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C656BB10-3BDB-474B-B4F7-4CA6ED05BC24}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{D457834A-C175-B1CF-ABF4-512B2994982B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeShapeType="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="14938991" y="14763418"/>
+          <a:ext cx="186709" cy="617"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0000FF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="12"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd type="diamond" w="lg" len="lg"/>
+          <a:tailEnd type="diamond" w="lg" len="lg"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:noFill/>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>80</xdr:col>
+      <xdr:colOff>1358</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>204259</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>80</xdr:col>
+      <xdr:colOff>189024</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>204876</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="134" name="直線コネクタ 133">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9964E5D-A216-C54E-BEC9-3452EC542D6F}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{D457834A-C175-B1CF-ABF4-512B2994982B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeShapeType="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="15698558" y="14771159"/>
+          <a:ext cx="187666" cy="617"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0000FF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="12"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd type="diamond" w="lg" len="lg"/>
+          <a:tailEnd type="diamond" w="lg" len="lg"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:noFill/>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>83</xdr:col>
+      <xdr:colOff>4233</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>203201</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>85</xdr:col>
+      <xdr:colOff>3175</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>203201</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="141" name="直線コネクタ 140">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D8D9D6B-C524-8F4D-93A7-D6EE7CCB33D0}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{D457834A-C175-B1CF-ABF4-512B2994982B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeShapeType="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="16272933" y="14770101"/>
+          <a:ext cx="379942" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0000FF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="12"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd type="diamond" w="lg" len="lg"/>
+          <a:tailEnd type="diamond" w="lg" len="lg"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:noFill/>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>78</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>60325</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>83</xdr:col>
+      <xdr:colOff>3175</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>63501</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="142" name="直線コネクタ 141">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C97B2A49-2E28-8F4D-A0F9-BCC3B454159C}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{D457834A-C175-B1CF-ABF4-512B2994982B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeShapeType="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="15316200" y="14627225"/>
+          <a:ext cx="955675" cy="3176"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0000FF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="12"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd type="diamond" w="lg" len="lg"/>
+          <a:tailEnd type="diamond" w="lg" len="lg"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:noFill/>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>77</xdr:col>
+      <xdr:colOff>105471</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>187325</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1193104" cy="285335"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="157" name="テキスト ボックス 156">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D76637B-17F3-CC4C-95A4-7815035351C4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15231171" y="14487525"/>
+          <a:ext cx="1193104" cy="285335"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
+            <a:t>最終修正</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-GB" altLang="ja-JP" sz="900"/>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
+            <a:t>各担当者</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-GB" altLang="ja-JP" sz="900"/>
+            <a:t>)</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>74</xdr:col>
+      <xdr:colOff>159021</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>214669</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>75</xdr:col>
+      <xdr:colOff>53773</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>2699</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4298" name="楕円 155">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF0DEB4F-1D99-8947-AAAF-DBEC801672BD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="14713221" y="15048269"/>
+          <a:ext cx="85252" cy="54730"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>76</xdr:col>
+      <xdr:colOff>151076</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>216918</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>77</xdr:col>
+      <xdr:colOff>44532</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>4948</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4299" name="楕円 4321">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47CE491E-7BF9-F245-9342-5D3C48460E7D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="15086276" y="15050518"/>
+          <a:ext cx="83956" cy="54730"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>74</xdr:col>
+      <xdr:colOff>87313</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>20029</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1289327" cy="285335"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4301" name="テキスト ボックス 4300">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9706647B-C097-224A-B596-A400BDA785A5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14859418" y="14885713"/>
+          <a:ext cx="1289327" cy="285335"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
+            <a:t>池田</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-GB" altLang="ja-JP" sz="900"/>
+            <a:t>:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
+            <a:t>パワポ作成完成</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>67</xdr:col>
+      <xdr:colOff>150101</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>219393</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>68</xdr:col>
+      <xdr:colOff>46207</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>7784</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4311" name="楕円 154">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F329490-DD45-A04B-AD1A-00084E757A79}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="13370801" y="15052993"/>
+          <a:ext cx="86606" cy="55091"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>69</xdr:col>
+      <xdr:colOff>146936</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>219637</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>70</xdr:col>
+      <xdr:colOff>41688</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>8028</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4329" name="楕円 4323">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6360A1F6-6326-0545-8A2F-0CBB0524B9FA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="13748636" y="15053237"/>
+          <a:ext cx="85252" cy="55091"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>71</xdr:col>
+      <xdr:colOff>5290</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>78</xdr:col>
+      <xdr:colOff>3175</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>167216</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4335" name="直線コネクタ 4334">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C1FA429-710C-214C-9D34-DFC78092EEAC}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{D457834A-C175-B1CF-ABF4-512B2994982B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeShapeType="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipV="1">
+          <a:off x="13987990" y="15265400"/>
+          <a:ext cx="1331385" cy="2116"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0000FF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="12"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd type="diamond" w="lg" len="lg"/>
+          <a:tailEnd type="diamond" w="lg" len="lg"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:noFill/>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>83</xdr:col>
+      <xdr:colOff>1058</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>168276</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>85</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>168276</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4337" name="直線コネクタ 4336">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99A708C6-15FA-E744-BE17-3275D9688856}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{D457834A-C175-B1CF-ABF4-512B2994982B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeShapeType="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="16269758" y="15268576"/>
+          <a:ext cx="379942" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0000FF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="12"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd type="diamond" w="lg" len="lg"/>
+          <a:tailEnd type="diamond" w="lg" len="lg"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:noFill/>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>86</xdr:col>
+      <xdr:colOff>55108</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>216289</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>87</xdr:col>
+      <xdr:colOff>148879</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>217076</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="170" name="直線コネクタ 169">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D501BF96-CA47-3F44-94B2-BDB01AE854F6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="171" idx="2"/>
+          <a:endCxn id="4288" idx="6"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16895308" y="1714889"/>
+          <a:ext cx="284271" cy="787"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>85</xdr:col>
+      <xdr:colOff>160784</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>188924</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>86</xdr:col>
+      <xdr:colOff>55108</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>243654</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="171" name="楕円 137">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB23BBA8-5B0B-B541-8CC1-6A2D5348A57D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="16989946" y="1678348"/>
+          <a:ext cx="87152" cy="54730"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>87</xdr:col>
+      <xdr:colOff>148879</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>189711</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>88</xdr:col>
+      <xdr:colOff>38697</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>244441</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4288" name="楕円 139">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CEE2D930-B97A-F34C-9927-71A8D659CC23}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="17179579" y="1688311"/>
+          <a:ext cx="80318" cy="54730"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>83</xdr:col>
+      <xdr:colOff>45898</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>207403</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>87</xdr:col>
+      <xdr:colOff>154813</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>208190</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4296" name="直線コネクタ 4295">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9830DC46-3CC5-6742-8BAB-B3AFB5E0DAF1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4297" idx="2"/>
+          <a:endCxn id="4338" idx="6"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16268810" y="2251081"/>
+          <a:ext cx="867995" cy="787"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>82</xdr:col>
+      <xdr:colOff>150843</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>180038</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>83</xdr:col>
+      <xdr:colOff>45898</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>234768</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4297" name="楕円 137">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58479307-6A51-6D47-B596-57AB5D83729C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="16183985" y="2223716"/>
+          <a:ext cx="84825" cy="54730"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>87</xdr:col>
+      <xdr:colOff>154813</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>180825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>88</xdr:col>
+      <xdr:colOff>45361</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>235555</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4338" name="楕円 139">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D3FF6FE-33E9-D04F-A076-A498AF7EFFC6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="17136805" y="2224503"/>
+          <a:ext cx="80318" cy="54730"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>83</xdr:col>
+      <xdr:colOff>130560</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>249253</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="761747" cy="285335"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4341" name="テキスト ボックス 4340">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74341F1C-4937-C440-997A-7AD5FF426109}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16355700" y="1982150"/>
+          <a:ext cx="761747" cy="285335"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
+            <a:t>修正：瓜田</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>84</xdr:col>
+      <xdr:colOff>185411</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>252232</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="761747" cy="285335"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4343" name="テキスト ボックス 4342">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57FB672A-2078-E34B-B7F7-3D7403B40010}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16486358" y="1490874"/>
+          <a:ext cx="761747" cy="285335"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
+            <a:t>修正：酒見</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>93</xdr:col>
+      <xdr:colOff>189733</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>148130</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>97</xdr:col>
+      <xdr:colOff>3174</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>149224</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4344" name="直線コネクタ 4343">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90488056-1AFE-2B44-B83A-F9078926D261}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{D457834A-C175-B1CF-ABF4-512B2994982B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeShapeType="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="18363433" y="389430"/>
+          <a:ext cx="575441" cy="1094"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0000FF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="12"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd type="diamond" w="lg" len="lg"/>
+          <a:tailEnd type="diamond" w="lg" len="lg"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:noFill/>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>62</xdr:col>
+      <xdr:colOff>2327</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>142704</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>65</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>144626</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4345" name="直線コネクタ 4344">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BDF137C4-95DC-E947-B818-D22EE8647F36}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{D457834A-C175-B1CF-ABF4-512B2994982B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeShapeType="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="12250370" y="1376547"/>
+          <a:ext cx="567139" cy="1922"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0000FF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="12"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd type="diamond" w="lg" len="lg"/>
+          <a:tailEnd type="diamond" w="lg" len="lg"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:noFill/>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>83</xdr:col>
+      <xdr:colOff>194732</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>186267</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>88</xdr:col>
+      <xdr:colOff>194732</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>186267</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4346" name="直線コネクタ 4345">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6BE6E3A9-BE6C-5445-AF0C-9EAB94D648B9}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{D457834A-C175-B1CF-ABF4-512B2994982B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeShapeType="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="16797865" y="2523067"/>
+          <a:ext cx="973667" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0000FF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="12"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd type="diamond" w="lg" len="lg"/>
+          <a:tailEnd type="diamond" w="lg" len="lg"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:noFill/>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>87</xdr:col>
+      <xdr:colOff>6382</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>137210</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>89</xdr:col>
+      <xdr:colOff>6382</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>137211</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4347" name="直線コネクタ 4346">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E387D139-14F1-2342-BDA7-D2FF60F7AB12}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{D457834A-C175-B1CF-ABF4-512B2994982B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeShapeType="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="17116281" y="1911381"/>
+          <a:ext cx="382915" cy="1"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0000FF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="12"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd type="diamond" w="lg" len="lg"/>
+          <a:tailEnd type="diamond" w="lg" len="lg"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:noFill/>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>73</xdr:col>
+      <xdr:colOff>8465</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>133351</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>81</xdr:col>
+      <xdr:colOff>3174</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>135467</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4348" name="直線コネクタ 4347">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{246E5B3E-48F6-4D43-B448-E096DA61DC61}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{D457834A-C175-B1CF-ABF4-512B2994982B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeShapeType="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipV="1">
+          <a:off x="14372165" y="14166851"/>
+          <a:ext cx="1518709" cy="2116"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0000FF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="12"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd type="diamond" w="lg" len="lg"/>
+          <a:tailEnd type="diamond" w="lg" len="lg"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:noFill/>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>60</xdr:col>
+      <xdr:colOff>3175</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>70</xdr:col>
+      <xdr:colOff>3175</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4349" name="直線コネクタ 4348">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{506DC31D-A800-8A40-BFE2-AB2A1EA9D07A}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{D457834A-C175-B1CF-ABF4-512B2994982B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeShapeType="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipV="1">
+          <a:off x="11890375" y="9353550"/>
+          <a:ext cx="1905000" cy="3175"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0000FF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="12"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd type="diamond" w="lg" len="lg"/>
+          <a:tailEnd type="diamond" w="lg" len="lg"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:noFill/>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>60</xdr:col>
+      <xdr:colOff>2646</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>134696</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>67</xdr:col>
+      <xdr:colOff>3207</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>136098</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4350" name="直線コネクタ 4349">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8205400-004F-614D-826C-FB582E32EEDD}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{D457834A-C175-B1CF-ABF4-512B2994982B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeShapeType="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipV="1">
+          <a:off x="11814287" y="10413358"/>
+          <a:ext cx="1325082" cy="1402"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0000FF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="12"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd type="diamond" w="lg" len="lg"/>
+          <a:tailEnd type="diamond" w="lg" len="lg"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:noFill/>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>58</xdr:col>
+      <xdr:colOff>5040</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>143386</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>63</xdr:col>
+      <xdr:colOff>3414</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>144285</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4351" name="直線コネクタ 4350">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91777CB8-24FC-944A-81A8-D5B2B3AE7463}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{D457834A-C175-B1CF-ABF4-512B2994982B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeShapeType="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipV="1">
+          <a:off x="11534045" y="11491451"/>
+          <a:ext cx="954288" cy="899"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0000FF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="12"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd type="diamond" w="lg" len="lg"/>
+          <a:tailEnd type="diamond" w="lg" len="lg"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:noFill/>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>86</xdr:col>
+      <xdr:colOff>55108</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>216289</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>86</xdr:col>
+      <xdr:colOff>155244</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>217076</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4352" name="直線コネクタ 4351">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1B667B7-7661-AA4A-9F51-29E626DE8FEA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4353" idx="2"/>
+          <a:endCxn id="4354" idx="6"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16937514" y="1183908"/>
+          <a:ext cx="100136" cy="787"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>85</xdr:col>
+      <xdr:colOff>160784</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>188924</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>86</xdr:col>
+      <xdr:colOff>55108</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>243654</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4353" name="楕円 137">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1265008A-B0A2-9D47-B8ED-4ACDAD4A42C8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="17153384" y="1712924"/>
+          <a:ext cx="89057" cy="54730"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>86</xdr:col>
+      <xdr:colOff>155244</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>189711</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>87</xdr:col>
+      <xdr:colOff>45063</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>244441</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4354" name="楕円 139">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A8D134F-7EE0-0341-85F4-3C2D4E2FF518}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="17037650" y="1157330"/>
+          <a:ext cx="80796" cy="54730"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>83</xdr:col>
+      <xdr:colOff>130560</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>249253</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="761747" cy="285335"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4355" name="テキスト ボックス 4354">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49A275FE-696F-3F46-B81E-9600B0D3A6A9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16733693" y="2044186"/>
+          <a:ext cx="761747" cy="285335"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
+            <a:t>修正：瓜田</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>84</xdr:col>
+      <xdr:colOff>102655</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>61700</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="761747" cy="285335"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4356" name="テキスト ボックス 4355">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{041368D7-1019-BE47-93E2-A3C42350346C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16603106" y="952928"/>
+          <a:ext cx="761747" cy="285335"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
+            <a:t>修正：酒見</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>86</xdr:col>
+      <xdr:colOff>185553</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>149238</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>88</xdr:col>
+      <xdr:colOff>2259</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>149581</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4357" name="直線コネクタ 4356">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2DF535A2-FE2D-DE43-8673-20411C1E20C5}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{D457834A-C175-B1CF-ABF4-512B2994982B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeShapeType="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="16959449" y="1382128"/>
+          <a:ext cx="196057" cy="343"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0000FF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="12"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd type="diamond" w="lg" len="lg"/>
+          <a:tailEnd type="diamond" w="lg" len="lg"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:noFill/>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -24106,8 +26334,8 @@
   </sheetPr>
   <dimension ref="A1:DC67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AR44" zoomScale="135" zoomScaleNormal="222" workbookViewId="0">
-      <selection activeCell="CC58" sqref="CC58"/>
+    <sheetView tabSelected="1" topLeftCell="BU1" zoomScale="175" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="CM8" sqref="CM8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
@@ -24454,23 +26682,26 @@
       <c r="BU3" s="125" t="s">
         <v>18</v>
       </c>
-      <c r="BV3" s="8"/>
-      <c r="BW3" s="8"/>
-      <c r="BX3" s="8"/>
-      <c r="BY3" s="8"/>
-      <c r="BZ3" s="8"/>
-      <c r="CA3" s="8"/>
-      <c r="CB3" s="8"/>
-      <c r="CC3" s="8"/>
-      <c r="CD3" s="8"/>
+      <c r="BV3" s="125"/>
+      <c r="BW3" s="125"/>
+      <c r="BX3" s="125"/>
+      <c r="BY3" s="125"/>
+      <c r="BZ3" s="125"/>
+      <c r="CA3" s="125"/>
+      <c r="CB3" s="125"/>
+      <c r="CC3" s="125"/>
+      <c r="CD3" s="125"/>
       <c r="CE3" s="177"/>
       <c r="CF3" s="177"/>
-      <c r="CG3" s="8"/>
-      <c r="CH3" s="8"/>
-      <c r="CI3" s="8"/>
-      <c r="CJ3" s="8"/>
-      <c r="CK3" s="8"/>
-      <c r="CO3" s="10"/>
+      <c r="CG3" s="125"/>
+      <c r="CH3" s="125"/>
+      <c r="CI3" s="125"/>
+      <c r="CJ3" s="125"/>
+      <c r="CK3" s="125"/>
+      <c r="CL3" s="263"/>
+      <c r="CM3" s="263"/>
+      <c r="CN3" s="263"/>
+      <c r="CO3" s="264"/>
     </row>
     <row r="4" spans="1:107" ht="13.5" customHeight="1">
       <c r="A4" s="187"/>
@@ -31666,32 +33897,32 @@
       <c r="BU67" s="133" t="s">
         <v>94</v>
       </c>
-      <c r="BV67" s="45"/>
-      <c r="BW67" s="45"/>
-      <c r="BX67" s="45"/>
-      <c r="BY67" s="45"/>
-      <c r="BZ67" s="45" t="s">
+      <c r="BV67" s="133"/>
+      <c r="BW67" s="133"/>
+      <c r="BX67" s="133"/>
+      <c r="BY67" s="133"/>
+      <c r="BZ67" s="133" t="s">
         <v>95</v>
       </c>
-      <c r="CA67" s="45"/>
-      <c r="CB67" s="45"/>
-      <c r="CC67" s="45"/>
-      <c r="CD67" s="45"/>
-      <c r="CE67" s="3" t="s">
+      <c r="CA67" s="133"/>
+      <c r="CB67" s="133"/>
+      <c r="CC67" s="133"/>
+      <c r="CD67" s="133"/>
+      <c r="CE67" s="124" t="s">
         <v>96</v>
       </c>
-      <c r="CF67" s="3"/>
-      <c r="CG67" s="45"/>
-      <c r="CH67" s="45"/>
-      <c r="CI67" s="45"/>
-      <c r="CJ67" s="45" t="s">
+      <c r="CF67" s="124"/>
+      <c r="CG67" s="133"/>
+      <c r="CH67" s="133"/>
+      <c r="CI67" s="133"/>
+      <c r="CJ67" s="133" t="s">
         <v>97</v>
       </c>
-      <c r="CK67" s="45"/>
-      <c r="CL67" s="45"/>
-      <c r="CM67" s="45"/>
-      <c r="CN67" s="45"/>
-      <c r="CO67" s="46"/>
+      <c r="CK67" s="133"/>
+      <c r="CL67" s="261"/>
+      <c r="CM67" s="261"/>
+      <c r="CN67" s="261"/>
+      <c r="CO67" s="262"/>
     </row>
   </sheetData>
   <mergeCells count="82">
@@ -32021,7 +34252,7 @@
       <c r="M3" s="230" t="s">
         <v>103</v>
       </c>
-      <c r="N3" s="177"/>
+      <c r="N3" s="231"/>
       <c r="O3" s="8"/>
       <c r="P3" s="8"/>
       <c r="Q3" s="8"/>
@@ -32045,10 +34276,10 @@
       <c r="AI3" s="8"/>
       <c r="AJ3" s="8"/>
       <c r="AK3" s="8"/>
-      <c r="AL3" s="177" t="s">
+      <c r="AL3" s="231" t="s">
         <v>17</v>
       </c>
-      <c r="AM3" s="177"/>
+      <c r="AM3" s="231"/>
       <c r="AN3" s="8"/>
       <c r="AO3" s="8"/>
       <c r="AP3" s="1"/>
@@ -32067,10 +34298,10 @@
       <c r="BC3" s="8"/>
       <c r="BD3" s="8"/>
       <c r="BE3" s="8"/>
-      <c r="BF3" s="177" t="s">
+      <c r="BF3" s="231" t="s">
         <v>104</v>
       </c>
-      <c r="BG3" s="177"/>
+      <c r="BG3" s="231"/>
       <c r="BH3" s="8"/>
       <c r="BI3" s="8"/>
       <c r="BJ3" s="8"/>
@@ -33829,14 +36060,14 @@
     <row r="24" spans="1:82" ht="21" customHeight="1">
       <c r="A24" s="147"/>
       <c r="B24" s="148"/>
-      <c r="C24" s="231"/>
-      <c r="D24" s="232"/>
-      <c r="E24" s="232"/>
-      <c r="F24" s="232"/>
-      <c r="G24" s="232"/>
-      <c r="H24" s="232"/>
-      <c r="I24" s="232"/>
-      <c r="J24" s="233"/>
+      <c r="C24" s="232"/>
+      <c r="D24" s="233"/>
+      <c r="E24" s="233"/>
+      <c r="F24" s="233"/>
+      <c r="G24" s="233"/>
+      <c r="H24" s="233"/>
+      <c r="I24" s="233"/>
+      <c r="J24" s="234"/>
       <c r="K24" s="28" t="s">
         <v>39</v>
       </c>
@@ -33915,18 +36146,18 @@
     <row r="25" spans="1:82" ht="21" customHeight="1">
       <c r="A25" s="147"/>
       <c r="B25" s="148"/>
-      <c r="C25" s="234" t="s">
+      <c r="C25" s="235" t="s">
         <v>121</v>
       </c>
-      <c r="D25" s="235"/>
-      <c r="E25" s="240" t="s">
+      <c r="D25" s="236"/>
+      <c r="E25" s="241" t="s">
         <v>122</v>
       </c>
-      <c r="F25" s="241"/>
-      <c r="G25" s="241"/>
-      <c r="H25" s="241"/>
-      <c r="I25" s="241"/>
-      <c r="J25" s="242"/>
+      <c r="F25" s="242"/>
+      <c r="G25" s="242"/>
+      <c r="H25" s="242"/>
+      <c r="I25" s="242"/>
+      <c r="J25" s="243"/>
       <c r="K25" s="21" t="s">
         <v>37</v>
       </c>
@@ -34005,9 +36236,9 @@
     <row r="26" spans="1:82" ht="21" customHeight="1">
       <c r="A26" s="147"/>
       <c r="B26" s="148"/>
-      <c r="C26" s="236"/>
-      <c r="D26" s="237"/>
-      <c r="E26" s="243"/>
+      <c r="C26" s="237"/>
+      <c r="D26" s="238"/>
+      <c r="E26" s="244"/>
       <c r="F26" s="169"/>
       <c r="G26" s="169"/>
       <c r="H26" s="169"/>
@@ -34091,9 +36322,9 @@
     <row r="27" spans="1:82" ht="21" customHeight="1">
       <c r="A27" s="147"/>
       <c r="B27" s="148"/>
-      <c r="C27" s="236"/>
-      <c r="D27" s="237"/>
-      <c r="E27" s="244" t="s">
+      <c r="C27" s="237"/>
+      <c r="D27" s="238"/>
+      <c r="E27" s="245" t="s">
         <v>123</v>
       </c>
       <c r="F27" s="157"/>
@@ -34179,9 +36410,9 @@
     <row r="28" spans="1:82" ht="21" customHeight="1">
       <c r="A28" s="147"/>
       <c r="B28" s="148"/>
-      <c r="C28" s="236"/>
-      <c r="D28" s="237"/>
-      <c r="E28" s="243"/>
+      <c r="C28" s="237"/>
+      <c r="D28" s="238"/>
+      <c r="E28" s="244"/>
       <c r="F28" s="169"/>
       <c r="G28" s="169"/>
       <c r="H28" s="169"/>
@@ -34265,9 +36496,9 @@
     <row r="29" spans="1:82" ht="21" customHeight="1">
       <c r="A29" s="147"/>
       <c r="B29" s="148"/>
-      <c r="C29" s="236"/>
-      <c r="D29" s="237"/>
-      <c r="E29" s="244" t="s">
+      <c r="C29" s="237"/>
+      <c r="D29" s="238"/>
+      <c r="E29" s="245" t="s">
         <v>124</v>
       </c>
       <c r="F29" s="157"/>
@@ -34353,9 +36584,9 @@
     <row r="30" spans="1:82" ht="21" customHeight="1">
       <c r="A30" s="147"/>
       <c r="B30" s="148"/>
-      <c r="C30" s="236"/>
-      <c r="D30" s="237"/>
-      <c r="E30" s="243"/>
+      <c r="C30" s="237"/>
+      <c r="D30" s="238"/>
+      <c r="E30" s="244"/>
       <c r="F30" s="169"/>
       <c r="G30" s="169"/>
       <c r="H30" s="169"/>
@@ -34439,9 +36670,9 @@
     <row r="31" spans="1:82" ht="21" customHeight="1">
       <c r="A31" s="147"/>
       <c r="B31" s="148"/>
-      <c r="C31" s="236"/>
-      <c r="D31" s="237"/>
-      <c r="E31" s="244" t="s">
+      <c r="C31" s="237"/>
+      <c r="D31" s="238"/>
+      <c r="E31" s="245" t="s">
         <v>125</v>
       </c>
       <c r="F31" s="157"/>
@@ -34527,9 +36758,9 @@
     <row r="32" spans="1:82" ht="21" customHeight="1">
       <c r="A32" s="147"/>
       <c r="B32" s="148"/>
-      <c r="C32" s="236"/>
-      <c r="D32" s="237"/>
-      <c r="E32" s="243"/>
+      <c r="C32" s="237"/>
+      <c r="D32" s="238"/>
+      <c r="E32" s="244"/>
       <c r="F32" s="169"/>
       <c r="G32" s="169"/>
       <c r="H32" s="169"/>
@@ -34613,9 +36844,9 @@
     <row r="33" spans="1:82" ht="21" customHeight="1">
       <c r="A33" s="147"/>
       <c r="B33" s="148"/>
-      <c r="C33" s="236"/>
-      <c r="D33" s="237"/>
-      <c r="E33" s="244" t="s">
+      <c r="C33" s="237"/>
+      <c r="D33" s="238"/>
+      <c r="E33" s="245" t="s">
         <v>126</v>
       </c>
       <c r="F33" s="157"/>
@@ -34701,9 +36932,9 @@
     <row r="34" spans="1:82" ht="21" customHeight="1">
       <c r="A34" s="147"/>
       <c r="B34" s="148"/>
-      <c r="C34" s="236"/>
-      <c r="D34" s="237"/>
-      <c r="E34" s="243"/>
+      <c r="C34" s="237"/>
+      <c r="D34" s="238"/>
+      <c r="E34" s="244"/>
       <c r="F34" s="169"/>
       <c r="G34" s="169"/>
       <c r="H34" s="169"/>
@@ -34787,9 +37018,9 @@
     <row r="35" spans="1:82" ht="21" customHeight="1">
       <c r="A35" s="147"/>
       <c r="B35" s="148"/>
-      <c r="C35" s="236"/>
-      <c r="D35" s="237"/>
-      <c r="E35" s="244" t="s">
+      <c r="C35" s="237"/>
+      <c r="D35" s="238"/>
+      <c r="E35" s="245" t="s">
         <v>127</v>
       </c>
       <c r="F35" s="157"/>
@@ -34875,9 +37106,9 @@
     <row r="36" spans="1:82" ht="21" customHeight="1">
       <c r="A36" s="147"/>
       <c r="B36" s="148"/>
-      <c r="C36" s="236"/>
-      <c r="D36" s="237"/>
-      <c r="E36" s="243"/>
+      <c r="C36" s="237"/>
+      <c r="D36" s="238"/>
+      <c r="E36" s="244"/>
       <c r="F36" s="169"/>
       <c r="G36" s="169"/>
       <c r="H36" s="169"/>
@@ -34961,9 +37192,9 @@
     <row r="37" spans="1:82" ht="21" customHeight="1">
       <c r="A37" s="147"/>
       <c r="B37" s="148"/>
-      <c r="C37" s="236"/>
-      <c r="D37" s="237"/>
-      <c r="E37" s="245" t="s">
+      <c r="C37" s="237"/>
+      <c r="D37" s="238"/>
+      <c r="E37" s="246" t="s">
         <v>128</v>
       </c>
       <c r="F37" s="172"/>
@@ -35049,14 +37280,14 @@
     <row r="38" spans="1:82" ht="21" customHeight="1">
       <c r="A38" s="147"/>
       <c r="B38" s="148"/>
-      <c r="C38" s="238"/>
-      <c r="D38" s="239"/>
-      <c r="E38" s="246"/>
-      <c r="F38" s="232"/>
-      <c r="G38" s="232"/>
-      <c r="H38" s="232"/>
-      <c r="I38" s="232"/>
-      <c r="J38" s="233"/>
+      <c r="C38" s="239"/>
+      <c r="D38" s="240"/>
+      <c r="E38" s="247"/>
+      <c r="F38" s="233"/>
+      <c r="G38" s="233"/>
+      <c r="H38" s="233"/>
+      <c r="I38" s="233"/>
+      <c r="J38" s="234"/>
       <c r="K38" s="47" t="s">
         <v>39</v>
       </c>
@@ -35135,18 +37366,18 @@
     <row r="39" spans="1:82" ht="21" customHeight="1">
       <c r="A39" s="147"/>
       <c r="B39" s="148"/>
-      <c r="C39" s="234" t="s">
+      <c r="C39" s="235" t="s">
         <v>129</v>
       </c>
-      <c r="D39" s="235"/>
-      <c r="E39" s="241" t="s">
+      <c r="D39" s="236"/>
+      <c r="E39" s="242" t="s">
         <v>130</v>
       </c>
-      <c r="F39" s="241"/>
-      <c r="G39" s="241"/>
-      <c r="H39" s="241"/>
-      <c r="I39" s="241"/>
-      <c r="J39" s="242"/>
+      <c r="F39" s="242"/>
+      <c r="G39" s="242"/>
+      <c r="H39" s="242"/>
+      <c r="I39" s="242"/>
+      <c r="J39" s="243"/>
       <c r="K39" s="21" t="s">
         <v>37</v>
       </c>
@@ -35225,8 +37456,8 @@
     <row r="40" spans="1:82" ht="21" customHeight="1">
       <c r="A40" s="147"/>
       <c r="B40" s="148"/>
-      <c r="C40" s="236"/>
-      <c r="D40" s="237"/>
+      <c r="C40" s="237"/>
+      <c r="D40" s="238"/>
       <c r="E40" s="169"/>
       <c r="F40" s="169"/>
       <c r="G40" s="169"/>
@@ -35311,8 +37542,8 @@
     <row r="41" spans="1:82" ht="21" customHeight="1">
       <c r="A41" s="147"/>
       <c r="B41" s="148"/>
-      <c r="C41" s="236"/>
-      <c r="D41" s="237"/>
+      <c r="C41" s="237"/>
+      <c r="D41" s="238"/>
       <c r="E41" s="157" t="s">
         <v>131</v>
       </c>
@@ -35399,8 +37630,8 @@
     <row r="42" spans="1:82" ht="21" customHeight="1">
       <c r="A42" s="147"/>
       <c r="B42" s="148"/>
-      <c r="C42" s="236"/>
-      <c r="D42" s="237"/>
+      <c r="C42" s="237"/>
+      <c r="D42" s="238"/>
       <c r="E42" s="169"/>
       <c r="F42" s="169"/>
       <c r="G42" s="169"/>
@@ -35485,8 +37716,8 @@
     <row r="43" spans="1:82" ht="21" customHeight="1">
       <c r="A43" s="147"/>
       <c r="B43" s="148"/>
-      <c r="C43" s="236"/>
-      <c r="D43" s="237"/>
+      <c r="C43" s="237"/>
+      <c r="D43" s="238"/>
       <c r="E43" s="157" t="s">
         <v>132</v>
       </c>
@@ -35573,8 +37804,8 @@
     <row r="44" spans="1:82" ht="21" customHeight="1">
       <c r="A44" s="147"/>
       <c r="B44" s="148"/>
-      <c r="C44" s="236"/>
-      <c r="D44" s="237"/>
+      <c r="C44" s="237"/>
+      <c r="D44" s="238"/>
       <c r="E44" s="169"/>
       <c r="F44" s="169"/>
       <c r="G44" s="169"/>
@@ -35659,12 +37890,12 @@
     <row r="45" spans="1:82" ht="21" customHeight="1">
       <c r="A45" s="147"/>
       <c r="B45" s="148"/>
-      <c r="C45" s="236"/>
-      <c r="D45" s="237"/>
-      <c r="E45" s="251" t="s">
+      <c r="C45" s="237"/>
+      <c r="D45" s="238"/>
+      <c r="E45" s="252" t="s">
         <v>133</v>
       </c>
-      <c r="F45" s="252"/>
+      <c r="F45" s="253"/>
       <c r="G45" s="157" t="s">
         <v>134</v>
       </c>
@@ -35749,10 +37980,10 @@
     <row r="46" spans="1:82" ht="21" customHeight="1">
       <c r="A46" s="147"/>
       <c r="B46" s="148"/>
-      <c r="C46" s="236"/>
-      <c r="D46" s="237"/>
-      <c r="E46" s="253"/>
-      <c r="F46" s="254"/>
+      <c r="C46" s="237"/>
+      <c r="D46" s="238"/>
+      <c r="E46" s="254"/>
+      <c r="F46" s="255"/>
       <c r="G46" s="169"/>
       <c r="H46" s="169"/>
       <c r="I46" s="169"/>
@@ -35835,11 +38066,11 @@
     <row r="47" spans="1:82" ht="21" customHeight="1">
       <c r="A47" s="147"/>
       <c r="B47" s="148"/>
-      <c r="C47" s="236"/>
-      <c r="D47" s="237"/>
-      <c r="E47" s="253"/>
-      <c r="F47" s="254"/>
-      <c r="G47" s="257" t="s">
+      <c r="C47" s="237"/>
+      <c r="D47" s="238"/>
+      <c r="E47" s="254"/>
+      <c r="F47" s="255"/>
+      <c r="G47" s="258" t="s">
         <v>135</v>
       </c>
       <c r="H47" s="157"/>
@@ -35923,10 +38154,10 @@
     <row r="48" spans="1:82" ht="21" customHeight="1">
       <c r="A48" s="147"/>
       <c r="B48" s="148"/>
-      <c r="C48" s="236"/>
-      <c r="D48" s="237"/>
-      <c r="E48" s="253"/>
-      <c r="F48" s="254"/>
+      <c r="C48" s="237"/>
+      <c r="D48" s="238"/>
+      <c r="E48" s="254"/>
+      <c r="F48" s="255"/>
       <c r="G48" s="169"/>
       <c r="H48" s="169"/>
       <c r="I48" s="169"/>
@@ -36009,11 +38240,11 @@
     <row r="49" spans="1:82" ht="21" customHeight="1">
       <c r="A49" s="147"/>
       <c r="B49" s="148"/>
-      <c r="C49" s="236"/>
-      <c r="D49" s="237"/>
-      <c r="E49" s="253"/>
-      <c r="F49" s="254"/>
-      <c r="G49" s="257" t="s">
+      <c r="C49" s="237"/>
+      <c r="D49" s="238"/>
+      <c r="E49" s="254"/>
+      <c r="F49" s="255"/>
+      <c r="G49" s="258" t="s">
         <v>136</v>
       </c>
       <c r="H49" s="157"/>
@@ -36097,10 +38328,10 @@
     <row r="50" spans="1:82" ht="21" customHeight="1">
       <c r="A50" s="147"/>
       <c r="B50" s="148"/>
-      <c r="C50" s="236"/>
-      <c r="D50" s="237"/>
-      <c r="E50" s="253"/>
-      <c r="F50" s="254"/>
+      <c r="C50" s="237"/>
+      <c r="D50" s="238"/>
+      <c r="E50" s="254"/>
+      <c r="F50" s="255"/>
       <c r="G50" s="172"/>
       <c r="H50" s="172"/>
       <c r="I50" s="172"/>
@@ -36183,11 +38414,11 @@
     <row r="51" spans="1:82" ht="21" customHeight="1">
       <c r="A51" s="147"/>
       <c r="B51" s="148"/>
-      <c r="C51" s="236"/>
-      <c r="D51" s="237"/>
-      <c r="E51" s="253"/>
-      <c r="F51" s="254"/>
-      <c r="G51" s="244" t="s">
+      <c r="C51" s="237"/>
+      <c r="D51" s="238"/>
+      <c r="E51" s="254"/>
+      <c r="F51" s="255"/>
+      <c r="G51" s="245" t="s">
         <v>137</v>
       </c>
       <c r="H51" s="157"/>
@@ -36271,11 +38502,11 @@
     <row r="52" spans="1:82" ht="21" customHeight="1">
       <c r="A52" s="147"/>
       <c r="B52" s="148"/>
-      <c r="C52" s="236"/>
-      <c r="D52" s="237"/>
-      <c r="E52" s="253"/>
-      <c r="F52" s="254"/>
-      <c r="G52" s="243"/>
+      <c r="C52" s="237"/>
+      <c r="D52" s="238"/>
+      <c r="E52" s="254"/>
+      <c r="F52" s="255"/>
+      <c r="G52" s="244"/>
       <c r="H52" s="169"/>
       <c r="I52" s="169"/>
       <c r="J52" s="170"/>
@@ -36357,11 +38588,11 @@
     <row r="53" spans="1:82" ht="21" customHeight="1">
       <c r="A53" s="147"/>
       <c r="B53" s="148"/>
-      <c r="C53" s="236"/>
-      <c r="D53" s="237"/>
-      <c r="E53" s="253"/>
-      <c r="F53" s="254"/>
-      <c r="G53" s="244" t="s">
+      <c r="C53" s="237"/>
+      <c r="D53" s="238"/>
+      <c r="E53" s="254"/>
+      <c r="F53" s="255"/>
+      <c r="G53" s="245" t="s">
         <v>138</v>
       </c>
       <c r="H53" s="157"/>
@@ -36445,11 +38676,11 @@
     <row r="54" spans="1:82" ht="21" customHeight="1">
       <c r="A54" s="147"/>
       <c r="B54" s="148"/>
-      <c r="C54" s="236"/>
-      <c r="D54" s="237"/>
-      <c r="E54" s="253"/>
-      <c r="F54" s="254"/>
-      <c r="G54" s="243"/>
+      <c r="C54" s="237"/>
+      <c r="D54" s="238"/>
+      <c r="E54" s="254"/>
+      <c r="F54" s="255"/>
+      <c r="G54" s="244"/>
       <c r="H54" s="169"/>
       <c r="I54" s="169"/>
       <c r="J54" s="170"/>
@@ -36531,10 +38762,10 @@
     <row r="55" spans="1:82" ht="21" customHeight="1">
       <c r="A55" s="147"/>
       <c r="B55" s="148"/>
-      <c r="C55" s="236"/>
-      <c r="D55" s="237"/>
-      <c r="E55" s="253"/>
-      <c r="F55" s="254"/>
+      <c r="C55" s="237"/>
+      <c r="D55" s="238"/>
+      <c r="E55" s="254"/>
+      <c r="F55" s="255"/>
       <c r="G55" s="172" t="s">
         <v>139</v>
       </c>
@@ -36619,10 +38850,10 @@
     <row r="56" spans="1:82" ht="21" customHeight="1" thickBot="1">
       <c r="A56" s="147"/>
       <c r="B56" s="148"/>
-      <c r="C56" s="249"/>
-      <c r="D56" s="250"/>
-      <c r="E56" s="255"/>
-      <c r="F56" s="256"/>
+      <c r="C56" s="250"/>
+      <c r="D56" s="251"/>
+      <c r="E56" s="256"/>
+      <c r="F56" s="257"/>
       <c r="G56" s="160"/>
       <c r="H56" s="160"/>
       <c r="I56" s="160"/>
@@ -36703,7 +38934,7 @@
       <c r="CD56" s="23"/>
     </row>
     <row r="57" spans="1:82" ht="21" customHeight="1">
-      <c r="A57" s="247"/>
+      <c r="A57" s="248"/>
       <c r="B57" s="148"/>
       <c r="C57" s="162" t="s">
         <v>73</v>
@@ -37017,7 +39248,7 @@
       <c r="CB60"/>
     </row>
     <row r="61" spans="1:82" ht="11.25" customHeight="1">
-      <c r="M61" s="248" t="s">
+      <c r="M61" s="249" t="s">
         <v>105</v>
       </c>
       <c r="N61" s="151"/>
@@ -37096,10 +39327,10 @@
       <c r="BY61"/>
     </row>
     <row r="62" spans="1:82" ht="16" thickBot="1">
-      <c r="M62" s="258" t="s">
+      <c r="M62" s="259" t="s">
         <v>103</v>
       </c>
-      <c r="N62" s="259"/>
+      <c r="N62" s="260"/>
       <c r="O62" s="45"/>
       <c r="P62" s="45"/>
       <c r="Q62" s="45"/>
@@ -37123,10 +39354,10 @@
       <c r="AI62" s="45"/>
       <c r="AJ62" s="45"/>
       <c r="AK62" s="45"/>
-      <c r="AL62" s="259" t="s">
+      <c r="AL62" s="260" t="s">
         <v>17</v>
       </c>
-      <c r="AM62" s="259"/>
+      <c r="AM62" s="260"/>
       <c r="AN62" s="45"/>
       <c r="AO62" s="45"/>
       <c r="AP62" s="3"/>
@@ -37145,10 +39376,10 @@
       <c r="BC62" s="45"/>
       <c r="BD62" s="45"/>
       <c r="BE62" s="45"/>
-      <c r="BF62" s="259" t="s">
+      <c r="BF62" s="260" t="s">
         <v>104</v>
       </c>
-      <c r="BG62" s="259"/>
+      <c r="BG62" s="260"/>
       <c r="BH62" s="45"/>
       <c r="BI62" s="45"/>
       <c r="BJ62" s="45"/>
@@ -37267,8 +39498,8 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100E0A7EB1C84FE4E48B42E395C0170D4D9" ma:contentTypeVersion="12" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="902764865ec8026ecc77a486d41f0505">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="540e6531-8795-4248-80ce-25efd73518ad" xmlns:ns3="d4884cc8-da59-4935-9350-efc2119afb64" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="891e97f96a43bb936d5e478aa74004cc" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100E0A7EB1C84FE4E48B42E395C0170D4D9" ma:contentTypeVersion="13" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="5841263e4c5f98b2dd158151943496d0">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="540e6531-8795-4248-80ce-25efd73518ad" xmlns:ns3="d4884cc8-da59-4935-9350-efc2119afb64" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ab58f85e02a6cccc23910f93e0b18f7c" ns2:_="" ns3:_="">
     <xsd:import namespace="540e6531-8795-4248-80ce-25efd73518ad"/>
     <xsd:import namespace="d4884cc8-da59-4935-9350-efc2119afb64"/>
     <xsd:element name="properties">
@@ -37288,6 +39519,7 @@
                 <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
                 <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
                 <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -37338,6 +39570,11 @@
       </xsd:simpleType>
     </xsd:element>
     <xsd:element name="MediaServiceEventHashCode" ma:index="17" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="20" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
@@ -37490,11 +39727,11 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="540e6531-8795-4248-80ce-25efd73518ad"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="d4884cc8-da59-4935-9350-efc2119afb64"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
@@ -37509,7 +39746,7 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DB0EF105-C8E0-4FAC-9B31-A2779902C4D7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B18C654C-FEFF-4ED1-8175-D253336A849E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>

--- a/スケジュール管理/ガントチャート(随時更新).xlsx
+++ b/スケジュール管理/ガントチャート(随時更新).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://asojukustudent.sharepoint.com/sites/SD3D_abcc23227/Shared Documents/【Time3】PL酒見/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1072" documentId="8_{DC4E01AC-1792-944E-B797-35F481E3C1C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2F4373CF-EF4D-C74B-97D0-D015ACCE9007}"/>
+  <xr:revisionPtr revIDLastSave="1120" documentId="8_{DC4E01AC-1792-944E-B797-35F481E3C1C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4113BD96-0127-4F49-B8DD-9D2A54CFF4C3}"/>
   <bookViews>
     <workbookView xWindow="9840" yWindow="1560" windowWidth="22980" windowHeight="17740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="146">
   <si>
     <t>開発スケジュール</t>
     <rPh sb="0" eb="2">
@@ -431,9 +431,35 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>△6/15 中間レビュー（発表：瓜田）</t>
+    <rPh sb="6" eb="8">
+      <t>チュウカn</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ハッピョウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ウリタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>ログイン機能（F)</t>
     <rPh sb="4" eb="6">
       <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>◎</t>
+  </si>
+  <si>
+    <t>△6/15 中間レビュー（発表：瓜田）</t>
+    <rPh sb="6" eb="8">
+      <t>チュウカn</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ハッピョウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -466,6 +492,19 @@
     </rPh>
     <rPh sb="4" eb="6">
       <t>コウニュウキノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>△6/29 中間レビュー２（発表：中村）</t>
+    <rPh sb="6" eb="8">
+      <t>チュウカn</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ハッピョウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ナカ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -548,6 +587,10 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>サイドバー（F)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>テスト</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -559,19 +602,16 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>作品発表</t>
-    <rPh sb="0" eb="4">
-      <t>サクヒn</t>
+    <t>発表資料作成</t>
+    <rPh sb="0" eb="6">
+      <t>ハッピョウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>△7/17 作品発表(発表:？)</t>
-    <rPh sb="6" eb="10">
+    <t>作品発表</t>
+    <rPh sb="0" eb="4">
       <t>サクヒn</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ハッピョウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -981,53 +1021,10 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>◎</t>
-  </si>
-  <si>
-    <t>△6/15 中間レビュー（発表：瓜田）</t>
-    <rPh sb="6" eb="8">
-      <t>チュウカn</t>
+    <t>△7/26 作品発表(発表:酒見)</t>
+    <rPh sb="14" eb="16">
+      <t>サケミ</t>
     </rPh>
-    <rPh sb="13" eb="15">
-      <t>ハッピョウ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ウリタ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>△6/15 中間レビュー（発表：瓜田）</t>
-    <rPh sb="6" eb="8">
-      <t>チュウカn</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ハッピョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>発表資料作成</t>
-    <rPh sb="0" eb="6">
-      <t>ハッピョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>△6/29 中間レビュー２（発表：中村）</t>
-    <rPh sb="6" eb="8">
-      <t>チュウカn</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ハッピョウ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ナカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>サイドバー（F)</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1917,7 +1914,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="265">
+  <cellXfs count="263">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2079,6 +2076,7 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
@@ -2427,10 +2425,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -17192,6 +17187,154 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>89</xdr:col>
+      <xdr:colOff>187929</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>151948</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>91</xdr:col>
+      <xdr:colOff>186872</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>151948</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="135" name="直線コネクタ 134">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E551592A-2669-4B42-BAC8-E0742ED45C0C}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{D457834A-C175-B1CF-ABF4-512B2994982B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeShapeType="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="17488958" y="16429719"/>
+          <a:ext cx="376314" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0000FF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="12"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd type="diamond" w="lg" len="lg"/>
+          <a:tailEnd type="diamond" w="lg" len="lg"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:noFill/>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>89</xdr:col>
+      <xdr:colOff>10948</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>164224</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>91</xdr:col>
+      <xdr:colOff>9890</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>164224</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4339" name="直線コネクタ 4338">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5488772-1506-3948-8D02-449C842DECC5}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{D457834A-C175-B1CF-ABF4-512B2994982B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeShapeType="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="17079310" y="14528362"/>
+          <a:ext cx="371183" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0000FF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="12"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd type="diamond" w="lg" len="lg"/>
+          <a:tailEnd type="diamond" w="lg" len="lg"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:noFill/>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -26334,8 +26477,8 @@
   </sheetPr>
   <dimension ref="A1:DC67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BU1" zoomScale="175" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="CM8" sqref="CM8"/>
+    <sheetView tabSelected="1" topLeftCell="W1" zoomScale="87" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="CL56" sqref="CL56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
@@ -26351,115 +26494,115 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:107" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A1" s="180" t="s">
+      <c r="A1" s="181" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="181"/>
-      <c r="C1" s="181"/>
-      <c r="D1" s="181"/>
-      <c r="E1" s="181"/>
-      <c r="F1" s="181"/>
-      <c r="G1" s="181"/>
-      <c r="H1" s="181"/>
-      <c r="I1" s="202"/>
-      <c r="J1" s="180" t="s">
+      <c r="B1" s="182"/>
+      <c r="C1" s="182"/>
+      <c r="D1" s="182"/>
+      <c r="E1" s="182"/>
+      <c r="F1" s="182"/>
+      <c r="G1" s="182"/>
+      <c r="H1" s="182"/>
+      <c r="I1" s="203"/>
+      <c r="J1" s="181" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="181"/>
-      <c r="L1" s="181"/>
-      <c r="M1" s="181"/>
-      <c r="N1" s="181"/>
-      <c r="O1" s="196" t="s">
+      <c r="K1" s="182"/>
+      <c r="L1" s="182"/>
+      <c r="M1" s="182"/>
+      <c r="N1" s="182"/>
+      <c r="O1" s="197" t="s">
         <v>2</v>
       </c>
-      <c r="P1" s="197"/>
-      <c r="Q1" s="197"/>
-      <c r="R1" s="197"/>
-      <c r="S1" s="197"/>
-      <c r="T1" s="197"/>
-      <c r="U1" s="197"/>
-      <c r="V1" s="197"/>
-      <c r="W1" s="197"/>
-      <c r="X1" s="197"/>
-      <c r="Y1" s="197"/>
-      <c r="Z1" s="197"/>
-      <c r="AA1" s="197"/>
-      <c r="AB1" s="197"/>
-      <c r="AC1" s="197"/>
-      <c r="AD1" s="197"/>
-      <c r="AE1" s="197"/>
-      <c r="AF1" s="197"/>
-      <c r="AG1" s="197"/>
-      <c r="AH1" s="197"/>
-      <c r="AI1" s="197"/>
-      <c r="AJ1" s="197"/>
-      <c r="AK1" s="197"/>
-      <c r="AL1" s="197"/>
-      <c r="AM1" s="197"/>
-      <c r="AN1" s="197"/>
-      <c r="AO1" s="197"/>
-      <c r="AP1" s="197"/>
-      <c r="AQ1" s="197"/>
-      <c r="AR1" s="197"/>
-      <c r="AS1" s="197"/>
-      <c r="AT1" s="197"/>
-      <c r="AU1" s="197"/>
-      <c r="AV1" s="197"/>
-      <c r="AW1" s="197"/>
-      <c r="AX1" s="197"/>
-      <c r="AY1" s="197"/>
-      <c r="AZ1" s="197"/>
-      <c r="BA1" s="197"/>
-      <c r="BB1" s="197"/>
-      <c r="BC1" s="197"/>
-      <c r="BD1" s="197"/>
-      <c r="BE1" s="197"/>
-      <c r="BF1" s="197"/>
-      <c r="BG1" s="197"/>
-      <c r="BH1" s="197"/>
-      <c r="BI1" s="197"/>
-      <c r="BJ1" s="197"/>
-      <c r="BK1" s="197"/>
-      <c r="BL1" s="197"/>
-      <c r="BM1" s="197"/>
-      <c r="BN1" s="198"/>
-      <c r="BO1" s="184" t="s">
+      <c r="P1" s="198"/>
+      <c r="Q1" s="198"/>
+      <c r="R1" s="198"/>
+      <c r="S1" s="198"/>
+      <c r="T1" s="198"/>
+      <c r="U1" s="198"/>
+      <c r="V1" s="198"/>
+      <c r="W1" s="198"/>
+      <c r="X1" s="198"/>
+      <c r="Y1" s="198"/>
+      <c r="Z1" s="198"/>
+      <c r="AA1" s="198"/>
+      <c r="AB1" s="198"/>
+      <c r="AC1" s="198"/>
+      <c r="AD1" s="198"/>
+      <c r="AE1" s="198"/>
+      <c r="AF1" s="198"/>
+      <c r="AG1" s="198"/>
+      <c r="AH1" s="198"/>
+      <c r="AI1" s="198"/>
+      <c r="AJ1" s="198"/>
+      <c r="AK1" s="198"/>
+      <c r="AL1" s="198"/>
+      <c r="AM1" s="198"/>
+      <c r="AN1" s="198"/>
+      <c r="AO1" s="198"/>
+      <c r="AP1" s="198"/>
+      <c r="AQ1" s="198"/>
+      <c r="AR1" s="198"/>
+      <c r="AS1" s="198"/>
+      <c r="AT1" s="198"/>
+      <c r="AU1" s="198"/>
+      <c r="AV1" s="198"/>
+      <c r="AW1" s="198"/>
+      <c r="AX1" s="198"/>
+      <c r="AY1" s="198"/>
+      <c r="AZ1" s="198"/>
+      <c r="BA1" s="198"/>
+      <c r="BB1" s="198"/>
+      <c r="BC1" s="198"/>
+      <c r="BD1" s="198"/>
+      <c r="BE1" s="198"/>
+      <c r="BF1" s="198"/>
+      <c r="BG1" s="198"/>
+      <c r="BH1" s="198"/>
+      <c r="BI1" s="198"/>
+      <c r="BJ1" s="198"/>
+      <c r="BK1" s="198"/>
+      <c r="BL1" s="198"/>
+      <c r="BM1" s="198"/>
+      <c r="BN1" s="199"/>
+      <c r="BO1" s="185" t="s">
         <v>3</v>
       </c>
-      <c r="BP1" s="185"/>
-      <c r="BQ1" s="185"/>
-      <c r="BR1" s="185"/>
-      <c r="BS1" s="185"/>
-      <c r="BT1" s="185"/>
-      <c r="BU1" s="185"/>
-      <c r="BV1" s="185"/>
-      <c r="BW1" s="186"/>
-      <c r="BX1" s="174" t="s">
+      <c r="BP1" s="186"/>
+      <c r="BQ1" s="186"/>
+      <c r="BR1" s="186"/>
+      <c r="BS1" s="186"/>
+      <c r="BT1" s="186"/>
+      <c r="BU1" s="186"/>
+      <c r="BV1" s="186"/>
+      <c r="BW1" s="187"/>
+      <c r="BX1" s="175" t="s">
         <v>4</v>
       </c>
-      <c r="BY1" s="175"/>
-      <c r="BZ1" s="175"/>
-      <c r="CA1" s="175"/>
-      <c r="CB1" s="176"/>
-      <c r="CC1" s="175" t="s">
+      <c r="BY1" s="176"/>
+      <c r="BZ1" s="176"/>
+      <c r="CA1" s="176"/>
+      <c r="CB1" s="177"/>
+      <c r="CC1" s="176" t="s">
         <v>5</v>
       </c>
-      <c r="CD1" s="175"/>
-      <c r="CE1" s="175"/>
-      <c r="CF1" s="175"/>
-      <c r="CG1" s="211"/>
-      <c r="CH1" s="174" t="s">
+      <c r="CD1" s="176"/>
+      <c r="CE1" s="176"/>
+      <c r="CF1" s="176"/>
+      <c r="CG1" s="212"/>
+      <c r="CH1" s="175" t="s">
         <v>6</v>
       </c>
-      <c r="CI1" s="175"/>
-      <c r="CJ1" s="175"/>
-      <c r="CK1" s="176"/>
-      <c r="CL1" s="207">
+      <c r="CI1" s="176"/>
+      <c r="CJ1" s="176"/>
+      <c r="CK1" s="177"/>
+      <c r="CL1" s="208">
         <v>45036</v>
       </c>
-      <c r="CM1" s="207"/>
-      <c r="CN1" s="207"/>
-      <c r="CO1" s="208"/>
+      <c r="CM1" s="208"/>
+      <c r="CN1" s="208"/>
+      <c r="CO1" s="209"/>
       <c r="CP1"/>
       <c r="CQ1" t="s">
         <v>7</v>
@@ -26478,109 +26621,109 @@
       <c r="DC1" s="6"/>
     </row>
     <row r="2" spans="1:107" ht="19.5" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A2" s="182"/>
-      <c r="B2" s="183"/>
-      <c r="C2" s="183"/>
-      <c r="D2" s="183"/>
-      <c r="E2" s="183"/>
-      <c r="F2" s="183"/>
-      <c r="G2" s="183"/>
-      <c r="H2" s="183"/>
-      <c r="I2" s="203"/>
-      <c r="J2" s="182"/>
-      <c r="K2" s="183"/>
-      <c r="L2" s="183"/>
-      <c r="M2" s="183"/>
-      <c r="N2" s="183"/>
-      <c r="O2" s="199"/>
-      <c r="P2" s="200"/>
-      <c r="Q2" s="200"/>
-      <c r="R2" s="200"/>
-      <c r="S2" s="200"/>
-      <c r="T2" s="200"/>
-      <c r="U2" s="200"/>
-      <c r="V2" s="200"/>
-      <c r="W2" s="200"/>
-      <c r="X2" s="200"/>
-      <c r="Y2" s="200"/>
-      <c r="Z2" s="200"/>
-      <c r="AA2" s="200"/>
-      <c r="AB2" s="200"/>
-      <c r="AC2" s="200"/>
-      <c r="AD2" s="200"/>
-      <c r="AE2" s="200"/>
-      <c r="AF2" s="200"/>
-      <c r="AG2" s="200"/>
-      <c r="AH2" s="200"/>
-      <c r="AI2" s="200"/>
-      <c r="AJ2" s="200"/>
-      <c r="AK2" s="200"/>
-      <c r="AL2" s="200"/>
-      <c r="AM2" s="200"/>
-      <c r="AN2" s="200"/>
-      <c r="AO2" s="200"/>
-      <c r="AP2" s="200"/>
-      <c r="AQ2" s="200"/>
-      <c r="AR2" s="200"/>
-      <c r="AS2" s="200"/>
-      <c r="AT2" s="200"/>
-      <c r="AU2" s="200"/>
-      <c r="AV2" s="200"/>
-      <c r="AW2" s="200"/>
-      <c r="AX2" s="200"/>
-      <c r="AY2" s="200"/>
-      <c r="AZ2" s="200"/>
-      <c r="BA2" s="200"/>
-      <c r="BB2" s="200"/>
-      <c r="BC2" s="200"/>
-      <c r="BD2" s="200"/>
-      <c r="BE2" s="200"/>
-      <c r="BF2" s="200"/>
-      <c r="BG2" s="200"/>
-      <c r="BH2" s="200"/>
-      <c r="BI2" s="200"/>
-      <c r="BJ2" s="200"/>
-      <c r="BK2" s="200"/>
-      <c r="BL2" s="200"/>
-      <c r="BM2" s="200"/>
-      <c r="BN2" s="201"/>
-      <c r="BO2" s="204" t="s">
+      <c r="A2" s="183"/>
+      <c r="B2" s="184"/>
+      <c r="C2" s="184"/>
+      <c r="D2" s="184"/>
+      <c r="E2" s="184"/>
+      <c r="F2" s="184"/>
+      <c r="G2" s="184"/>
+      <c r="H2" s="184"/>
+      <c r="I2" s="204"/>
+      <c r="J2" s="183"/>
+      <c r="K2" s="184"/>
+      <c r="L2" s="184"/>
+      <c r="M2" s="184"/>
+      <c r="N2" s="184"/>
+      <c r="O2" s="200"/>
+      <c r="P2" s="201"/>
+      <c r="Q2" s="201"/>
+      <c r="R2" s="201"/>
+      <c r="S2" s="201"/>
+      <c r="T2" s="201"/>
+      <c r="U2" s="201"/>
+      <c r="V2" s="201"/>
+      <c r="W2" s="201"/>
+      <c r="X2" s="201"/>
+      <c r="Y2" s="201"/>
+      <c r="Z2" s="201"/>
+      <c r="AA2" s="201"/>
+      <c r="AB2" s="201"/>
+      <c r="AC2" s="201"/>
+      <c r="AD2" s="201"/>
+      <c r="AE2" s="201"/>
+      <c r="AF2" s="201"/>
+      <c r="AG2" s="201"/>
+      <c r="AH2" s="201"/>
+      <c r="AI2" s="201"/>
+      <c r="AJ2" s="201"/>
+      <c r="AK2" s="201"/>
+      <c r="AL2" s="201"/>
+      <c r="AM2" s="201"/>
+      <c r="AN2" s="201"/>
+      <c r="AO2" s="201"/>
+      <c r="AP2" s="201"/>
+      <c r="AQ2" s="201"/>
+      <c r="AR2" s="201"/>
+      <c r="AS2" s="201"/>
+      <c r="AT2" s="201"/>
+      <c r="AU2" s="201"/>
+      <c r="AV2" s="201"/>
+      <c r="AW2" s="201"/>
+      <c r="AX2" s="201"/>
+      <c r="AY2" s="201"/>
+      <c r="AZ2" s="201"/>
+      <c r="BA2" s="201"/>
+      <c r="BB2" s="201"/>
+      <c r="BC2" s="201"/>
+      <c r="BD2" s="201"/>
+      <c r="BE2" s="201"/>
+      <c r="BF2" s="201"/>
+      <c r="BG2" s="201"/>
+      <c r="BH2" s="201"/>
+      <c r="BI2" s="201"/>
+      <c r="BJ2" s="201"/>
+      <c r="BK2" s="201"/>
+      <c r="BL2" s="201"/>
+      <c r="BM2" s="201"/>
+      <c r="BN2" s="202"/>
+      <c r="BO2" s="205" t="s">
         <v>8</v>
       </c>
-      <c r="BP2" s="205"/>
-      <c r="BQ2" s="205"/>
-      <c r="BR2" s="205"/>
-      <c r="BS2" s="205"/>
-      <c r="BT2" s="205"/>
-      <c r="BU2" s="205"/>
-      <c r="BV2" s="205"/>
-      <c r="BW2" s="206"/>
-      <c r="BX2" s="174" t="s">
+      <c r="BP2" s="206"/>
+      <c r="BQ2" s="206"/>
+      <c r="BR2" s="206"/>
+      <c r="BS2" s="206"/>
+      <c r="BT2" s="206"/>
+      <c r="BU2" s="206"/>
+      <c r="BV2" s="206"/>
+      <c r="BW2" s="207"/>
+      <c r="BX2" s="175" t="s">
         <v>9</v>
       </c>
-      <c r="BY2" s="175"/>
-      <c r="BZ2" s="175"/>
-      <c r="CA2" s="175"/>
-      <c r="CB2" s="176"/>
-      <c r="CC2" s="209" t="s">
+      <c r="BY2" s="176"/>
+      <c r="BZ2" s="176"/>
+      <c r="CA2" s="176"/>
+      <c r="CB2" s="177"/>
+      <c r="CC2" s="210" t="s">
         <v>10</v>
       </c>
-      <c r="CD2" s="209"/>
-      <c r="CE2" s="209"/>
-      <c r="CF2" s="209"/>
-      <c r="CG2" s="210"/>
-      <c r="CH2" s="212" t="s">
+      <c r="CD2" s="210"/>
+      <c r="CE2" s="210"/>
+      <c r="CF2" s="210"/>
+      <c r="CG2" s="211"/>
+      <c r="CH2" s="213" t="s">
         <v>11</v>
       </c>
-      <c r="CI2" s="209"/>
-      <c r="CJ2" s="209"/>
-      <c r="CK2" s="213"/>
-      <c r="CL2" s="207" t="s">
+      <c r="CI2" s="210"/>
+      <c r="CJ2" s="210"/>
+      <c r="CK2" s="214"/>
+      <c r="CL2" s="208" t="s">
         <v>12</v>
       </c>
-      <c r="CM2" s="207"/>
-      <c r="CN2" s="207"/>
-      <c r="CO2" s="208"/>
+      <c r="CM2" s="208"/>
+      <c r="CN2" s="208"/>
+      <c r="CO2" s="209"/>
       <c r="CP2"/>
       <c r="CQ2"/>
       <c r="CR2"/>
@@ -26597,26 +26740,26 @@
       <c r="DC2"/>
     </row>
     <row r="3" spans="1:107" ht="13.5" customHeight="1">
-      <c r="A3" s="184" t="s">
+      <c r="A3" s="185" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="185"/>
-      <c r="C3" s="185"/>
-      <c r="D3" s="185"/>
-      <c r="E3" s="185"/>
-      <c r="F3" s="185"/>
-      <c r="G3" s="185"/>
-      <c r="H3" s="185"/>
-      <c r="I3" s="185"/>
-      <c r="J3" s="186"/>
+      <c r="B3" s="186"/>
+      <c r="C3" s="186"/>
+      <c r="D3" s="186"/>
+      <c r="E3" s="186"/>
+      <c r="F3" s="186"/>
+      <c r="G3" s="186"/>
+      <c r="H3" s="186"/>
+      <c r="I3" s="186"/>
+      <c r="J3" s="187"/>
       <c r="K3" s="126" t="s">
         <v>14</v>
       </c>
       <c r="L3" s="127"/>
-      <c r="M3" s="178" t="s">
+      <c r="M3" s="179" t="s">
         <v>15</v>
       </c>
-      <c r="N3" s="179"/>
+      <c r="N3" s="180"/>
       <c r="O3" s="117"/>
       <c r="P3" s="117"/>
       <c r="Q3" s="117"/>
@@ -26691,140 +26834,139 @@
       <c r="CB3" s="125"/>
       <c r="CC3" s="125"/>
       <c r="CD3" s="125"/>
-      <c r="CE3" s="177"/>
-      <c r="CF3" s="177"/>
+      <c r="CE3" s="178"/>
+      <c r="CF3" s="178"/>
       <c r="CG3" s="125"/>
       <c r="CH3" s="125"/>
       <c r="CI3" s="125"/>
       <c r="CJ3" s="125"/>
       <c r="CK3" s="125"/>
-      <c r="CL3" s="263"/>
-      <c r="CM3" s="263"/>
-      <c r="CN3" s="263"/>
-      <c r="CO3" s="264"/>
+      <c r="CL3" s="145"/>
+      <c r="CM3" s="145"/>
+      <c r="CO3" s="10"/>
     </row>
     <row r="4" spans="1:107" ht="13.5" customHeight="1">
-      <c r="A4" s="187"/>
-      <c r="B4" s="188"/>
-      <c r="C4" s="188"/>
-      <c r="D4" s="188"/>
-      <c r="E4" s="188"/>
-      <c r="F4" s="188"/>
-      <c r="G4" s="188"/>
-      <c r="H4" s="188"/>
-      <c r="I4" s="188"/>
-      <c r="J4" s="189"/>
+      <c r="A4" s="188"/>
+      <c r="B4" s="189"/>
+      <c r="C4" s="189"/>
+      <c r="D4" s="189"/>
+      <c r="E4" s="189"/>
+      <c r="F4" s="189"/>
+      <c r="G4" s="189"/>
+      <c r="H4" s="189"/>
+      <c r="I4" s="189"/>
+      <c r="J4" s="190"/>
       <c r="K4" s="11"/>
       <c r="L4" s="12"/>
-      <c r="M4" s="193" t="s">
+      <c r="M4" s="194" t="s">
         <v>19</v>
       </c>
-      <c r="N4" s="194"/>
-      <c r="O4" s="194"/>
-      <c r="P4" s="194"/>
-      <c r="Q4" s="194"/>
-      <c r="R4" s="195" t="s">
+      <c r="N4" s="195"/>
+      <c r="O4" s="195"/>
+      <c r="P4" s="195"/>
+      <c r="Q4" s="195"/>
+      <c r="R4" s="196" t="s">
         <v>20</v>
       </c>
-      <c r="S4" s="195"/>
-      <c r="T4" s="195"/>
-      <c r="U4" s="195"/>
-      <c r="V4" s="195"/>
-      <c r="W4" s="195" t="s">
+      <c r="S4" s="196"/>
+      <c r="T4" s="196"/>
+      <c r="U4" s="196"/>
+      <c r="V4" s="196"/>
+      <c r="W4" s="196" t="s">
         <v>21</v>
       </c>
-      <c r="X4" s="195"/>
-      <c r="Y4" s="195"/>
-      <c r="Z4" s="195"/>
-      <c r="AA4" s="195"/>
-      <c r="AB4" s="195" t="s">
+      <c r="X4" s="196"/>
+      <c r="Y4" s="196"/>
+      <c r="Z4" s="196"/>
+      <c r="AA4" s="196"/>
+      <c r="AB4" s="196" t="s">
         <v>22</v>
       </c>
-      <c r="AC4" s="195"/>
-      <c r="AD4" s="195"/>
-      <c r="AE4" s="195"/>
-      <c r="AF4" s="195"/>
-      <c r="AG4" s="195" t="s">
+      <c r="AC4" s="196"/>
+      <c r="AD4" s="196"/>
+      <c r="AE4" s="196"/>
+      <c r="AF4" s="196"/>
+      <c r="AG4" s="196" t="s">
         <v>23</v>
       </c>
-      <c r="AH4" s="195"/>
-      <c r="AI4" s="195"/>
-      <c r="AJ4" s="195"/>
-      <c r="AK4" s="195"/>
-      <c r="AL4" s="195" t="s">
+      <c r="AH4" s="196"/>
+      <c r="AI4" s="196"/>
+      <c r="AJ4" s="196"/>
+      <c r="AK4" s="196"/>
+      <c r="AL4" s="196" t="s">
         <v>24</v>
       </c>
-      <c r="AM4" s="195"/>
-      <c r="AN4" s="195"/>
-      <c r="AO4" s="195"/>
-      <c r="AP4" s="195"/>
-      <c r="AQ4" s="195" t="s">
+      <c r="AM4" s="196"/>
+      <c r="AN4" s="196"/>
+      <c r="AO4" s="196"/>
+      <c r="AP4" s="196"/>
+      <c r="AQ4" s="196" t="s">
         <v>25</v>
       </c>
-      <c r="AR4" s="195"/>
-      <c r="AS4" s="195"/>
-      <c r="AT4" s="195"/>
-      <c r="AU4" s="195"/>
-      <c r="AV4" s="195" t="s">
+      <c r="AR4" s="196"/>
+      <c r="AS4" s="196"/>
+      <c r="AT4" s="196"/>
+      <c r="AU4" s="196"/>
+      <c r="AV4" s="196" t="s">
         <v>26</v>
       </c>
-      <c r="AW4" s="195"/>
-      <c r="AX4" s="195"/>
-      <c r="AY4" s="195"/>
-      <c r="AZ4" s="195"/>
-      <c r="BA4" s="195" t="s">
+      <c r="AW4" s="196"/>
+      <c r="AX4" s="196"/>
+      <c r="AY4" s="196"/>
+      <c r="AZ4" s="196"/>
+      <c r="BA4" s="196" t="s">
         <v>27</v>
       </c>
-      <c r="BB4" s="195"/>
-      <c r="BC4" s="195"/>
-      <c r="BD4" s="195"/>
-      <c r="BE4" s="195"/>
-      <c r="BF4" s="195" t="s">
+      <c r="BB4" s="196"/>
+      <c r="BC4" s="196"/>
+      <c r="BD4" s="196"/>
+      <c r="BE4" s="196"/>
+      <c r="BF4" s="196" t="s">
         <v>28</v>
       </c>
-      <c r="BG4" s="195"/>
-      <c r="BH4" s="195"/>
-      <c r="BI4" s="195"/>
-      <c r="BJ4" s="195"/>
-      <c r="BK4" s="195" t="s">
+      <c r="BG4" s="196"/>
+      <c r="BH4" s="196"/>
+      <c r="BI4" s="196"/>
+      <c r="BJ4" s="196"/>
+      <c r="BK4" s="196" t="s">
         <v>29</v>
       </c>
-      <c r="BL4" s="195"/>
-      <c r="BM4" s="195"/>
-      <c r="BN4" s="195"/>
-      <c r="BO4" s="195"/>
-      <c r="BP4" s="195" t="s">
+      <c r="BL4" s="196"/>
+      <c r="BM4" s="196"/>
+      <c r="BN4" s="196"/>
+      <c r="BO4" s="196"/>
+      <c r="BP4" s="196" t="s">
         <v>30</v>
       </c>
-      <c r="BQ4" s="195"/>
-      <c r="BR4" s="195"/>
-      <c r="BS4" s="195"/>
-      <c r="BT4" s="195"/>
-      <c r="BU4" s="195" t="s">
+      <c r="BQ4" s="196"/>
+      <c r="BR4" s="196"/>
+      <c r="BS4" s="196"/>
+      <c r="BT4" s="196"/>
+      <c r="BU4" s="196" t="s">
         <v>31</v>
       </c>
-      <c r="BV4" s="195"/>
-      <c r="BW4" s="195"/>
-      <c r="BX4" s="195"/>
-      <c r="BY4" s="195"/>
-      <c r="BZ4" s="195" t="s">
+      <c r="BV4" s="196"/>
+      <c r="BW4" s="196"/>
+      <c r="BX4" s="196"/>
+      <c r="BY4" s="196"/>
+      <c r="BZ4" s="196" t="s">
         <v>32</v>
       </c>
-      <c r="CA4" s="195"/>
-      <c r="CB4" s="195"/>
-      <c r="CC4" s="195"/>
-      <c r="CD4" s="195"/>
-      <c r="CE4" s="151" t="s">
+      <c r="CA4" s="196"/>
+      <c r="CB4" s="196"/>
+      <c r="CC4" s="196"/>
+      <c r="CD4" s="196"/>
+      <c r="CE4" s="152" t="s">
         <v>33</v>
       </c>
-      <c r="CF4" s="151"/>
+      <c r="CF4" s="152"/>
       <c r="CG4" s="13"/>
       <c r="CH4" s="14"/>
       <c r="CI4" s="14"/>
-      <c r="CJ4" s="151" t="s">
+      <c r="CJ4" s="152" t="s">
         <v>34</v>
       </c>
-      <c r="CK4" s="151"/>
+      <c r="CK4" s="152"/>
       <c r="CL4" s="13"/>
       <c r="CM4" s="13"/>
       <c r="CN4" s="13"/>
@@ -26845,16 +26987,16 @@
       <c r="DC4" s="14"/>
     </row>
     <row r="5" spans="1:107" s="21" customFormat="1" ht="6" customHeight="1">
-      <c r="A5" s="187"/>
-      <c r="B5" s="188"/>
-      <c r="C5" s="188"/>
-      <c r="D5" s="188"/>
-      <c r="E5" s="188"/>
-      <c r="F5" s="188"/>
-      <c r="G5" s="188"/>
-      <c r="H5" s="188"/>
-      <c r="I5" s="188"/>
-      <c r="J5" s="189"/>
+      <c r="A5" s="188"/>
+      <c r="B5" s="189"/>
+      <c r="C5" s="189"/>
+      <c r="D5" s="189"/>
+      <c r="E5" s="189"/>
+      <c r="F5" s="189"/>
+      <c r="G5" s="189"/>
+      <c r="H5" s="189"/>
+      <c r="I5" s="189"/>
+      <c r="J5" s="190"/>
       <c r="K5" s="2"/>
       <c r="L5" s="16"/>
       <c r="M5" s="17"/>
@@ -26954,16 +27096,16 @@
       <c r="DC5" s="14"/>
     </row>
     <row r="6" spans="1:107" ht="6" customHeight="1" thickBot="1">
-      <c r="A6" s="190"/>
-      <c r="B6" s="191"/>
-      <c r="C6" s="191"/>
-      <c r="D6" s="191"/>
-      <c r="E6" s="191"/>
-      <c r="F6" s="191"/>
-      <c r="G6" s="191"/>
-      <c r="H6" s="191"/>
-      <c r="I6" s="191"/>
-      <c r="J6" s="192"/>
+      <c r="A6" s="191"/>
+      <c r="B6" s="192"/>
+      <c r="C6" s="192"/>
+      <c r="D6" s="192"/>
+      <c r="E6" s="192"/>
+      <c r="F6" s="192"/>
+      <c r="G6" s="192"/>
+      <c r="H6" s="192"/>
+      <c r="I6" s="192"/>
+      <c r="J6" s="193"/>
       <c r="L6" s="22"/>
       <c r="M6" s="23"/>
       <c r="N6" s="24"/>
@@ -27059,20 +27201,20 @@
       <c r="CZ6" s="23"/>
     </row>
     <row r="7" spans="1:107" ht="21" customHeight="1" thickTop="1">
-      <c r="A7" s="145" t="s">
+      <c r="A7" s="146" t="s">
         <v>35</v>
       </c>
-      <c r="B7" s="146"/>
-      <c r="C7" s="225" t="s">
+      <c r="B7" s="147"/>
+      <c r="C7" s="226" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="221"/>
-      <c r="E7" s="221"/>
-      <c r="F7" s="221"/>
-      <c r="G7" s="221"/>
-      <c r="H7" s="221"/>
-      <c r="I7" s="221"/>
-      <c r="J7" s="222"/>
+      <c r="D7" s="222"/>
+      <c r="E7" s="222"/>
+      <c r="F7" s="222"/>
+      <c r="G7" s="222"/>
+      <c r="H7" s="222"/>
+      <c r="I7" s="222"/>
+      <c r="J7" s="223"/>
       <c r="K7" s="21" t="s">
         <v>37</v>
       </c>
@@ -27175,16 +27317,16 @@
       <c r="DC7" s="23"/>
     </row>
     <row r="8" spans="1:107" ht="21" customHeight="1" thickBot="1">
-      <c r="A8" s="147"/>
-      <c r="B8" s="148"/>
-      <c r="C8" s="159"/>
-      <c r="D8" s="160"/>
-      <c r="E8" s="160"/>
-      <c r="F8" s="160"/>
-      <c r="G8" s="160"/>
-      <c r="H8" s="160"/>
-      <c r="I8" s="160"/>
-      <c r="J8" s="161"/>
+      <c r="A8" s="148"/>
+      <c r="B8" s="149"/>
+      <c r="C8" s="160"/>
+      <c r="D8" s="161"/>
+      <c r="E8" s="161"/>
+      <c r="F8" s="161"/>
+      <c r="G8" s="161"/>
+      <c r="H8" s="161"/>
+      <c r="I8" s="161"/>
+      <c r="J8" s="162"/>
       <c r="K8" s="70" t="s">
         <v>39</v>
       </c>
@@ -27290,18 +27432,18 @@
       <c r="DC8" s="23"/>
     </row>
     <row r="9" spans="1:107" ht="21" customHeight="1">
-      <c r="A9" s="147"/>
-      <c r="B9" s="148"/>
-      <c r="C9" s="162" t="s">
+      <c r="A9" s="148"/>
+      <c r="B9" s="149"/>
+      <c r="C9" s="163" t="s">
         <v>42</v>
       </c>
-      <c r="D9" s="163"/>
-      <c r="E9" s="163"/>
-      <c r="F9" s="163"/>
-      <c r="G9" s="163"/>
-      <c r="H9" s="163"/>
-      <c r="I9" s="163"/>
-      <c r="J9" s="164"/>
+      <c r="D9" s="164"/>
+      <c r="E9" s="164"/>
+      <c r="F9" s="164"/>
+      <c r="G9" s="164"/>
+      <c r="H9" s="164"/>
+      <c r="I9" s="164"/>
+      <c r="J9" s="165"/>
       <c r="K9" s="21" t="s">
         <v>37</v>
       </c>
@@ -27403,16 +27545,16 @@
       <c r="DC9" s="23"/>
     </row>
     <row r="10" spans="1:107" ht="21" customHeight="1" thickBot="1">
-      <c r="A10" s="147"/>
-      <c r="B10" s="148"/>
-      <c r="C10" s="159"/>
-      <c r="D10" s="160"/>
-      <c r="E10" s="160"/>
-      <c r="F10" s="160"/>
-      <c r="G10" s="160"/>
-      <c r="H10" s="160"/>
-      <c r="I10" s="160"/>
-      <c r="J10" s="161"/>
+      <c r="A10" s="148"/>
+      <c r="B10" s="149"/>
+      <c r="C10" s="160"/>
+      <c r="D10" s="161"/>
+      <c r="E10" s="161"/>
+      <c r="F10" s="161"/>
+      <c r="G10" s="161"/>
+      <c r="H10" s="161"/>
+      <c r="I10" s="161"/>
+      <c r="J10" s="162"/>
       <c r="K10" s="70" t="s">
         <v>39</v>
       </c>
@@ -27514,18 +27656,18 @@
       <c r="DC10" s="23"/>
     </row>
     <row r="11" spans="1:107" ht="21" customHeight="1">
-      <c r="A11" s="147"/>
-      <c r="B11" s="148"/>
-      <c r="C11" s="162" t="s">
+      <c r="A11" s="148"/>
+      <c r="B11" s="149"/>
+      <c r="C11" s="163" t="s">
         <v>43</v>
       </c>
-      <c r="D11" s="163"/>
-      <c r="E11" s="163"/>
-      <c r="F11" s="163"/>
-      <c r="G11" s="163"/>
-      <c r="H11" s="163"/>
-      <c r="I11" s="163"/>
-      <c r="J11" s="164"/>
+      <c r="D11" s="164"/>
+      <c r="E11" s="164"/>
+      <c r="F11" s="164"/>
+      <c r="G11" s="164"/>
+      <c r="H11" s="164"/>
+      <c r="I11" s="164"/>
+      <c r="J11" s="165"/>
       <c r="K11" s="21" t="s">
         <v>37</v>
       </c>
@@ -27631,16 +27773,16 @@
       <c r="DC11" s="23"/>
     </row>
     <row r="12" spans="1:107" ht="21" customHeight="1" thickBot="1">
-      <c r="A12" s="147"/>
-      <c r="B12" s="148"/>
-      <c r="C12" s="159"/>
-      <c r="D12" s="160"/>
-      <c r="E12" s="160"/>
-      <c r="F12" s="160"/>
-      <c r="G12" s="160"/>
-      <c r="H12" s="160"/>
-      <c r="I12" s="160"/>
-      <c r="J12" s="161"/>
+      <c r="A12" s="148"/>
+      <c r="B12" s="149"/>
+      <c r="C12" s="160"/>
+      <c r="D12" s="161"/>
+      <c r="E12" s="161"/>
+      <c r="F12" s="161"/>
+      <c r="G12" s="161"/>
+      <c r="H12" s="161"/>
+      <c r="I12" s="161"/>
+      <c r="J12" s="162"/>
       <c r="K12" s="70" t="s">
         <v>39</v>
       </c>
@@ -27746,18 +27888,18 @@
       <c r="DC12" s="23"/>
     </row>
     <row r="13" spans="1:107" ht="21" customHeight="1">
-      <c r="A13" s="147"/>
-      <c r="B13" s="148"/>
-      <c r="C13" s="171" t="s">
+      <c r="A13" s="148"/>
+      <c r="B13" s="149"/>
+      <c r="C13" s="172" t="s">
         <v>47</v>
       </c>
-      <c r="D13" s="172"/>
-      <c r="E13" s="172"/>
-      <c r="F13" s="172"/>
-      <c r="G13" s="172"/>
-      <c r="H13" s="172"/>
-      <c r="I13" s="172"/>
-      <c r="J13" s="173"/>
+      <c r="D13" s="173"/>
+      <c r="E13" s="173"/>
+      <c r="F13" s="173"/>
+      <c r="G13" s="173"/>
+      <c r="H13" s="173"/>
+      <c r="I13" s="173"/>
+      <c r="J13" s="174"/>
       <c r="K13" s="21" t="s">
         <v>37</v>
       </c>
@@ -27861,16 +28003,16 @@
       <c r="DC13" s="23"/>
     </row>
     <row r="14" spans="1:107" ht="21" customHeight="1" thickBot="1">
-      <c r="A14" s="223"/>
-      <c r="B14" s="224"/>
-      <c r="C14" s="165"/>
-      <c r="D14" s="166"/>
-      <c r="E14" s="166"/>
-      <c r="F14" s="166"/>
-      <c r="G14" s="166"/>
-      <c r="H14" s="166"/>
-      <c r="I14" s="166"/>
-      <c r="J14" s="167"/>
+      <c r="A14" s="224"/>
+      <c r="B14" s="225"/>
+      <c r="C14" s="166"/>
+      <c r="D14" s="167"/>
+      <c r="E14" s="167"/>
+      <c r="F14" s="167"/>
+      <c r="G14" s="167"/>
+      <c r="H14" s="167"/>
+      <c r="I14" s="167"/>
+      <c r="J14" s="168"/>
       <c r="K14" s="73" t="s">
         <v>39</v>
       </c>
@@ -27972,20 +28114,20 @@
       <c r="DC14" s="23"/>
     </row>
     <row r="15" spans="1:107" ht="21" customHeight="1" thickTop="1">
-      <c r="A15" s="145" t="s">
+      <c r="A15" s="146" t="s">
         <v>49</v>
       </c>
-      <c r="B15" s="146"/>
-      <c r="C15" s="214" t="s">
+      <c r="B15" s="147"/>
+      <c r="C15" s="215" t="s">
         <v>50</v>
       </c>
-      <c r="D15" s="215"/>
-      <c r="E15" s="215"/>
-      <c r="F15" s="215"/>
-      <c r="G15" s="215"/>
-      <c r="H15" s="215"/>
-      <c r="I15" s="215"/>
-      <c r="J15" s="216"/>
+      <c r="D15" s="216"/>
+      <c r="E15" s="216"/>
+      <c r="F15" s="216"/>
+      <c r="G15" s="216"/>
+      <c r="H15" s="216"/>
+      <c r="I15" s="216"/>
+      <c r="J15" s="217"/>
       <c r="K15" s="79" t="s">
         <v>37</v>
       </c>
@@ -28087,16 +28229,16 @@
       <c r="DC15" s="23"/>
     </row>
     <row r="16" spans="1:107" ht="21" customHeight="1" thickBot="1">
-      <c r="A16" s="147"/>
-      <c r="B16" s="148"/>
-      <c r="C16" s="217"/>
-      <c r="D16" s="218"/>
-      <c r="E16" s="218"/>
-      <c r="F16" s="218"/>
-      <c r="G16" s="218"/>
-      <c r="H16" s="218"/>
-      <c r="I16" s="218"/>
-      <c r="J16" s="219"/>
+      <c r="A16" s="148"/>
+      <c r="B16" s="149"/>
+      <c r="C16" s="218"/>
+      <c r="D16" s="219"/>
+      <c r="E16" s="219"/>
+      <c r="F16" s="219"/>
+      <c r="G16" s="219"/>
+      <c r="H16" s="219"/>
+      <c r="I16" s="219"/>
+      <c r="J16" s="220"/>
       <c r="K16" s="70" t="s">
         <v>39</v>
       </c>
@@ -28198,18 +28340,18 @@
       <c r="DC16" s="23"/>
     </row>
     <row r="17" spans="1:107" ht="21" customHeight="1">
-      <c r="A17" s="147"/>
-      <c r="B17" s="148"/>
-      <c r="C17" s="162" t="s">
+      <c r="A17" s="148"/>
+      <c r="B17" s="149"/>
+      <c r="C17" s="163" t="s">
         <v>51</v>
       </c>
-      <c r="D17" s="163"/>
-      <c r="E17" s="163"/>
-      <c r="F17" s="163"/>
-      <c r="G17" s="163"/>
-      <c r="H17" s="163"/>
-      <c r="I17" s="163"/>
-      <c r="J17" s="164"/>
+      <c r="D17" s="164"/>
+      <c r="E17" s="164"/>
+      <c r="F17" s="164"/>
+      <c r="G17" s="164"/>
+      <c r="H17" s="164"/>
+      <c r="I17" s="164"/>
+      <c r="J17" s="165"/>
       <c r="K17" s="21" t="s">
         <v>37</v>
       </c>
@@ -28311,16 +28453,16 @@
       <c r="DC17" s="23"/>
     </row>
     <row r="18" spans="1:107" ht="21" customHeight="1" thickBot="1">
-      <c r="A18" s="223"/>
-      <c r="B18" s="224"/>
-      <c r="C18" s="165"/>
-      <c r="D18" s="166"/>
-      <c r="E18" s="166"/>
-      <c r="F18" s="166"/>
-      <c r="G18" s="166"/>
-      <c r="H18" s="166"/>
-      <c r="I18" s="166"/>
-      <c r="J18" s="167"/>
+      <c r="A18" s="224"/>
+      <c r="B18" s="225"/>
+      <c r="C18" s="166"/>
+      <c r="D18" s="167"/>
+      <c r="E18" s="167"/>
+      <c r="F18" s="167"/>
+      <c r="G18" s="167"/>
+      <c r="H18" s="167"/>
+      <c r="I18" s="167"/>
+      <c r="J18" s="168"/>
       <c r="K18" s="73" t="s">
         <v>39</v>
       </c>
@@ -28422,20 +28564,20 @@
       <c r="DC18" s="23"/>
     </row>
     <row r="19" spans="1:107" ht="21" customHeight="1" thickTop="1">
-      <c r="A19" s="145" t="s">
+      <c r="A19" s="146" t="s">
         <v>52</v>
       </c>
-      <c r="B19" s="146"/>
-      <c r="C19" s="220" t="s">
+      <c r="B19" s="147"/>
+      <c r="C19" s="221" t="s">
         <v>53</v>
       </c>
-      <c r="D19" s="221"/>
-      <c r="E19" s="221"/>
-      <c r="F19" s="221"/>
-      <c r="G19" s="221"/>
-      <c r="H19" s="221"/>
-      <c r="I19" s="221"/>
-      <c r="J19" s="222"/>
+      <c r="D19" s="222"/>
+      <c r="E19" s="222"/>
+      <c r="F19" s="222"/>
+      <c r="G19" s="222"/>
+      <c r="H19" s="222"/>
+      <c r="I19" s="222"/>
+      <c r="J19" s="223"/>
       <c r="K19" s="79" t="s">
         <v>37</v>
       </c>
@@ -28537,16 +28679,16 @@
       <c r="DC19" s="23"/>
     </row>
     <row r="20" spans="1:107" ht="21" customHeight="1" thickBot="1">
-      <c r="A20" s="147"/>
-      <c r="B20" s="148"/>
-      <c r="C20" s="159"/>
-      <c r="D20" s="160"/>
-      <c r="E20" s="160"/>
-      <c r="F20" s="160"/>
-      <c r="G20" s="160"/>
-      <c r="H20" s="160"/>
-      <c r="I20" s="160"/>
-      <c r="J20" s="161"/>
+      <c r="A20" s="148"/>
+      <c r="B20" s="149"/>
+      <c r="C20" s="160"/>
+      <c r="D20" s="161"/>
+      <c r="E20" s="161"/>
+      <c r="F20" s="161"/>
+      <c r="G20" s="161"/>
+      <c r="H20" s="161"/>
+      <c r="I20" s="161"/>
+      <c r="J20" s="162"/>
       <c r="K20" s="70" t="s">
         <v>39</v>
       </c>
@@ -28648,18 +28790,18 @@
       <c r="DC20" s="23"/>
     </row>
     <row r="21" spans="1:107" ht="21" customHeight="1">
-      <c r="A21" s="147"/>
-      <c r="B21" s="148"/>
-      <c r="C21" s="162" t="s">
+      <c r="A21" s="148"/>
+      <c r="B21" s="149"/>
+      <c r="C21" s="163" t="s">
         <v>54</v>
       </c>
-      <c r="D21" s="163"/>
-      <c r="E21" s="163"/>
-      <c r="F21" s="163"/>
-      <c r="G21" s="163"/>
-      <c r="H21" s="163"/>
-      <c r="I21" s="163"/>
-      <c r="J21" s="164"/>
+      <c r="D21" s="164"/>
+      <c r="E21" s="164"/>
+      <c r="F21" s="164"/>
+      <c r="G21" s="164"/>
+      <c r="H21" s="164"/>
+      <c r="I21" s="164"/>
+      <c r="J21" s="165"/>
       <c r="K21" s="21" t="s">
         <v>37</v>
       </c>
@@ -28761,16 +28903,16 @@
       <c r="DC21" s="23"/>
     </row>
     <row r="22" spans="1:107" ht="21" customHeight="1" thickBot="1">
-      <c r="A22" s="223"/>
-      <c r="B22" s="224"/>
-      <c r="C22" s="165"/>
-      <c r="D22" s="166"/>
-      <c r="E22" s="166"/>
-      <c r="F22" s="166"/>
-      <c r="G22" s="166"/>
-      <c r="H22" s="166"/>
-      <c r="I22" s="166"/>
-      <c r="J22" s="167"/>
+      <c r="A22" s="224"/>
+      <c r="B22" s="225"/>
+      <c r="C22" s="166"/>
+      <c r="D22" s="167"/>
+      <c r="E22" s="167"/>
+      <c r="F22" s="167"/>
+      <c r="G22" s="167"/>
+      <c r="H22" s="167"/>
+      <c r="I22" s="167"/>
+      <c r="J22" s="168"/>
       <c r="K22" s="73" t="s">
         <v>39</v>
       </c>
@@ -28872,20 +29014,20 @@
       <c r="DC22" s="23"/>
     </row>
     <row r="23" spans="1:107" ht="21" customHeight="1" thickTop="1">
-      <c r="A23" s="145" t="s">
+      <c r="A23" s="146" t="s">
         <v>55</v>
       </c>
-      <c r="B23" s="146"/>
-      <c r="C23" s="220" t="s">
+      <c r="B23" s="147"/>
+      <c r="C23" s="221" t="s">
         <v>56</v>
       </c>
-      <c r="D23" s="221"/>
-      <c r="E23" s="221"/>
-      <c r="F23" s="221"/>
-      <c r="G23" s="221"/>
-      <c r="H23" s="221"/>
-      <c r="I23" s="221"/>
-      <c r="J23" s="222"/>
+      <c r="D23" s="222"/>
+      <c r="E23" s="222"/>
+      <c r="F23" s="222"/>
+      <c r="G23" s="222"/>
+      <c r="H23" s="222"/>
+      <c r="I23" s="222"/>
+      <c r="J23" s="223"/>
       <c r="K23" s="79" t="s">
         <v>37</v>
       </c>
@@ -28942,7 +29084,7 @@
         <v>57</v>
       </c>
       <c r="BJ23" s="69" t="s">
-        <v>141</v>
+        <v>58</v>
       </c>
       <c r="BK23" s="83"/>
       <c r="BL23" s="81"/>
@@ -28991,16 +29133,16 @@
       <c r="DC23" s="23"/>
     </row>
     <row r="24" spans="1:107" ht="21" customHeight="1">
-      <c r="A24" s="147"/>
-      <c r="B24" s="148"/>
-      <c r="C24" s="168"/>
-      <c r="D24" s="169"/>
-      <c r="E24" s="169"/>
-      <c r="F24" s="169"/>
-      <c r="G24" s="169"/>
-      <c r="H24" s="169"/>
-      <c r="I24" s="169"/>
-      <c r="J24" s="170"/>
+      <c r="A24" s="148"/>
+      <c r="B24" s="149"/>
+      <c r="C24" s="169"/>
+      <c r="D24" s="170"/>
+      <c r="E24" s="170"/>
+      <c r="F24" s="170"/>
+      <c r="G24" s="170"/>
+      <c r="H24" s="170"/>
+      <c r="I24" s="170"/>
+      <c r="J24" s="171"/>
       <c r="K24" s="70" t="s">
         <v>39</v>
       </c>
@@ -29104,18 +29246,18 @@
       <c r="DC24" s="23"/>
     </row>
     <row r="25" spans="1:107" ht="21" customHeight="1">
-      <c r="A25" s="147"/>
-      <c r="B25" s="148"/>
-      <c r="C25" s="171" t="s">
-        <v>58</v>
+      <c r="A25" s="148"/>
+      <c r="B25" s="149"/>
+      <c r="C25" s="172" t="s">
+        <v>59</v>
       </c>
-      <c r="D25" s="172"/>
-      <c r="E25" s="172"/>
-      <c r="F25" s="172"/>
-      <c r="G25" s="172"/>
-      <c r="H25" s="172"/>
-      <c r="I25" s="172"/>
-      <c r="J25" s="173"/>
+      <c r="D25" s="173"/>
+      <c r="E25" s="173"/>
+      <c r="F25" s="173"/>
+      <c r="G25" s="173"/>
+      <c r="H25" s="173"/>
+      <c r="I25" s="173"/>
+      <c r="J25" s="174"/>
       <c r="K25" s="21" t="s">
         <v>37</v>
       </c>
@@ -29169,10 +29311,10 @@
       <c r="BG25" s="26"/>
       <c r="BH25" s="23"/>
       <c r="BI25" s="23" t="s">
-        <v>140</v>
+        <v>60</v>
       </c>
       <c r="BJ25" s="69" t="s">
-        <v>142</v>
+        <v>61</v>
       </c>
       <c r="BK25" s="27"/>
       <c r="BL25" s="23"/>
@@ -29221,16 +29363,16 @@
       <c r="DC25" s="23"/>
     </row>
     <row r="26" spans="1:107" ht="21" customHeight="1" thickBot="1">
-      <c r="A26" s="147"/>
-      <c r="B26" s="148"/>
-      <c r="C26" s="159"/>
-      <c r="D26" s="160"/>
-      <c r="E26" s="160"/>
-      <c r="F26" s="160"/>
-      <c r="G26" s="160"/>
-      <c r="H26" s="160"/>
-      <c r="I26" s="160"/>
-      <c r="J26" s="161"/>
+      <c r="A26" s="148"/>
+      <c r="B26" s="149"/>
+      <c r="C26" s="160"/>
+      <c r="D26" s="161"/>
+      <c r="E26" s="161"/>
+      <c r="F26" s="161"/>
+      <c r="G26" s="161"/>
+      <c r="H26" s="161"/>
+      <c r="I26" s="161"/>
+      <c r="J26" s="162"/>
       <c r="K26" s="89" t="s">
         <v>39</v>
       </c>
@@ -29334,18 +29476,18 @@
       <c r="DC26" s="23"/>
     </row>
     <row r="27" spans="1:107" ht="21" customHeight="1">
-      <c r="A27" s="147"/>
-      <c r="B27" s="148"/>
-      <c r="C27" s="162" t="s">
-        <v>59</v>
+      <c r="A27" s="148"/>
+      <c r="B27" s="149"/>
+      <c r="C27" s="163" t="s">
+        <v>62</v>
       </c>
-      <c r="D27" s="163"/>
-      <c r="E27" s="163"/>
-      <c r="F27" s="163"/>
-      <c r="G27" s="163"/>
-      <c r="H27" s="163"/>
-      <c r="I27" s="163"/>
-      <c r="J27" s="164"/>
+      <c r="D27" s="164"/>
+      <c r="E27" s="164"/>
+      <c r="F27" s="164"/>
+      <c r="G27" s="164"/>
+      <c r="H27" s="164"/>
+      <c r="I27" s="164"/>
+      <c r="J27" s="165"/>
       <c r="K27" s="1" t="s">
         <v>37</v>
       </c>
@@ -29402,7 +29544,7 @@
         <v>57</v>
       </c>
       <c r="BJ27" s="69" t="s">
-        <v>142</v>
+        <v>61</v>
       </c>
       <c r="BK27" s="87"/>
       <c r="BL27" s="85"/>
@@ -29451,16 +29593,16 @@
       <c r="DC27" s="23"/>
     </row>
     <row r="28" spans="1:107" ht="21" customHeight="1">
-      <c r="A28" s="147"/>
-      <c r="B28" s="148"/>
-      <c r="C28" s="168"/>
-      <c r="D28" s="169"/>
-      <c r="E28" s="169"/>
-      <c r="F28" s="169"/>
-      <c r="G28" s="169"/>
-      <c r="H28" s="169"/>
-      <c r="I28" s="169"/>
-      <c r="J28" s="170"/>
+      <c r="A28" s="148"/>
+      <c r="B28" s="149"/>
+      <c r="C28" s="169"/>
+      <c r="D28" s="170"/>
+      <c r="E28" s="170"/>
+      <c r="F28" s="170"/>
+      <c r="G28" s="170"/>
+      <c r="H28" s="170"/>
+      <c r="I28" s="170"/>
+      <c r="J28" s="171"/>
       <c r="K28" s="70" t="s">
         <v>39</v>
       </c>
@@ -29564,18 +29706,18 @@
       <c r="DC28" s="23"/>
     </row>
     <row r="29" spans="1:107" ht="21" customHeight="1">
-      <c r="A29" s="147"/>
-      <c r="B29" s="148"/>
-      <c r="C29" s="171" t="s">
-        <v>60</v>
+      <c r="A29" s="148"/>
+      <c r="B29" s="149"/>
+      <c r="C29" s="172" t="s">
+        <v>63</v>
       </c>
-      <c r="D29" s="172"/>
-      <c r="E29" s="172"/>
-      <c r="F29" s="172"/>
-      <c r="G29" s="172"/>
-      <c r="H29" s="172"/>
-      <c r="I29" s="172"/>
-      <c r="J29" s="173"/>
+      <c r="D29" s="173"/>
+      <c r="E29" s="173"/>
+      <c r="F29" s="173"/>
+      <c r="G29" s="173"/>
+      <c r="H29" s="173"/>
+      <c r="I29" s="173"/>
+      <c r="J29" s="174"/>
       <c r="K29" s="21" t="s">
         <v>37</v>
       </c>
@@ -29629,10 +29771,10 @@
       <c r="BG29" s="26"/>
       <c r="BH29" s="23"/>
       <c r="BI29" s="23" t="s">
-        <v>140</v>
+        <v>60</v>
       </c>
       <c r="BJ29" s="69" t="s">
-        <v>142</v>
+        <v>61</v>
       </c>
       <c r="BK29" s="27"/>
       <c r="BL29" s="23"/>
@@ -29681,16 +29823,16 @@
       <c r="DC29" s="23"/>
     </row>
     <row r="30" spans="1:107" ht="21" customHeight="1" thickBot="1">
-      <c r="A30" s="147"/>
-      <c r="B30" s="148"/>
-      <c r="C30" s="159"/>
-      <c r="D30" s="160"/>
-      <c r="E30" s="160"/>
-      <c r="F30" s="160"/>
-      <c r="G30" s="160"/>
-      <c r="H30" s="160"/>
-      <c r="I30" s="160"/>
-      <c r="J30" s="161"/>
+      <c r="A30" s="148"/>
+      <c r="B30" s="149"/>
+      <c r="C30" s="160"/>
+      <c r="D30" s="161"/>
+      <c r="E30" s="161"/>
+      <c r="F30" s="161"/>
+      <c r="G30" s="161"/>
+      <c r="H30" s="161"/>
+      <c r="I30" s="161"/>
+      <c r="J30" s="162"/>
       <c r="K30" s="89" t="s">
         <v>39</v>
       </c>
@@ -29794,18 +29936,18 @@
       <c r="DC30" s="23"/>
     </row>
     <row r="31" spans="1:107" ht="21" customHeight="1">
-      <c r="A31" s="147"/>
-      <c r="B31" s="148"/>
-      <c r="C31" s="162" t="s">
-        <v>61</v>
+      <c r="A31" s="148"/>
+      <c r="B31" s="149"/>
+      <c r="C31" s="163" t="s">
+        <v>64</v>
       </c>
-      <c r="D31" s="163"/>
-      <c r="E31" s="163"/>
-      <c r="F31" s="163"/>
-      <c r="G31" s="163"/>
-      <c r="H31" s="163"/>
-      <c r="I31" s="163"/>
-      <c r="J31" s="164"/>
+      <c r="D31" s="164"/>
+      <c r="E31" s="164"/>
+      <c r="F31" s="164"/>
+      <c r="G31" s="164"/>
+      <c r="H31" s="164"/>
+      <c r="I31" s="164"/>
+      <c r="J31" s="165"/>
       <c r="K31" s="1" t="s">
         <v>37</v>
       </c>
@@ -29907,16 +30049,16 @@
       <c r="DC31" s="23"/>
     </row>
     <row r="32" spans="1:107" ht="21" customHeight="1">
-      <c r="A32" s="147"/>
-      <c r="B32" s="148"/>
-      <c r="C32" s="168"/>
-      <c r="D32" s="169"/>
-      <c r="E32" s="169"/>
-      <c r="F32" s="169"/>
-      <c r="G32" s="169"/>
-      <c r="H32" s="169"/>
-      <c r="I32" s="169"/>
-      <c r="J32" s="170"/>
+      <c r="A32" s="148"/>
+      <c r="B32" s="149"/>
+      <c r="C32" s="169"/>
+      <c r="D32" s="170"/>
+      <c r="E32" s="170"/>
+      <c r="F32" s="170"/>
+      <c r="G32" s="170"/>
+      <c r="H32" s="170"/>
+      <c r="I32" s="170"/>
+      <c r="J32" s="171"/>
       <c r="K32" s="70" t="s">
         <v>39</v>
       </c>
@@ -30018,18 +30160,18 @@
       <c r="DC32" s="23"/>
     </row>
     <row r="33" spans="1:107" ht="21" customHeight="1">
-      <c r="A33" s="147"/>
-      <c r="B33" s="148"/>
-      <c r="C33" s="171" t="s">
-        <v>62</v>
+      <c r="A33" s="148"/>
+      <c r="B33" s="149"/>
+      <c r="C33" s="172" t="s">
+        <v>65</v>
       </c>
-      <c r="D33" s="172"/>
-      <c r="E33" s="172"/>
-      <c r="F33" s="172"/>
-      <c r="G33" s="172"/>
-      <c r="H33" s="172"/>
-      <c r="I33" s="172"/>
-      <c r="J33" s="173"/>
+      <c r="D33" s="173"/>
+      <c r="E33" s="173"/>
+      <c r="F33" s="173"/>
+      <c r="G33" s="173"/>
+      <c r="H33" s="173"/>
+      <c r="I33" s="173"/>
+      <c r="J33" s="174"/>
       <c r="K33" s="21" t="s">
         <v>37</v>
       </c>
@@ -30131,16 +30273,16 @@
       <c r="DC33" s="23"/>
     </row>
     <row r="34" spans="1:107" ht="21" customHeight="1" thickBot="1">
-      <c r="A34" s="147"/>
-      <c r="B34" s="148"/>
-      <c r="C34" s="159"/>
-      <c r="D34" s="160"/>
-      <c r="E34" s="160"/>
-      <c r="F34" s="160"/>
-      <c r="G34" s="160"/>
-      <c r="H34" s="160"/>
-      <c r="I34" s="160"/>
-      <c r="J34" s="161"/>
+      <c r="A34" s="148"/>
+      <c r="B34" s="149"/>
+      <c r="C34" s="160"/>
+      <c r="D34" s="161"/>
+      <c r="E34" s="161"/>
+      <c r="F34" s="161"/>
+      <c r="G34" s="161"/>
+      <c r="H34" s="161"/>
+      <c r="I34" s="161"/>
+      <c r="J34" s="162"/>
       <c r="K34" s="89" t="s">
         <v>39</v>
       </c>
@@ -30242,18 +30384,18 @@
       <c r="DC34" s="23"/>
     </row>
     <row r="35" spans="1:107" ht="21" customHeight="1">
-      <c r="A35" s="147"/>
-      <c r="B35" s="148"/>
-      <c r="C35" s="162" t="s">
-        <v>63</v>
+      <c r="A35" s="148"/>
+      <c r="B35" s="149"/>
+      <c r="C35" s="163" t="s">
+        <v>66</v>
       </c>
-      <c r="D35" s="163"/>
-      <c r="E35" s="163"/>
-      <c r="F35" s="163"/>
-      <c r="G35" s="163"/>
-      <c r="H35" s="163"/>
-      <c r="I35" s="163"/>
-      <c r="J35" s="164"/>
+      <c r="D35" s="164"/>
+      <c r="E35" s="164"/>
+      <c r="F35" s="164"/>
+      <c r="G35" s="164"/>
+      <c r="H35" s="164"/>
+      <c r="I35" s="164"/>
+      <c r="J35" s="165"/>
       <c r="K35" s="1" t="s">
         <v>37</v>
       </c>
@@ -30317,7 +30459,7 @@
       <c r="BR35" s="85"/>
       <c r="BS35" s="85"/>
       <c r="BT35" s="69" t="s">
-        <v>144</v>
+        <v>67</v>
       </c>
       <c r="BU35" s="87"/>
       <c r="BV35" s="85"/>
@@ -30356,16 +30498,16 @@
       <c r="DC35" s="23"/>
     </row>
     <row r="36" spans="1:107" ht="21" customHeight="1">
-      <c r="A36" s="147"/>
-      <c r="B36" s="148"/>
-      <c r="C36" s="168"/>
-      <c r="D36" s="169"/>
-      <c r="E36" s="169"/>
-      <c r="F36" s="169"/>
-      <c r="G36" s="169"/>
-      <c r="H36" s="169"/>
-      <c r="I36" s="169"/>
-      <c r="J36" s="170"/>
+      <c r="A36" s="148"/>
+      <c r="B36" s="149"/>
+      <c r="C36" s="169"/>
+      <c r="D36" s="170"/>
+      <c r="E36" s="170"/>
+      <c r="F36" s="170"/>
+      <c r="G36" s="170"/>
+      <c r="H36" s="170"/>
+      <c r="I36" s="170"/>
+      <c r="J36" s="171"/>
       <c r="K36" s="70" t="s">
         <v>39</v>
       </c>
@@ -30429,7 +30571,9 @@
       <c r="BQ36" s="59"/>
       <c r="BR36" s="71"/>
       <c r="BS36" s="71"/>
-      <c r="BT36" s="71"/>
+      <c r="BT36" s="122" t="s">
+        <v>46</v>
+      </c>
       <c r="BU36" s="60"/>
       <c r="BV36" s="71"/>
       <c r="BW36" s="71"/>
@@ -30467,18 +30611,18 @@
       <c r="DC36" s="23"/>
     </row>
     <row r="37" spans="1:107" ht="21" customHeight="1">
-      <c r="A37" s="147"/>
-      <c r="B37" s="148"/>
-      <c r="C37" s="171" t="s">
-        <v>64</v>
+      <c r="A37" s="148"/>
+      <c r="B37" s="149"/>
+      <c r="C37" s="172" t="s">
+        <v>68</v>
       </c>
-      <c r="D37" s="172"/>
-      <c r="E37" s="172"/>
-      <c r="F37" s="172"/>
-      <c r="G37" s="172"/>
-      <c r="H37" s="172"/>
-      <c r="I37" s="172"/>
-      <c r="J37" s="173"/>
+      <c r="D37" s="173"/>
+      <c r="E37" s="173"/>
+      <c r="F37" s="173"/>
+      <c r="G37" s="173"/>
+      <c r="H37" s="173"/>
+      <c r="I37" s="173"/>
+      <c r="J37" s="174"/>
       <c r="K37" s="21" t="s">
         <v>37</v>
       </c>
@@ -30542,7 +30686,7 @@
       <c r="BR37" s="23"/>
       <c r="BS37" s="23"/>
       <c r="BT37" s="69" t="s">
-        <v>144</v>
+        <v>67</v>
       </c>
       <c r="BU37" s="27"/>
       <c r="BV37" s="23"/>
@@ -30581,16 +30725,16 @@
       <c r="DC37" s="23"/>
     </row>
     <row r="38" spans="1:107" ht="21" customHeight="1" thickBot="1">
-      <c r="A38" s="147"/>
-      <c r="B38" s="148"/>
-      <c r="C38" s="159"/>
-      <c r="D38" s="160"/>
-      <c r="E38" s="160"/>
-      <c r="F38" s="160"/>
-      <c r="G38" s="160"/>
-      <c r="H38" s="160"/>
-      <c r="I38" s="160"/>
-      <c r="J38" s="161"/>
+      <c r="A38" s="148"/>
+      <c r="B38" s="149"/>
+      <c r="C38" s="160"/>
+      <c r="D38" s="161"/>
+      <c r="E38" s="161"/>
+      <c r="F38" s="161"/>
+      <c r="G38" s="161"/>
+      <c r="H38" s="161"/>
+      <c r="I38" s="161"/>
+      <c r="J38" s="162"/>
       <c r="K38" s="89" t="s">
         <v>39</v>
       </c>
@@ -30654,7 +30798,9 @@
       <c r="BQ38" s="92"/>
       <c r="BR38" s="91"/>
       <c r="BS38" s="91"/>
-      <c r="BT38" s="91"/>
+      <c r="BT38" s="144" t="s">
+        <v>46</v>
+      </c>
       <c r="BU38" s="93"/>
       <c r="BV38" s="91"/>
       <c r="BW38" s="91"/>
@@ -30692,18 +30838,18 @@
       <c r="DC38" s="23"/>
     </row>
     <row r="39" spans="1:107" ht="21" customHeight="1">
-      <c r="A39" s="147"/>
-      <c r="B39" s="148"/>
-      <c r="C39" s="162" t="s">
-        <v>65</v>
+      <c r="A39" s="148"/>
+      <c r="B39" s="149"/>
+      <c r="C39" s="163" t="s">
+        <v>69</v>
       </c>
-      <c r="D39" s="163"/>
-      <c r="E39" s="163"/>
-      <c r="F39" s="163"/>
-      <c r="G39" s="163"/>
-      <c r="H39" s="163"/>
-      <c r="I39" s="163"/>
-      <c r="J39" s="164"/>
+      <c r="D39" s="164"/>
+      <c r="E39" s="164"/>
+      <c r="F39" s="164"/>
+      <c r="G39" s="164"/>
+      <c r="H39" s="164"/>
+      <c r="I39" s="164"/>
+      <c r="J39" s="165"/>
       <c r="K39" s="1" t="s">
         <v>37</v>
       </c>
@@ -30767,7 +30913,7 @@
       <c r="BR39" s="85"/>
       <c r="BS39" s="85"/>
       <c r="BT39" s="69" t="s">
-        <v>144</v>
+        <v>67</v>
       </c>
       <c r="BU39" s="87"/>
       <c r="BV39" s="85"/>
@@ -30806,16 +30952,16 @@
       <c r="DC39" s="23"/>
     </row>
     <row r="40" spans="1:107" ht="21" customHeight="1">
-      <c r="A40" s="147"/>
-      <c r="B40" s="148"/>
-      <c r="C40" s="168"/>
-      <c r="D40" s="169"/>
-      <c r="E40" s="169"/>
-      <c r="F40" s="169"/>
-      <c r="G40" s="169"/>
-      <c r="H40" s="169"/>
-      <c r="I40" s="169"/>
-      <c r="J40" s="170"/>
+      <c r="A40" s="148"/>
+      <c r="B40" s="149"/>
+      <c r="C40" s="169"/>
+      <c r="D40" s="170"/>
+      <c r="E40" s="170"/>
+      <c r="F40" s="170"/>
+      <c r="G40" s="170"/>
+      <c r="H40" s="170"/>
+      <c r="I40" s="170"/>
+      <c r="J40" s="171"/>
       <c r="K40" s="70" t="s">
         <v>39</v>
       </c>
@@ -30879,7 +31025,9 @@
       <c r="BQ40" s="59"/>
       <c r="BR40" s="71"/>
       <c r="BS40" s="71"/>
-      <c r="BT40" s="71"/>
+      <c r="BT40" s="122" t="s">
+        <v>46</v>
+      </c>
       <c r="BU40" s="60"/>
       <c r="BV40" s="71"/>
       <c r="BW40" s="71"/>
@@ -30917,18 +31065,18 @@
       <c r="DC40" s="23"/>
     </row>
     <row r="41" spans="1:107" ht="21" customHeight="1">
-      <c r="A41" s="147"/>
-      <c r="B41" s="148"/>
-      <c r="C41" s="171" t="s">
-        <v>66</v>
+      <c r="A41" s="148"/>
+      <c r="B41" s="149"/>
+      <c r="C41" s="172" t="s">
+        <v>70</v>
       </c>
-      <c r="D41" s="172"/>
-      <c r="E41" s="172"/>
-      <c r="F41" s="172"/>
-      <c r="G41" s="172"/>
-      <c r="H41" s="172"/>
-      <c r="I41" s="172"/>
-      <c r="J41" s="173"/>
+      <c r="D41" s="173"/>
+      <c r="E41" s="173"/>
+      <c r="F41" s="173"/>
+      <c r="G41" s="173"/>
+      <c r="H41" s="173"/>
+      <c r="I41" s="173"/>
+      <c r="J41" s="174"/>
       <c r="K41" s="21" t="s">
         <v>37</v>
       </c>
@@ -30992,7 +31140,7 @@
       <c r="BR41" s="23"/>
       <c r="BS41" s="23"/>
       <c r="BT41" s="69" t="s">
-        <v>144</v>
+        <v>67</v>
       </c>
       <c r="BU41" s="27"/>
       <c r="BV41" s="23"/>
@@ -31031,16 +31179,16 @@
       <c r="DC41" s="23"/>
     </row>
     <row r="42" spans="1:107" ht="21" customHeight="1" thickBot="1">
-      <c r="A42" s="147"/>
-      <c r="B42" s="148"/>
-      <c r="C42" s="159"/>
-      <c r="D42" s="160"/>
-      <c r="E42" s="160"/>
-      <c r="F42" s="160"/>
-      <c r="G42" s="160"/>
-      <c r="H42" s="160"/>
-      <c r="I42" s="160"/>
-      <c r="J42" s="161"/>
+      <c r="A42" s="148"/>
+      <c r="B42" s="149"/>
+      <c r="C42" s="160"/>
+      <c r="D42" s="161"/>
+      <c r="E42" s="161"/>
+      <c r="F42" s="161"/>
+      <c r="G42" s="161"/>
+      <c r="H42" s="161"/>
+      <c r="I42" s="161"/>
+      <c r="J42" s="162"/>
       <c r="K42" s="89" t="s">
         <v>39</v>
       </c>
@@ -31104,7 +31252,9 @@
       <c r="BQ42" s="92"/>
       <c r="BR42" s="91"/>
       <c r="BS42" s="91"/>
-      <c r="BT42" s="91"/>
+      <c r="BT42" s="144" t="s">
+        <v>46</v>
+      </c>
       <c r="BU42" s="93"/>
       <c r="BV42" s="91"/>
       <c r="BW42" s="91"/>
@@ -31142,18 +31292,18 @@
       <c r="DC42" s="23"/>
     </row>
     <row r="43" spans="1:107" ht="21" customHeight="1">
-      <c r="A43" s="147"/>
-      <c r="B43" s="148"/>
-      <c r="C43" s="162" t="s">
-        <v>67</v>
+      <c r="A43" s="148"/>
+      <c r="B43" s="149"/>
+      <c r="C43" s="163" t="s">
+        <v>71</v>
       </c>
-      <c r="D43" s="163"/>
-      <c r="E43" s="163"/>
-      <c r="F43" s="163"/>
-      <c r="G43" s="163"/>
-      <c r="H43" s="163"/>
-      <c r="I43" s="163"/>
-      <c r="J43" s="164"/>
+      <c r="D43" s="164"/>
+      <c r="E43" s="164"/>
+      <c r="F43" s="164"/>
+      <c r="G43" s="164"/>
+      <c r="H43" s="164"/>
+      <c r="I43" s="164"/>
+      <c r="J43" s="165"/>
       <c r="K43" s="1" t="s">
         <v>37</v>
       </c>
@@ -31217,7 +31367,7 @@
       <c r="BR43" s="85"/>
       <c r="BS43" s="85"/>
       <c r="BT43" s="69" t="s">
-        <v>144</v>
+        <v>67</v>
       </c>
       <c r="BU43" s="87"/>
       <c r="BV43" s="85"/>
@@ -31256,16 +31406,16 @@
       <c r="DC43" s="23"/>
     </row>
     <row r="44" spans="1:107" ht="21" customHeight="1">
-      <c r="A44" s="147"/>
-      <c r="B44" s="148"/>
-      <c r="C44" s="168"/>
-      <c r="D44" s="169"/>
-      <c r="E44" s="169"/>
-      <c r="F44" s="169"/>
-      <c r="G44" s="169"/>
-      <c r="H44" s="169"/>
-      <c r="I44" s="169"/>
-      <c r="J44" s="170"/>
+      <c r="A44" s="148"/>
+      <c r="B44" s="149"/>
+      <c r="C44" s="169"/>
+      <c r="D44" s="170"/>
+      <c r="E44" s="170"/>
+      <c r="F44" s="170"/>
+      <c r="G44" s="170"/>
+      <c r="H44" s="170"/>
+      <c r="I44" s="170"/>
+      <c r="J44" s="171"/>
       <c r="K44" s="70" t="s">
         <v>39</v>
       </c>
@@ -31329,7 +31479,9 @@
       <c r="BQ44" s="59"/>
       <c r="BR44" s="71"/>
       <c r="BS44" s="71"/>
-      <c r="BT44" s="71"/>
+      <c r="BT44" s="122" t="s">
+        <v>46</v>
+      </c>
       <c r="BU44" s="60"/>
       <c r="BV44" s="71"/>
       <c r="BW44" s="71"/>
@@ -31367,18 +31519,18 @@
       <c r="DC44" s="23"/>
     </row>
     <row r="45" spans="1:107" ht="21" customHeight="1">
-      <c r="A45" s="147"/>
-      <c r="B45" s="148"/>
-      <c r="C45" s="171" t="s">
-        <v>68</v>
+      <c r="A45" s="148"/>
+      <c r="B45" s="149"/>
+      <c r="C45" s="172" t="s">
+        <v>72</v>
       </c>
-      <c r="D45" s="172"/>
-      <c r="E45" s="172"/>
-      <c r="F45" s="172"/>
-      <c r="G45" s="172"/>
-      <c r="H45" s="172"/>
-      <c r="I45" s="172"/>
-      <c r="J45" s="173"/>
+      <c r="D45" s="173"/>
+      <c r="E45" s="173"/>
+      <c r="F45" s="173"/>
+      <c r="G45" s="173"/>
+      <c r="H45" s="173"/>
+      <c r="I45" s="173"/>
+      <c r="J45" s="174"/>
       <c r="K45" s="21" t="s">
         <v>37</v>
       </c>
@@ -31442,7 +31594,7 @@
       <c r="BR45" s="23"/>
       <c r="BS45" s="23"/>
       <c r="BT45" s="69" t="s">
-        <v>144</v>
+        <v>67</v>
       </c>
       <c r="BU45" s="27"/>
       <c r="BV45" s="23"/>
@@ -31481,16 +31633,16 @@
       <c r="DC45" s="23"/>
     </row>
     <row r="46" spans="1:107" ht="21" customHeight="1" thickBot="1">
-      <c r="A46" s="147"/>
-      <c r="B46" s="148"/>
-      <c r="C46" s="159"/>
-      <c r="D46" s="160"/>
-      <c r="E46" s="160"/>
-      <c r="F46" s="160"/>
-      <c r="G46" s="160"/>
-      <c r="H46" s="160"/>
-      <c r="I46" s="160"/>
-      <c r="J46" s="161"/>
+      <c r="A46" s="148"/>
+      <c r="B46" s="149"/>
+      <c r="C46" s="160"/>
+      <c r="D46" s="161"/>
+      <c r="E46" s="161"/>
+      <c r="F46" s="161"/>
+      <c r="G46" s="161"/>
+      <c r="H46" s="161"/>
+      <c r="I46" s="161"/>
+      <c r="J46" s="162"/>
       <c r="K46" s="89" t="s">
         <v>39</v>
       </c>
@@ -31554,7 +31706,9 @@
       <c r="BQ46" s="92"/>
       <c r="BR46" s="91"/>
       <c r="BS46" s="91"/>
-      <c r="BT46" s="91"/>
+      <c r="BT46" s="122" t="s">
+        <v>46</v>
+      </c>
       <c r="BU46" s="93"/>
       <c r="BV46" s="91"/>
       <c r="BW46" s="91"/>
@@ -31592,18 +31746,18 @@
       <c r="DC46" s="23"/>
     </row>
     <row r="47" spans="1:107" ht="21" customHeight="1">
-      <c r="A47" s="147"/>
-      <c r="B47" s="148"/>
-      <c r="C47" s="162" t="s">
-        <v>69</v>
+      <c r="A47" s="148"/>
+      <c r="B47" s="149"/>
+      <c r="C47" s="163" t="s">
+        <v>73</v>
       </c>
-      <c r="D47" s="163"/>
-      <c r="E47" s="163"/>
-      <c r="F47" s="163"/>
-      <c r="G47" s="163"/>
-      <c r="H47" s="163"/>
-      <c r="I47" s="163"/>
-      <c r="J47" s="164"/>
+      <c r="D47" s="164"/>
+      <c r="E47" s="164"/>
+      <c r="F47" s="164"/>
+      <c r="G47" s="164"/>
+      <c r="H47" s="164"/>
+      <c r="I47" s="164"/>
+      <c r="J47" s="165"/>
       <c r="K47" s="1" t="s">
         <v>37</v>
       </c>
@@ -31660,7 +31814,7 @@
         <v>57</v>
       </c>
       <c r="BJ47" s="69" t="s">
-        <v>142</v>
+        <v>61</v>
       </c>
       <c r="BK47" s="87"/>
       <c r="BL47" s="85"/>
@@ -31709,16 +31863,16 @@
       <c r="DC47" s="23"/>
     </row>
     <row r="48" spans="1:107" ht="21" customHeight="1">
-      <c r="A48" s="147"/>
-      <c r="B48" s="148"/>
-      <c r="C48" s="168"/>
-      <c r="D48" s="169"/>
-      <c r="E48" s="169"/>
-      <c r="F48" s="169"/>
-      <c r="G48" s="169"/>
-      <c r="H48" s="169"/>
-      <c r="I48" s="169"/>
-      <c r="J48" s="170"/>
+      <c r="A48" s="148"/>
+      <c r="B48" s="149"/>
+      <c r="C48" s="169"/>
+      <c r="D48" s="170"/>
+      <c r="E48" s="170"/>
+      <c r="F48" s="170"/>
+      <c r="G48" s="170"/>
+      <c r="H48" s="170"/>
+      <c r="I48" s="170"/>
+      <c r="J48" s="171"/>
       <c r="K48" s="70" t="s">
         <v>39</v>
       </c>
@@ -31822,18 +31976,18 @@
       <c r="DC48" s="23"/>
     </row>
     <row r="49" spans="1:107" ht="21" customHeight="1">
-      <c r="A49" s="147"/>
-      <c r="B49" s="148"/>
-      <c r="C49" s="171" t="s">
-        <v>70</v>
+      <c r="A49" s="148"/>
+      <c r="B49" s="149"/>
+      <c r="C49" s="172" t="s">
+        <v>74</v>
       </c>
-      <c r="D49" s="172"/>
-      <c r="E49" s="172"/>
-      <c r="F49" s="172"/>
-      <c r="G49" s="172"/>
-      <c r="H49" s="172"/>
-      <c r="I49" s="172"/>
-      <c r="J49" s="173"/>
+      <c r="D49" s="173"/>
+      <c r="E49" s="173"/>
+      <c r="F49" s="173"/>
+      <c r="G49" s="173"/>
+      <c r="H49" s="173"/>
+      <c r="I49" s="173"/>
+      <c r="J49" s="174"/>
       <c r="K49" s="21" t="s">
         <v>37</v>
       </c>
@@ -31887,10 +32041,10 @@
       <c r="BG49" s="26"/>
       <c r="BH49" s="23"/>
       <c r="BI49" s="23" t="s">
-        <v>140</v>
+        <v>60</v>
       </c>
       <c r="BJ49" s="69" t="s">
-        <v>142</v>
+        <v>61</v>
       </c>
       <c r="BK49" s="27"/>
       <c r="BL49" s="23"/>
@@ -31939,16 +32093,16 @@
       <c r="DC49" s="23"/>
     </row>
     <row r="50" spans="1:107" ht="21" customHeight="1" thickBot="1">
-      <c r="A50" s="147"/>
-      <c r="B50" s="148"/>
-      <c r="C50" s="159"/>
-      <c r="D50" s="160"/>
-      <c r="E50" s="160"/>
-      <c r="F50" s="160"/>
-      <c r="G50" s="160"/>
-      <c r="H50" s="160"/>
-      <c r="I50" s="160"/>
-      <c r="J50" s="161"/>
+      <c r="A50" s="148"/>
+      <c r="B50" s="149"/>
+      <c r="C50" s="160"/>
+      <c r="D50" s="161"/>
+      <c r="E50" s="161"/>
+      <c r="F50" s="161"/>
+      <c r="G50" s="161"/>
+      <c r="H50" s="161"/>
+      <c r="I50" s="161"/>
+      <c r="J50" s="162"/>
       <c r="K50" s="89" t="s">
         <v>39</v>
       </c>
@@ -32052,18 +32206,18 @@
       <c r="DC50" s="23"/>
     </row>
     <row r="51" spans="1:107" ht="21" customHeight="1">
-      <c r="A51" s="147"/>
-      <c r="B51" s="148"/>
-      <c r="C51" s="162" t="s">
-        <v>71</v>
+      <c r="A51" s="148"/>
+      <c r="B51" s="149"/>
+      <c r="C51" s="163" t="s">
+        <v>75</v>
       </c>
-      <c r="D51" s="163"/>
-      <c r="E51" s="163"/>
-      <c r="F51" s="163"/>
-      <c r="G51" s="163"/>
-      <c r="H51" s="163"/>
-      <c r="I51" s="163"/>
-      <c r="J51" s="164"/>
+      <c r="D51" s="164"/>
+      <c r="E51" s="164"/>
+      <c r="F51" s="164"/>
+      <c r="G51" s="164"/>
+      <c r="H51" s="164"/>
+      <c r="I51" s="164"/>
+      <c r="J51" s="165"/>
       <c r="K51" s="1" t="s">
         <v>37</v>
       </c>
@@ -32127,7 +32281,7 @@
       <c r="BR51" s="85"/>
       <c r="BS51" s="85"/>
       <c r="BT51" s="69" t="s">
-        <v>144</v>
+        <v>67</v>
       </c>
       <c r="BU51" s="87"/>
       <c r="BV51" s="85"/>
@@ -32166,16 +32320,16 @@
       <c r="DC51" s="23"/>
     </row>
     <row r="52" spans="1:107" ht="21" customHeight="1">
-      <c r="A52" s="147"/>
-      <c r="B52" s="148"/>
-      <c r="C52" s="168"/>
-      <c r="D52" s="169"/>
-      <c r="E52" s="169"/>
-      <c r="F52" s="169"/>
-      <c r="G52" s="169"/>
-      <c r="H52" s="169"/>
-      <c r="I52" s="169"/>
-      <c r="J52" s="170"/>
+      <c r="A52" s="148"/>
+      <c r="B52" s="149"/>
+      <c r="C52" s="169"/>
+      <c r="D52" s="170"/>
+      <c r="E52" s="170"/>
+      <c r="F52" s="170"/>
+      <c r="G52" s="170"/>
+      <c r="H52" s="170"/>
+      <c r="I52" s="170"/>
+      <c r="J52" s="171"/>
       <c r="K52" s="70" t="s">
         <v>39</v>
       </c>
@@ -32239,7 +32393,9 @@
       <c r="BQ52" s="59"/>
       <c r="BR52" s="71"/>
       <c r="BS52" s="71"/>
-      <c r="BT52" s="71"/>
+      <c r="BT52" s="122" t="s">
+        <v>46</v>
+      </c>
       <c r="BU52" s="60"/>
       <c r="BV52" s="71"/>
       <c r="BW52" s="71"/>
@@ -32277,18 +32433,18 @@
       <c r="DC52" s="23"/>
     </row>
     <row r="53" spans="1:107" ht="21" customHeight="1">
-      <c r="A53" s="147"/>
-      <c r="B53" s="148"/>
-      <c r="C53" s="156" t="s">
-        <v>72</v>
+      <c r="A53" s="148"/>
+      <c r="B53" s="149"/>
+      <c r="C53" s="157" t="s">
+        <v>76</v>
       </c>
-      <c r="D53" s="157"/>
-      <c r="E53" s="157"/>
-      <c r="F53" s="157"/>
-      <c r="G53" s="157"/>
-      <c r="H53" s="157"/>
-      <c r="I53" s="157"/>
-      <c r="J53" s="158"/>
+      <c r="D53" s="158"/>
+      <c r="E53" s="158"/>
+      <c r="F53" s="158"/>
+      <c r="G53" s="158"/>
+      <c r="H53" s="158"/>
+      <c r="I53" s="158"/>
+      <c r="J53" s="159"/>
       <c r="K53" s="21" t="s">
         <v>37</v>
       </c>
@@ -32352,7 +32508,7 @@
       <c r="BR53" s="23"/>
       <c r="BS53" s="23"/>
       <c r="BT53" s="69" t="s">
-        <v>144</v>
+        <v>67</v>
       </c>
       <c r="BU53" s="27"/>
       <c r="BV53" s="23"/>
@@ -32391,16 +32547,16 @@
       <c r="DC53" s="23"/>
     </row>
     <row r="54" spans="1:107" ht="21" customHeight="1" thickBot="1">
-      <c r="A54" s="147"/>
-      <c r="B54" s="148"/>
-      <c r="C54" s="159"/>
-      <c r="D54" s="160"/>
-      <c r="E54" s="160"/>
-      <c r="F54" s="160"/>
-      <c r="G54" s="160"/>
-      <c r="H54" s="160"/>
-      <c r="I54" s="160"/>
-      <c r="J54" s="161"/>
+      <c r="A54" s="148"/>
+      <c r="B54" s="149"/>
+      <c r="C54" s="160"/>
+      <c r="D54" s="161"/>
+      <c r="E54" s="161"/>
+      <c r="F54" s="161"/>
+      <c r="G54" s="161"/>
+      <c r="H54" s="161"/>
+      <c r="I54" s="161"/>
+      <c r="J54" s="162"/>
       <c r="K54" s="62" t="s">
         <v>39</v>
       </c>
@@ -32464,7 +32620,9 @@
       <c r="BQ54" s="65"/>
       <c r="BR54" s="64"/>
       <c r="BS54" s="64"/>
-      <c r="BT54" s="64"/>
+      <c r="BT54" s="144" t="s">
+        <v>46</v>
+      </c>
       <c r="BU54" s="66"/>
       <c r="BV54" s="64"/>
       <c r="BW54" s="64"/>
@@ -32502,18 +32660,18 @@
       <c r="DC54" s="23"/>
     </row>
     <row r="55" spans="1:107" ht="21" customHeight="1">
-      <c r="A55" s="147"/>
-      <c r="B55" s="148"/>
-      <c r="C55" s="156" t="s">
-        <v>145</v>
+      <c r="A55" s="148"/>
+      <c r="B55" s="149"/>
+      <c r="C55" s="157" t="s">
+        <v>77</v>
       </c>
-      <c r="D55" s="157"/>
-      <c r="E55" s="157"/>
-      <c r="F55" s="157"/>
-      <c r="G55" s="157"/>
-      <c r="H55" s="157"/>
-      <c r="I55" s="157"/>
-      <c r="J55" s="158"/>
+      <c r="D55" s="158"/>
+      <c r="E55" s="158"/>
+      <c r="F55" s="158"/>
+      <c r="G55" s="158"/>
+      <c r="H55" s="158"/>
+      <c r="I55" s="158"/>
+      <c r="J55" s="159"/>
       <c r="K55" s="21" t="s">
         <v>37</v>
       </c>
@@ -32614,16 +32772,16 @@
       <c r="DC55" s="23"/>
     </row>
     <row r="56" spans="1:107" ht="21" customHeight="1" thickBot="1">
-      <c r="A56" s="147"/>
-      <c r="B56" s="148"/>
-      <c r="C56" s="159"/>
-      <c r="D56" s="160"/>
-      <c r="E56" s="160"/>
-      <c r="F56" s="160"/>
-      <c r="G56" s="160"/>
-      <c r="H56" s="160"/>
-      <c r="I56" s="160"/>
-      <c r="J56" s="161"/>
+      <c r="A56" s="148"/>
+      <c r="B56" s="149"/>
+      <c r="C56" s="160"/>
+      <c r="D56" s="161"/>
+      <c r="E56" s="161"/>
+      <c r="F56" s="161"/>
+      <c r="G56" s="161"/>
+      <c r="H56" s="161"/>
+      <c r="I56" s="161"/>
+      <c r="J56" s="162"/>
       <c r="K56" s="62" t="s">
         <v>39</v>
       </c>
@@ -32725,18 +32883,18 @@
       <c r="DC56" s="23"/>
     </row>
     <row r="57" spans="1:107" ht="21" customHeight="1">
-      <c r="A57" s="147"/>
-      <c r="B57" s="148"/>
-      <c r="C57" s="162" t="s">
-        <v>73</v>
+      <c r="A57" s="148"/>
+      <c r="B57" s="149"/>
+      <c r="C57" s="163" t="s">
+        <v>78</v>
       </c>
-      <c r="D57" s="163"/>
-      <c r="E57" s="163"/>
-      <c r="F57" s="163"/>
-      <c r="G57" s="163"/>
-      <c r="H57" s="163"/>
-      <c r="I57" s="163"/>
-      <c r="J57" s="164"/>
+      <c r="D57" s="164"/>
+      <c r="E57" s="164"/>
+      <c r="F57" s="164"/>
+      <c r="G57" s="164"/>
+      <c r="H57" s="164"/>
+      <c r="I57" s="164"/>
+      <c r="J57" s="165"/>
       <c r="K57" s="21" t="s">
         <v>37</v>
       </c>
@@ -32837,16 +32995,16 @@
       <c r="DC57" s="23"/>
     </row>
     <row r="58" spans="1:107" ht="21" customHeight="1" thickBot="1">
-      <c r="A58" s="223"/>
-      <c r="B58" s="224"/>
-      <c r="C58" s="165"/>
-      <c r="D58" s="166"/>
-      <c r="E58" s="166"/>
-      <c r="F58" s="166"/>
-      <c r="G58" s="166"/>
-      <c r="H58" s="166"/>
-      <c r="I58" s="166"/>
-      <c r="J58" s="167"/>
+      <c r="A58" s="224"/>
+      <c r="B58" s="225"/>
+      <c r="C58" s="166"/>
+      <c r="D58" s="167"/>
+      <c r="E58" s="167"/>
+      <c r="F58" s="167"/>
+      <c r="G58" s="167"/>
+      <c r="H58" s="167"/>
+      <c r="I58" s="167"/>
+      <c r="J58" s="168"/>
       <c r="K58" s="102" t="s">
         <v>39</v>
       </c>
@@ -32948,20 +33106,20 @@
       <c r="DC58" s="23"/>
     </row>
     <row r="59" spans="1:107" ht="21" customHeight="1" thickTop="1">
-      <c r="A59" s="145" t="s">
-        <v>74</v>
+      <c r="A59" s="146" t="s">
+        <v>79</v>
       </c>
-      <c r="B59" s="146"/>
-      <c r="C59" s="162" t="s">
-        <v>143</v>
+      <c r="B59" s="147"/>
+      <c r="C59" s="163" t="s">
+        <v>80</v>
       </c>
-      <c r="D59" s="163"/>
-      <c r="E59" s="163"/>
-      <c r="F59" s="163"/>
-      <c r="G59" s="163"/>
-      <c r="H59" s="163"/>
-      <c r="I59" s="163"/>
-      <c r="J59" s="164"/>
+      <c r="D59" s="164"/>
+      <c r="E59" s="164"/>
+      <c r="F59" s="164"/>
+      <c r="G59" s="164"/>
+      <c r="H59" s="164"/>
+      <c r="I59" s="164"/>
+      <c r="J59" s="165"/>
       <c r="K59" s="21" t="s">
         <v>37</v>
       </c>
@@ -33062,17 +33220,17 @@
       <c r="DB59" s="23"/>
       <c r="DC59" s="23"/>
     </row>
-    <row r="60" spans="1:107" ht="21" customHeight="1" thickBot="1">
-      <c r="A60" s="147"/>
-      <c r="B60" s="148"/>
-      <c r="C60" s="171"/>
-      <c r="D60" s="172"/>
-      <c r="E60" s="172"/>
-      <c r="F60" s="172"/>
-      <c r="G60" s="172"/>
-      <c r="H60" s="172"/>
-      <c r="I60" s="172"/>
-      <c r="J60" s="173"/>
+    <row r="60" spans="1:107" ht="21" customHeight="1">
+      <c r="A60" s="148"/>
+      <c r="B60" s="149"/>
+      <c r="C60" s="172"/>
+      <c r="D60" s="173"/>
+      <c r="E60" s="173"/>
+      <c r="F60" s="173"/>
+      <c r="G60" s="173"/>
+      <c r="H60" s="173"/>
+      <c r="I60" s="173"/>
+      <c r="J60" s="174"/>
       <c r="K60" s="136" t="s">
         <v>39</v>
       </c>
@@ -33174,18 +33332,18 @@
       <c r="DC60" s="23"/>
     </row>
     <row r="61" spans="1:107" ht="21" customHeight="1">
-      <c r="A61" s="147"/>
-      <c r="B61" s="148"/>
-      <c r="C61" s="162" t="s">
-        <v>75</v>
+      <c r="A61" s="148"/>
+      <c r="B61" s="149"/>
+      <c r="C61" s="163" t="s">
+        <v>81</v>
       </c>
-      <c r="D61" s="163"/>
-      <c r="E61" s="163"/>
-      <c r="F61" s="163"/>
-      <c r="G61" s="163"/>
-      <c r="H61" s="163"/>
-      <c r="I61" s="163"/>
-      <c r="J61" s="164"/>
+      <c r="D61" s="164"/>
+      <c r="E61" s="164"/>
+      <c r="F61" s="164"/>
+      <c r="G61" s="164"/>
+      <c r="H61" s="164"/>
+      <c r="I61" s="164"/>
+      <c r="J61" s="165"/>
       <c r="K61" s="1" t="s">
         <v>37</v>
       </c>
@@ -33261,14 +33419,14 @@
       <c r="CC61" s="85"/>
       <c r="CD61" s="85"/>
       <c r="CE61" s="114"/>
-      <c r="CF61" s="143" t="s">
-        <v>76</v>
-      </c>
+      <c r="CF61" s="143"/>
       <c r="CG61" s="85"/>
       <c r="CH61" s="85"/>
       <c r="CI61" s="85"/>
-      <c r="CJ61" s="87"/>
-      <c r="CK61" s="85"/>
+      <c r="CJ61" s="85"/>
+      <c r="CK61" s="262" t="s">
+        <v>145</v>
+      </c>
       <c r="CL61" s="85"/>
       <c r="CM61" s="85"/>
       <c r="CN61" s="85"/>
@@ -33288,17 +33446,17 @@
       <c r="DB61" s="23"/>
       <c r="DC61" s="23"/>
     </row>
-    <row r="62" spans="1:107" ht="21" customHeight="1" thickBot="1">
-      <c r="A62" s="147"/>
-      <c r="B62" s="148"/>
-      <c r="C62" s="159"/>
-      <c r="D62" s="160"/>
-      <c r="E62" s="160"/>
-      <c r="F62" s="160"/>
-      <c r="G62" s="160"/>
-      <c r="H62" s="160"/>
-      <c r="I62" s="160"/>
-      <c r="J62" s="161"/>
+    <row r="62" spans="1:107" ht="21" customHeight="1">
+      <c r="A62" s="148"/>
+      <c r="B62" s="149"/>
+      <c r="C62" s="160"/>
+      <c r="D62" s="161"/>
+      <c r="E62" s="161"/>
+      <c r="F62" s="161"/>
+      <c r="G62" s="161"/>
+      <c r="H62" s="161"/>
+      <c r="I62" s="161"/>
+      <c r="J62" s="162"/>
       <c r="K62" s="70" t="s">
         <v>39</v>
       </c>
@@ -33379,7 +33537,9 @@
       <c r="CH62" s="71"/>
       <c r="CI62" s="71"/>
       <c r="CJ62" s="60"/>
-      <c r="CK62" s="71"/>
+      <c r="CK62" s="122" t="s">
+        <v>46</v>
+      </c>
       <c r="CL62" s="71"/>
       <c r="CM62" s="71"/>
       <c r="CN62" s="71"/>
@@ -33400,18 +33560,18 @@
       <c r="DC62" s="23"/>
     </row>
     <row r="63" spans="1:107" ht="21" customHeight="1">
-      <c r="A63" s="147"/>
-      <c r="B63" s="148"/>
-      <c r="C63" s="171" t="s">
-        <v>77</v>
+      <c r="A63" s="148"/>
+      <c r="B63" s="149"/>
+      <c r="C63" s="172" t="s">
+        <v>82</v>
       </c>
-      <c r="D63" s="172"/>
-      <c r="E63" s="172"/>
-      <c r="F63" s="172"/>
-      <c r="G63" s="172"/>
-      <c r="H63" s="172"/>
-      <c r="I63" s="172"/>
-      <c r="J63" s="173"/>
+      <c r="D63" s="173"/>
+      <c r="E63" s="173"/>
+      <c r="F63" s="173"/>
+      <c r="G63" s="173"/>
+      <c r="H63" s="173"/>
+      <c r="I63" s="173"/>
+      <c r="J63" s="174"/>
       <c r="K63" s="21" t="s">
         <v>37</v>
       </c>
@@ -33511,16 +33671,16 @@
       <c r="DA63" s="6"/>
     </row>
     <row r="64" spans="1:107" ht="20.5" customHeight="1" thickBot="1">
-      <c r="A64" s="149"/>
-      <c r="B64" s="150"/>
-      <c r="C64" s="159"/>
-      <c r="D64" s="160"/>
-      <c r="E64" s="160"/>
-      <c r="F64" s="160"/>
-      <c r="G64" s="160"/>
-      <c r="H64" s="160"/>
-      <c r="I64" s="160"/>
-      <c r="J64" s="161"/>
+      <c r="A64" s="150"/>
+      <c r="B64" s="151"/>
+      <c r="C64" s="160"/>
+      <c r="D64" s="161"/>
+      <c r="E64" s="161"/>
+      <c r="F64" s="161"/>
+      <c r="G64" s="161"/>
+      <c r="H64" s="161"/>
+      <c r="I64" s="161"/>
+      <c r="J64" s="162"/>
       <c r="K64" s="62" t="s">
         <v>39</v>
       </c>
@@ -33715,91 +33875,91 @@
     </row>
     <row r="66" spans="11:102">
       <c r="K66" s="129"/>
-      <c r="M66" s="154" t="s">
-        <v>78</v>
+      <c r="M66" s="155" t="s">
+        <v>83</v>
       </c>
-      <c r="N66" s="155"/>
-      <c r="O66" s="155"/>
-      <c r="P66" s="155"/>
-      <c r="Q66" s="155"/>
-      <c r="R66" s="152"/>
-      <c r="S66" s="152"/>
-      <c r="T66" s="152"/>
-      <c r="U66" s="152"/>
-      <c r="V66" s="152"/>
-      <c r="W66" s="152"/>
-      <c r="X66" s="152"/>
-      <c r="Y66" s="152"/>
-      <c r="Z66" s="152"/>
-      <c r="AA66" s="152"/>
-      <c r="AB66" s="152" t="s">
-        <v>79</v>
+      <c r="N66" s="156"/>
+      <c r="O66" s="156"/>
+      <c r="P66" s="156"/>
+      <c r="Q66" s="156"/>
+      <c r="R66" s="153"/>
+      <c r="S66" s="153"/>
+      <c r="T66" s="153"/>
+      <c r="U66" s="153"/>
+      <c r="V66" s="153"/>
+      <c r="W66" s="153"/>
+      <c r="X66" s="153"/>
+      <c r="Y66" s="153"/>
+      <c r="Z66" s="153"/>
+      <c r="AA66" s="153"/>
+      <c r="AB66" s="153" t="s">
+        <v>84</v>
       </c>
-      <c r="AC66" s="152"/>
-      <c r="AD66" s="152"/>
-      <c r="AE66" s="152"/>
-      <c r="AF66" s="152"/>
-      <c r="AG66" s="152"/>
-      <c r="AH66" s="152"/>
-      <c r="AI66" s="152"/>
-      <c r="AJ66" s="152"/>
-      <c r="AK66" s="152"/>
-      <c r="AL66" s="152"/>
-      <c r="AM66" s="152"/>
-      <c r="AN66" s="152"/>
-      <c r="AO66" s="152"/>
-      <c r="AP66" s="152"/>
-      <c r="AQ66" s="152"/>
-      <c r="AR66" s="152"/>
-      <c r="AS66" s="152"/>
-      <c r="AT66" s="152"/>
-      <c r="AU66" s="152"/>
-      <c r="AV66" s="152"/>
-      <c r="AW66" s="152"/>
-      <c r="AX66" s="152"/>
-      <c r="AY66" s="152"/>
-      <c r="AZ66" s="152" t="s">
-        <v>80</v>
+      <c r="AC66" s="153"/>
+      <c r="AD66" s="153"/>
+      <c r="AE66" s="153"/>
+      <c r="AF66" s="153"/>
+      <c r="AG66" s="153"/>
+      <c r="AH66" s="153"/>
+      <c r="AI66" s="153"/>
+      <c r="AJ66" s="153"/>
+      <c r="AK66" s="153"/>
+      <c r="AL66" s="153"/>
+      <c r="AM66" s="153"/>
+      <c r="AN66" s="153"/>
+      <c r="AO66" s="153"/>
+      <c r="AP66" s="153"/>
+      <c r="AQ66" s="153"/>
+      <c r="AR66" s="153"/>
+      <c r="AS66" s="153"/>
+      <c r="AT66" s="153"/>
+      <c r="AU66" s="153"/>
+      <c r="AV66" s="153"/>
+      <c r="AW66" s="153"/>
+      <c r="AX66" s="153"/>
+      <c r="AY66" s="153"/>
+      <c r="AZ66" s="153" t="s">
+        <v>85</v>
       </c>
-      <c r="BA66" s="152"/>
-      <c r="BB66" s="152"/>
-      <c r="BC66" s="152"/>
-      <c r="BD66" s="152"/>
-      <c r="BE66" s="152"/>
-      <c r="BF66" s="152"/>
-      <c r="BG66" s="152"/>
-      <c r="BH66" s="152"/>
-      <c r="BI66" s="152"/>
-      <c r="BJ66" s="152"/>
-      <c r="BK66" s="152"/>
-      <c r="BL66" s="152"/>
-      <c r="BM66" s="152"/>
-      <c r="BN66" s="152"/>
-      <c r="BO66" s="152"/>
-      <c r="BP66" s="152"/>
-      <c r="BQ66" s="152"/>
-      <c r="BR66" s="152"/>
-      <c r="BS66" s="152"/>
-      <c r="BT66" s="152"/>
-      <c r="BU66" s="152" t="s">
-        <v>81</v>
+      <c r="BA66" s="153"/>
+      <c r="BB66" s="153"/>
+      <c r="BC66" s="153"/>
+      <c r="BD66" s="153"/>
+      <c r="BE66" s="153"/>
+      <c r="BF66" s="153"/>
+      <c r="BG66" s="153"/>
+      <c r="BH66" s="153"/>
+      <c r="BI66" s="153"/>
+      <c r="BJ66" s="153"/>
+      <c r="BK66" s="153"/>
+      <c r="BL66" s="153"/>
+      <c r="BM66" s="153"/>
+      <c r="BN66" s="153"/>
+      <c r="BO66" s="153"/>
+      <c r="BP66" s="153"/>
+      <c r="BQ66" s="153"/>
+      <c r="BR66" s="153"/>
+      <c r="BS66" s="153"/>
+      <c r="BT66" s="153"/>
+      <c r="BU66" s="153" t="s">
+        <v>86</v>
       </c>
-      <c r="BV66" s="152"/>
-      <c r="BW66" s="152"/>
-      <c r="BX66" s="152"/>
-      <c r="BY66" s="152"/>
-      <c r="BZ66" s="152"/>
-      <c r="CA66" s="152"/>
-      <c r="CB66" s="152"/>
-      <c r="CC66" s="152"/>
-      <c r="CD66" s="152"/>
-      <c r="CE66" s="153"/>
-      <c r="CF66" s="153"/>
+      <c r="BV66" s="153"/>
+      <c r="BW66" s="153"/>
+      <c r="BX66" s="153"/>
+      <c r="BY66" s="153"/>
+      <c r="BZ66" s="153"/>
+      <c r="CA66" s="153"/>
+      <c r="CB66" s="153"/>
+      <c r="CC66" s="153"/>
+      <c r="CD66" s="153"/>
+      <c r="CE66" s="154"/>
+      <c r="CF66" s="154"/>
       <c r="CG66" s="13"/>
       <c r="CH66" s="14"/>
       <c r="CI66" s="14"/>
-      <c r="CJ66" s="151"/>
-      <c r="CK66" s="151"/>
+      <c r="CJ66" s="152"/>
+      <c r="CK66" s="152"/>
       <c r="CL66" s="13"/>
       <c r="CM66" s="13"/>
       <c r="CN66" s="13"/>
@@ -33811,118 +33971,118 @@
       </c>
       <c r="L67" s="133"/>
       <c r="M67" s="135" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="N67" s="120"/>
       <c r="O67" s="121"/>
       <c r="P67" s="121"/>
       <c r="Q67" s="121"/>
       <c r="R67" s="121" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="S67" s="121"/>
       <c r="T67" s="121"/>
       <c r="U67" s="121"/>
       <c r="V67" s="121"/>
       <c r="W67" s="121" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="X67" s="121"/>
       <c r="Y67" s="121"/>
       <c r="Z67" s="121"/>
       <c r="AA67" s="121"/>
       <c r="AB67" s="121" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AC67" s="121"/>
       <c r="AD67" s="121"/>
       <c r="AE67" s="121"/>
       <c r="AF67" s="121"/>
       <c r="AG67" s="121" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="AH67" s="121"/>
       <c r="AI67" s="121"/>
       <c r="AJ67" s="121"/>
       <c r="AK67" s="121"/>
       <c r="AL67" s="120" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="AM67" s="120"/>
       <c r="AN67" s="120"/>
       <c r="AO67" s="120"/>
       <c r="AP67" s="120"/>
       <c r="AQ67" s="120" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="AR67" s="120"/>
       <c r="AS67" s="120"/>
       <c r="AT67" s="120"/>
       <c r="AU67" s="120"/>
       <c r="AV67" s="120" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="AW67" s="120"/>
       <c r="AX67" s="120"/>
       <c r="AY67" s="120"/>
       <c r="AZ67" s="120"/>
       <c r="BA67" s="120" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="BB67" s="124"/>
       <c r="BC67" s="124"/>
       <c r="BD67" s="124"/>
       <c r="BE67" s="124"/>
       <c r="BF67" s="124" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="BG67" s="124"/>
       <c r="BH67" s="124"/>
       <c r="BI67" s="124"/>
       <c r="BJ67" s="124"/>
       <c r="BK67" s="124" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="BL67" s="124"/>
       <c r="BM67" s="133"/>
       <c r="BN67" s="133"/>
       <c r="BO67" s="124"/>
       <c r="BP67" s="124" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="BQ67" s="133"/>
       <c r="BR67" s="133"/>
       <c r="BS67" s="133"/>
       <c r="BT67" s="133"/>
       <c r="BU67" s="133" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="BV67" s="133"/>
       <c r="BW67" s="133"/>
       <c r="BX67" s="133"/>
       <c r="BY67" s="133"/>
       <c r="BZ67" s="133" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="CA67" s="133"/>
       <c r="CB67" s="133"/>
       <c r="CC67" s="133"/>
       <c r="CD67" s="133"/>
       <c r="CE67" s="124" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="CF67" s="124"/>
       <c r="CG67" s="133"/>
       <c r="CH67" s="133"/>
       <c r="CI67" s="133"/>
       <c r="CJ67" s="133" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="CK67" s="133"/>
-      <c r="CL67" s="261"/>
-      <c r="CM67" s="261"/>
-      <c r="CN67" s="261"/>
-      <c r="CO67" s="262"/>
+      <c r="CL67" s="133"/>
+      <c r="CM67" s="133"/>
+      <c r="CN67" s="45"/>
+      <c r="CO67" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="82">
@@ -34041,90 +34201,90 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:82" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A1" s="180" t="s">
+      <c r="A1" s="181" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="181"/>
-      <c r="C1" s="181"/>
-      <c r="D1" s="181"/>
-      <c r="E1" s="181"/>
-      <c r="F1" s="181"/>
-      <c r="G1" s="181"/>
-      <c r="H1" s="181"/>
-      <c r="I1" s="202"/>
-      <c r="J1" s="180" t="s">
+      <c r="B1" s="182"/>
+      <c r="C1" s="182"/>
+      <c r="D1" s="182"/>
+      <c r="E1" s="182"/>
+      <c r="F1" s="182"/>
+      <c r="G1" s="182"/>
+      <c r="H1" s="182"/>
+      <c r="I1" s="203"/>
+      <c r="J1" s="181" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="181"/>
-      <c r="L1" s="181"/>
-      <c r="M1" s="181"/>
-      <c r="N1" s="181"/>
-      <c r="O1" s="196" t="s">
-        <v>98</v>
+      <c r="K1" s="182"/>
+      <c r="L1" s="182"/>
+      <c r="M1" s="182"/>
+      <c r="N1" s="182"/>
+      <c r="O1" s="197" t="s">
+        <v>103</v>
       </c>
-      <c r="P1" s="197"/>
-      <c r="Q1" s="197"/>
-      <c r="R1" s="197"/>
-      <c r="S1" s="197"/>
-      <c r="T1" s="197"/>
-      <c r="U1" s="197"/>
-      <c r="V1" s="197"/>
-      <c r="W1" s="197"/>
-      <c r="X1" s="197"/>
-      <c r="Y1" s="197"/>
-      <c r="Z1" s="197"/>
-      <c r="AA1" s="197"/>
-      <c r="AB1" s="197"/>
-      <c r="AC1" s="197"/>
-      <c r="AD1" s="197"/>
-      <c r="AE1" s="197"/>
-      <c r="AF1" s="197"/>
-      <c r="AG1" s="197"/>
-      <c r="AH1" s="197"/>
-      <c r="AI1" s="197"/>
-      <c r="AJ1" s="197"/>
-      <c r="AK1" s="197"/>
-      <c r="AL1" s="197"/>
-      <c r="AM1" s="197"/>
-      <c r="AN1" s="197"/>
-      <c r="AO1" s="198"/>
-      <c r="AP1" s="184" t="s">
+      <c r="P1" s="198"/>
+      <c r="Q1" s="198"/>
+      <c r="R1" s="198"/>
+      <c r="S1" s="198"/>
+      <c r="T1" s="198"/>
+      <c r="U1" s="198"/>
+      <c r="V1" s="198"/>
+      <c r="W1" s="198"/>
+      <c r="X1" s="198"/>
+      <c r="Y1" s="198"/>
+      <c r="Z1" s="198"/>
+      <c r="AA1" s="198"/>
+      <c r="AB1" s="198"/>
+      <c r="AC1" s="198"/>
+      <c r="AD1" s="198"/>
+      <c r="AE1" s="198"/>
+      <c r="AF1" s="198"/>
+      <c r="AG1" s="198"/>
+      <c r="AH1" s="198"/>
+      <c r="AI1" s="198"/>
+      <c r="AJ1" s="198"/>
+      <c r="AK1" s="198"/>
+      <c r="AL1" s="198"/>
+      <c r="AM1" s="198"/>
+      <c r="AN1" s="198"/>
+      <c r="AO1" s="199"/>
+      <c r="AP1" s="185" t="s">
         <v>3</v>
       </c>
-      <c r="AQ1" s="185"/>
-      <c r="AR1" s="185"/>
-      <c r="AS1" s="185"/>
-      <c r="AT1" s="185"/>
-      <c r="AU1" s="185"/>
-      <c r="AV1" s="185"/>
-      <c r="AW1" s="185"/>
-      <c r="AX1" s="186"/>
-      <c r="AY1" s="174" t="s">
+      <c r="AQ1" s="186"/>
+      <c r="AR1" s="186"/>
+      <c r="AS1" s="186"/>
+      <c r="AT1" s="186"/>
+      <c r="AU1" s="186"/>
+      <c r="AV1" s="186"/>
+      <c r="AW1" s="186"/>
+      <c r="AX1" s="187"/>
+      <c r="AY1" s="175" t="s">
         <v>4</v>
       </c>
-      <c r="AZ1" s="175"/>
-      <c r="BA1" s="175"/>
-      <c r="BB1" s="175"/>
-      <c r="BC1" s="176"/>
-      <c r="BD1" s="175" t="s">
-        <v>99</v>
+      <c r="AZ1" s="176"/>
+      <c r="BA1" s="176"/>
+      <c r="BB1" s="176"/>
+      <c r="BC1" s="177"/>
+      <c r="BD1" s="176" t="s">
+        <v>104</v>
       </c>
-      <c r="BE1" s="175"/>
-      <c r="BF1" s="175"/>
-      <c r="BG1" s="175"/>
-      <c r="BH1" s="211"/>
-      <c r="BI1" s="174" t="s">
+      <c r="BE1" s="176"/>
+      <c r="BF1" s="176"/>
+      <c r="BG1" s="176"/>
+      <c r="BH1" s="212"/>
+      <c r="BI1" s="175" t="s">
         <v>6</v>
       </c>
-      <c r="BJ1" s="175"/>
-      <c r="BK1" s="175"/>
-      <c r="BL1" s="176"/>
-      <c r="BM1" s="207" t="s">
-        <v>100</v>
+      <c r="BJ1" s="176"/>
+      <c r="BK1" s="176"/>
+      <c r="BL1" s="177"/>
+      <c r="BM1" s="208" t="s">
+        <v>105</v>
       </c>
-      <c r="BN1" s="207"/>
-      <c r="BO1" s="207"/>
-      <c r="BP1" s="208"/>
+      <c r="BN1" s="208"/>
+      <c r="BO1" s="208"/>
+      <c r="BP1" s="209"/>
       <c r="BQ1"/>
       <c r="BR1"/>
       <c r="BS1"/>
@@ -34141,84 +34301,84 @@
       <c r="CD1" s="6"/>
     </row>
     <row r="2" spans="1:82" ht="15" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A2" s="182"/>
-      <c r="B2" s="183"/>
-      <c r="C2" s="183"/>
-      <c r="D2" s="183"/>
-      <c r="E2" s="183"/>
-      <c r="F2" s="183"/>
-      <c r="G2" s="183"/>
-      <c r="H2" s="183"/>
-      <c r="I2" s="203"/>
-      <c r="J2" s="182"/>
-      <c r="K2" s="183"/>
-      <c r="L2" s="183"/>
-      <c r="M2" s="183"/>
-      <c r="N2" s="183"/>
-      <c r="O2" s="199"/>
-      <c r="P2" s="200"/>
-      <c r="Q2" s="200"/>
-      <c r="R2" s="200"/>
-      <c r="S2" s="200"/>
-      <c r="T2" s="200"/>
-      <c r="U2" s="200"/>
-      <c r="V2" s="200"/>
-      <c r="W2" s="200"/>
-      <c r="X2" s="200"/>
-      <c r="Y2" s="200"/>
-      <c r="Z2" s="200"/>
-      <c r="AA2" s="200"/>
-      <c r="AB2" s="200"/>
-      <c r="AC2" s="200"/>
-      <c r="AD2" s="200"/>
-      <c r="AE2" s="200"/>
-      <c r="AF2" s="200"/>
-      <c r="AG2" s="200"/>
-      <c r="AH2" s="200"/>
-      <c r="AI2" s="200"/>
-      <c r="AJ2" s="200"/>
-      <c r="AK2" s="200"/>
-      <c r="AL2" s="200"/>
-      <c r="AM2" s="200"/>
-      <c r="AN2" s="200"/>
-      <c r="AO2" s="201"/>
-      <c r="AP2" s="204" t="s">
-        <v>101</v>
+      <c r="A2" s="183"/>
+      <c r="B2" s="184"/>
+      <c r="C2" s="184"/>
+      <c r="D2" s="184"/>
+      <c r="E2" s="184"/>
+      <c r="F2" s="184"/>
+      <c r="G2" s="184"/>
+      <c r="H2" s="184"/>
+      <c r="I2" s="204"/>
+      <c r="J2" s="183"/>
+      <c r="K2" s="184"/>
+      <c r="L2" s="184"/>
+      <c r="M2" s="184"/>
+      <c r="N2" s="184"/>
+      <c r="O2" s="200"/>
+      <c r="P2" s="201"/>
+      <c r="Q2" s="201"/>
+      <c r="R2" s="201"/>
+      <c r="S2" s="201"/>
+      <c r="T2" s="201"/>
+      <c r="U2" s="201"/>
+      <c r="V2" s="201"/>
+      <c r="W2" s="201"/>
+      <c r="X2" s="201"/>
+      <c r="Y2" s="201"/>
+      <c r="Z2" s="201"/>
+      <c r="AA2" s="201"/>
+      <c r="AB2" s="201"/>
+      <c r="AC2" s="201"/>
+      <c r="AD2" s="201"/>
+      <c r="AE2" s="201"/>
+      <c r="AF2" s="201"/>
+      <c r="AG2" s="201"/>
+      <c r="AH2" s="201"/>
+      <c r="AI2" s="201"/>
+      <c r="AJ2" s="201"/>
+      <c r="AK2" s="201"/>
+      <c r="AL2" s="201"/>
+      <c r="AM2" s="201"/>
+      <c r="AN2" s="201"/>
+      <c r="AO2" s="202"/>
+      <c r="AP2" s="205" t="s">
+        <v>106</v>
       </c>
-      <c r="AQ2" s="205"/>
-      <c r="AR2" s="205"/>
-      <c r="AS2" s="205"/>
-      <c r="AT2" s="205"/>
-      <c r="AU2" s="205"/>
-      <c r="AV2" s="205"/>
-      <c r="AW2" s="205"/>
-      <c r="AX2" s="206"/>
-      <c r="AY2" s="174" t="s">
+      <c r="AQ2" s="206"/>
+      <c r="AR2" s="206"/>
+      <c r="AS2" s="206"/>
+      <c r="AT2" s="206"/>
+      <c r="AU2" s="206"/>
+      <c r="AV2" s="206"/>
+      <c r="AW2" s="206"/>
+      <c r="AX2" s="207"/>
+      <c r="AY2" s="175" t="s">
         <v>9</v>
       </c>
-      <c r="AZ2" s="175"/>
-      <c r="BA2" s="175"/>
-      <c r="BB2" s="175"/>
-      <c r="BC2" s="176"/>
-      <c r="BD2" s="209" t="s">
-        <v>99</v>
+      <c r="AZ2" s="176"/>
+      <c r="BA2" s="176"/>
+      <c r="BB2" s="176"/>
+      <c r="BC2" s="177"/>
+      <c r="BD2" s="210" t="s">
+        <v>104</v>
       </c>
-      <c r="BE2" s="209"/>
-      <c r="BF2" s="209"/>
-      <c r="BG2" s="209"/>
-      <c r="BH2" s="210"/>
-      <c r="BI2" s="212" t="s">
+      <c r="BE2" s="210"/>
+      <c r="BF2" s="210"/>
+      <c r="BG2" s="210"/>
+      <c r="BH2" s="211"/>
+      <c r="BI2" s="213" t="s">
         <v>11</v>
       </c>
-      <c r="BJ2" s="209"/>
-      <c r="BK2" s="209"/>
-      <c r="BL2" s="213"/>
-      <c r="BM2" s="207" t="s">
-        <v>102</v>
+      <c r="BJ2" s="210"/>
+      <c r="BK2" s="210"/>
+      <c r="BL2" s="214"/>
+      <c r="BM2" s="208" t="s">
+        <v>107</v>
       </c>
-      <c r="BN2" s="207"/>
-      <c r="BO2" s="207"/>
-      <c r="BP2" s="208"/>
+      <c r="BN2" s="208"/>
+      <c r="BO2" s="208"/>
+      <c r="BP2" s="209"/>
       <c r="BQ2"/>
       <c r="BR2"/>
       <c r="BS2"/>
@@ -34235,24 +34395,24 @@
       <c r="CD2"/>
     </row>
     <row r="3" spans="1:82" ht="13.5" customHeight="1">
-      <c r="A3" s="184" t="s">
+      <c r="A3" s="185" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="185"/>
-      <c r="C3" s="185"/>
-      <c r="D3" s="185"/>
-      <c r="E3" s="185"/>
-      <c r="F3" s="185"/>
-      <c r="G3" s="185"/>
-      <c r="H3" s="185"/>
-      <c r="I3" s="185"/>
-      <c r="J3" s="186"/>
+      <c r="B3" s="186"/>
+      <c r="C3" s="186"/>
+      <c r="D3" s="186"/>
+      <c r="E3" s="186"/>
+      <c r="F3" s="186"/>
+      <c r="G3" s="186"/>
+      <c r="H3" s="186"/>
+      <c r="I3" s="186"/>
+      <c r="J3" s="187"/>
       <c r="K3" s="8"/>
       <c r="L3" s="9"/>
-      <c r="M3" s="230" t="s">
-        <v>103</v>
+      <c r="M3" s="231" t="s">
+        <v>108</v>
       </c>
-      <c r="N3" s="231"/>
+      <c r="N3" s="232"/>
       <c r="O3" s="8"/>
       <c r="P3" s="8"/>
       <c r="Q3" s="8"/>
@@ -34276,10 +34436,10 @@
       <c r="AI3" s="8"/>
       <c r="AJ3" s="8"/>
       <c r="AK3" s="8"/>
-      <c r="AL3" s="231" t="s">
+      <c r="AL3" s="232" t="s">
         <v>17</v>
       </c>
-      <c r="AM3" s="231"/>
+      <c r="AM3" s="232"/>
       <c r="AN3" s="8"/>
       <c r="AO3" s="8"/>
       <c r="AP3" s="1"/>
@@ -34298,10 +34458,10 @@
       <c r="BC3" s="8"/>
       <c r="BD3" s="8"/>
       <c r="BE3" s="8"/>
-      <c r="BF3" s="231" t="s">
-        <v>104</v>
+      <c r="BF3" s="232" t="s">
+        <v>109</v>
       </c>
-      <c r="BG3" s="231"/>
+      <c r="BG3" s="232"/>
       <c r="BH3" s="8"/>
       <c r="BI3" s="8"/>
       <c r="BJ3" s="8"/>
@@ -34310,82 +34470,82 @@
       <c r="BP3" s="10"/>
     </row>
     <row r="4" spans="1:82" ht="13.5" customHeight="1">
-      <c r="A4" s="187"/>
-      <c r="B4" s="188"/>
-      <c r="C4" s="188"/>
-      <c r="D4" s="188"/>
-      <c r="E4" s="188"/>
-      <c r="F4" s="188"/>
-      <c r="G4" s="188"/>
-      <c r="H4" s="188"/>
-      <c r="I4" s="188"/>
-      <c r="J4" s="189"/>
+      <c r="A4" s="188"/>
+      <c r="B4" s="189"/>
+      <c r="C4" s="189"/>
+      <c r="D4" s="189"/>
+      <c r="E4" s="189"/>
+      <c r="F4" s="189"/>
+      <c r="G4" s="189"/>
+      <c r="H4" s="189"/>
+      <c r="I4" s="189"/>
+      <c r="J4" s="190"/>
       <c r="K4" s="11"/>
       <c r="L4" s="12"/>
-      <c r="M4" s="151" t="s">
-        <v>105</v>
+      <c r="M4" s="152" t="s">
+        <v>110</v>
       </c>
-      <c r="N4" s="151"/>
+      <c r="N4" s="152"/>
       <c r="O4" s="13"/>
       <c r="P4" s="14"/>
-      <c r="R4" s="151" t="s">
-        <v>106</v>
+      <c r="R4" s="152" t="s">
+        <v>111</v>
       </c>
-      <c r="S4" s="151"/>
+      <c r="S4" s="152"/>
       <c r="T4" s="13"/>
       <c r="V4" s="14"/>
-      <c r="W4" s="151" t="s">
-        <v>107</v>
+      <c r="W4" s="152" t="s">
+        <v>112</v>
       </c>
-      <c r="X4" s="151"/>
+      <c r="X4" s="152"/>
       <c r="Y4" s="13"/>
       <c r="Z4" s="14"/>
-      <c r="AB4" s="151" t="s">
-        <v>108</v>
+      <c r="AB4" s="152" t="s">
+        <v>113</v>
       </c>
-      <c r="AC4" s="151"/>
+      <c r="AC4" s="152"/>
       <c r="AD4" s="13"/>
       <c r="AE4" s="13"/>
-      <c r="AG4" s="151" t="s">
-        <v>109</v>
+      <c r="AG4" s="152" t="s">
+        <v>114</v>
       </c>
-      <c r="AH4" s="151"/>
+      <c r="AH4" s="152"/>
       <c r="AI4" s="13"/>
-      <c r="AL4" s="151" t="s">
-        <v>105</v>
+      <c r="AL4" s="152" t="s">
+        <v>110</v>
       </c>
-      <c r="AM4" s="151"/>
+      <c r="AM4" s="152"/>
       <c r="AN4" s="13"/>
       <c r="AO4" s="13"/>
-      <c r="AQ4" s="151" t="s">
-        <v>106</v>
+      <c r="AQ4" s="152" t="s">
+        <v>111</v>
       </c>
-      <c r="AR4" s="151"/>
+      <c r="AR4" s="152"/>
       <c r="AS4" s="13"/>
-      <c r="AV4" s="151" t="s">
-        <v>107</v>
+      <c r="AV4" s="152" t="s">
+        <v>112</v>
       </c>
-      <c r="AW4" s="151"/>
+      <c r="AW4" s="152"/>
       <c r="AX4" s="13"/>
       <c r="AZ4" s="14"/>
-      <c r="BA4" s="151" t="s">
-        <v>108</v>
+      <c r="BA4" s="152" t="s">
+        <v>113</v>
       </c>
-      <c r="BB4" s="151"/>
+      <c r="BB4" s="152"/>
       <c r="BC4" s="13"/>
       <c r="BD4" s="14"/>
       <c r="BE4" s="14"/>
-      <c r="BF4" s="151" t="s">
-        <v>105</v>
+      <c r="BF4" s="152" t="s">
+        <v>110</v>
       </c>
-      <c r="BG4" s="151"/>
+      <c r="BG4" s="152"/>
       <c r="BH4" s="13"/>
       <c r="BI4" s="14"/>
       <c r="BJ4" s="14"/>
-      <c r="BK4" s="151" t="s">
-        <v>106</v>
+      <c r="BK4" s="152" t="s">
+        <v>111</v>
       </c>
-      <c r="BL4" s="151"/>
+      <c r="BL4" s="152"/>
       <c r="BM4" s="13"/>
       <c r="BN4" s="13"/>
       <c r="BO4" s="13"/>
@@ -34406,16 +34566,16 @@
       <c r="CD4" s="14"/>
     </row>
     <row r="5" spans="1:82" s="21" customFormat="1" ht="6" customHeight="1">
-      <c r="A5" s="187"/>
-      <c r="B5" s="188"/>
-      <c r="C5" s="188"/>
-      <c r="D5" s="188"/>
-      <c r="E5" s="188"/>
-      <c r="F5" s="188"/>
-      <c r="G5" s="188"/>
-      <c r="H5" s="188"/>
-      <c r="I5" s="188"/>
-      <c r="J5" s="189"/>
+      <c r="A5" s="188"/>
+      <c r="B5" s="189"/>
+      <c r="C5" s="189"/>
+      <c r="D5" s="189"/>
+      <c r="E5" s="189"/>
+      <c r="F5" s="189"/>
+      <c r="G5" s="189"/>
+      <c r="H5" s="189"/>
+      <c r="I5" s="189"/>
+      <c r="J5" s="190"/>
       <c r="K5" s="2"/>
       <c r="L5" s="16"/>
       <c r="M5" s="17"/>
@@ -34490,16 +34650,16 @@
       <c r="CD5" s="14"/>
     </row>
     <row r="6" spans="1:82" ht="6" customHeight="1" thickBot="1">
-      <c r="A6" s="190"/>
-      <c r="B6" s="191"/>
-      <c r="C6" s="191"/>
-      <c r="D6" s="191"/>
-      <c r="E6" s="191"/>
-      <c r="F6" s="191"/>
-      <c r="G6" s="191"/>
-      <c r="H6" s="191"/>
-      <c r="I6" s="191"/>
-      <c r="J6" s="192"/>
+      <c r="A6" s="191"/>
+      <c r="B6" s="192"/>
+      <c r="C6" s="192"/>
+      <c r="D6" s="192"/>
+      <c r="E6" s="192"/>
+      <c r="F6" s="192"/>
+      <c r="G6" s="192"/>
+      <c r="H6" s="192"/>
+      <c r="I6" s="192"/>
+      <c r="J6" s="193"/>
       <c r="L6" s="22"/>
       <c r="M6" s="23"/>
       <c r="N6" s="24"/>
@@ -34570,20 +34730,20 @@
       <c r="CA6" s="23"/>
     </row>
     <row r="7" spans="1:82" ht="21" customHeight="1" thickTop="1">
-      <c r="A7" s="147" t="s">
-        <v>110</v>
+      <c r="A7" s="148" t="s">
+        <v>115</v>
       </c>
-      <c r="B7" s="148"/>
-      <c r="C7" s="171" t="s">
-        <v>111</v>
+      <c r="B7" s="149"/>
+      <c r="C7" s="172" t="s">
+        <v>116</v>
       </c>
-      <c r="D7" s="172"/>
-      <c r="E7" s="172"/>
-      <c r="F7" s="172"/>
-      <c r="G7" s="172"/>
-      <c r="H7" s="172"/>
-      <c r="I7" s="172"/>
-      <c r="J7" s="173"/>
+      <c r="D7" s="173"/>
+      <c r="E7" s="173"/>
+      <c r="F7" s="173"/>
+      <c r="G7" s="173"/>
+      <c r="H7" s="173"/>
+      <c r="I7" s="173"/>
+      <c r="J7" s="174"/>
       <c r="K7" s="21" t="s">
         <v>37</v>
       </c>
@@ -34660,16 +34820,16 @@
       <c r="CD7" s="23"/>
     </row>
     <row r="8" spans="1:82" ht="21" customHeight="1">
-      <c r="A8" s="147"/>
-      <c r="B8" s="148"/>
-      <c r="C8" s="168"/>
-      <c r="D8" s="169"/>
-      <c r="E8" s="169"/>
-      <c r="F8" s="169"/>
-      <c r="G8" s="169"/>
-      <c r="H8" s="169"/>
-      <c r="I8" s="169"/>
-      <c r="J8" s="170"/>
+      <c r="A8" s="148"/>
+      <c r="B8" s="149"/>
+      <c r="C8" s="169"/>
+      <c r="D8" s="170"/>
+      <c r="E8" s="170"/>
+      <c r="F8" s="170"/>
+      <c r="G8" s="170"/>
+      <c r="H8" s="170"/>
+      <c r="I8" s="170"/>
+      <c r="J8" s="171"/>
       <c r="K8" s="28" t="s">
         <v>39</v>
       </c>
@@ -34746,18 +34906,18 @@
       <c r="CD8" s="23"/>
     </row>
     <row r="9" spans="1:82" ht="21" customHeight="1">
-      <c r="A9" s="147"/>
-      <c r="B9" s="148"/>
-      <c r="C9" s="171" t="s">
-        <v>112</v>
+      <c r="A9" s="148"/>
+      <c r="B9" s="149"/>
+      <c r="C9" s="172" t="s">
+        <v>117</v>
       </c>
-      <c r="D9" s="172"/>
-      <c r="E9" s="172"/>
-      <c r="F9" s="172"/>
-      <c r="G9" s="172"/>
-      <c r="H9" s="172"/>
-      <c r="I9" s="172"/>
-      <c r="J9" s="173"/>
+      <c r="D9" s="173"/>
+      <c r="E9" s="173"/>
+      <c r="F9" s="173"/>
+      <c r="G9" s="173"/>
+      <c r="H9" s="173"/>
+      <c r="I9" s="173"/>
+      <c r="J9" s="174"/>
       <c r="K9" s="21" t="s">
         <v>37</v>
       </c>
@@ -34834,16 +34994,16 @@
       <c r="CD9" s="23"/>
     </row>
     <row r="10" spans="1:82" ht="21" customHeight="1">
-      <c r="A10" s="147"/>
-      <c r="B10" s="148"/>
-      <c r="C10" s="168"/>
-      <c r="D10" s="169"/>
-      <c r="E10" s="169"/>
-      <c r="F10" s="169"/>
-      <c r="G10" s="169"/>
-      <c r="H10" s="169"/>
-      <c r="I10" s="169"/>
-      <c r="J10" s="170"/>
+      <c r="A10" s="148"/>
+      <c r="B10" s="149"/>
+      <c r="C10" s="169"/>
+      <c r="D10" s="170"/>
+      <c r="E10" s="170"/>
+      <c r="F10" s="170"/>
+      <c r="G10" s="170"/>
+      <c r="H10" s="170"/>
+      <c r="I10" s="170"/>
+      <c r="J10" s="171"/>
       <c r="K10" s="28" t="s">
         <v>39</v>
       </c>
@@ -34920,18 +35080,18 @@
       <c r="CD10" s="23"/>
     </row>
     <row r="11" spans="1:82" ht="21" customHeight="1">
-      <c r="A11" s="147"/>
-      <c r="B11" s="148"/>
-      <c r="C11" s="171" t="s">
-        <v>113</v>
+      <c r="A11" s="148"/>
+      <c r="B11" s="149"/>
+      <c r="C11" s="172" t="s">
+        <v>118</v>
       </c>
-      <c r="D11" s="172"/>
-      <c r="E11" s="172"/>
-      <c r="F11" s="172"/>
-      <c r="G11" s="172"/>
-      <c r="H11" s="172"/>
-      <c r="I11" s="172"/>
-      <c r="J11" s="173"/>
+      <c r="D11" s="173"/>
+      <c r="E11" s="173"/>
+      <c r="F11" s="173"/>
+      <c r="G11" s="173"/>
+      <c r="H11" s="173"/>
+      <c r="I11" s="173"/>
+      <c r="J11" s="174"/>
       <c r="K11" s="21" t="s">
         <v>37</v>
       </c>
@@ -35008,16 +35168,16 @@
       <c r="CD11" s="23"/>
     </row>
     <row r="12" spans="1:82" ht="21" customHeight="1">
-      <c r="A12" s="147"/>
-      <c r="B12" s="148"/>
-      <c r="C12" s="168"/>
-      <c r="D12" s="169"/>
-      <c r="E12" s="169"/>
-      <c r="F12" s="169"/>
-      <c r="G12" s="169"/>
-      <c r="H12" s="169"/>
-      <c r="I12" s="169"/>
-      <c r="J12" s="170"/>
+      <c r="A12" s="148"/>
+      <c r="B12" s="149"/>
+      <c r="C12" s="169"/>
+      <c r="D12" s="170"/>
+      <c r="E12" s="170"/>
+      <c r="F12" s="170"/>
+      <c r="G12" s="170"/>
+      <c r="H12" s="170"/>
+      <c r="I12" s="170"/>
+      <c r="J12" s="171"/>
       <c r="K12" s="28" t="s">
         <v>39</v>
       </c>
@@ -35094,18 +35254,18 @@
       <c r="CD12" s="23"/>
     </row>
     <row r="13" spans="1:82" ht="21" customHeight="1">
-      <c r="A13" s="147"/>
-      <c r="B13" s="148"/>
-      <c r="C13" s="171" t="s">
-        <v>114</v>
+      <c r="A13" s="148"/>
+      <c r="B13" s="149"/>
+      <c r="C13" s="172" t="s">
+        <v>119</v>
       </c>
-      <c r="D13" s="172"/>
-      <c r="E13" s="172"/>
-      <c r="F13" s="172"/>
-      <c r="G13" s="172"/>
-      <c r="H13" s="172"/>
-      <c r="I13" s="172"/>
-      <c r="J13" s="173"/>
+      <c r="D13" s="173"/>
+      <c r="E13" s="173"/>
+      <c r="F13" s="173"/>
+      <c r="G13" s="173"/>
+      <c r="H13" s="173"/>
+      <c r="I13" s="173"/>
+      <c r="J13" s="174"/>
       <c r="K13" s="21" t="s">
         <v>37</v>
       </c>
@@ -35182,16 +35342,16 @@
       <c r="CD13" s="23"/>
     </row>
     <row r="14" spans="1:82" ht="21" customHeight="1" thickBot="1">
-      <c r="A14" s="149"/>
-      <c r="B14" s="150"/>
-      <c r="C14" s="159"/>
-      <c r="D14" s="160"/>
-      <c r="E14" s="160"/>
-      <c r="F14" s="160"/>
-      <c r="G14" s="160"/>
-      <c r="H14" s="160"/>
-      <c r="I14" s="160"/>
-      <c r="J14" s="161"/>
+      <c r="A14" s="150"/>
+      <c r="B14" s="151"/>
+      <c r="C14" s="160"/>
+      <c r="D14" s="161"/>
+      <c r="E14" s="161"/>
+      <c r="F14" s="161"/>
+      <c r="G14" s="161"/>
+      <c r="H14" s="161"/>
+      <c r="I14" s="161"/>
+      <c r="J14" s="162"/>
       <c r="K14" s="28" t="s">
         <v>39</v>
       </c>
@@ -35268,20 +35428,20 @@
       <c r="CD14" s="23"/>
     </row>
     <row r="15" spans="1:82" ht="21" customHeight="1">
-      <c r="A15" s="226" t="s">
-        <v>115</v>
+      <c r="A15" s="227" t="s">
+        <v>120</v>
       </c>
-      <c r="B15" s="227"/>
-      <c r="C15" s="162" t="s">
-        <v>116</v>
+      <c r="B15" s="228"/>
+      <c r="C15" s="163" t="s">
+        <v>121</v>
       </c>
-      <c r="D15" s="163"/>
-      <c r="E15" s="163"/>
-      <c r="F15" s="163"/>
-      <c r="G15" s="163"/>
-      <c r="H15" s="163"/>
-      <c r="I15" s="163"/>
-      <c r="J15" s="164"/>
+      <c r="D15" s="164"/>
+      <c r="E15" s="164"/>
+      <c r="F15" s="164"/>
+      <c r="G15" s="164"/>
+      <c r="H15" s="164"/>
+      <c r="I15" s="164"/>
+      <c r="J15" s="165"/>
       <c r="K15" s="21" t="s">
         <v>37</v>
       </c>
@@ -35358,16 +35518,16 @@
       <c r="CD15" s="23"/>
     </row>
     <row r="16" spans="1:82" ht="21" customHeight="1">
-      <c r="A16" s="147"/>
-      <c r="B16" s="148"/>
-      <c r="C16" s="168"/>
-      <c r="D16" s="169"/>
-      <c r="E16" s="169"/>
-      <c r="F16" s="169"/>
-      <c r="G16" s="169"/>
-      <c r="H16" s="169"/>
-      <c r="I16" s="169"/>
-      <c r="J16" s="170"/>
+      <c r="A16" s="148"/>
+      <c r="B16" s="149"/>
+      <c r="C16" s="169"/>
+      <c r="D16" s="170"/>
+      <c r="E16" s="170"/>
+      <c r="F16" s="170"/>
+      <c r="G16" s="170"/>
+      <c r="H16" s="170"/>
+      <c r="I16" s="170"/>
+      <c r="J16" s="171"/>
       <c r="K16" s="28" t="s">
         <v>39</v>
       </c>
@@ -35444,18 +35604,18 @@
       <c r="CD16" s="23"/>
     </row>
     <row r="17" spans="1:82" ht="21" customHeight="1">
-      <c r="A17" s="147"/>
-      <c r="B17" s="148"/>
-      <c r="C17" s="228" t="s">
+      <c r="A17" s="148"/>
+      <c r="B17" s="149"/>
+      <c r="C17" s="229" t="s">
         <v>51</v>
       </c>
-      <c r="D17" s="172"/>
-      <c r="E17" s="172"/>
-      <c r="F17" s="172"/>
-      <c r="G17" s="172"/>
-      <c r="H17" s="172"/>
-      <c r="I17" s="172"/>
-      <c r="J17" s="173"/>
+      <c r="D17" s="173"/>
+      <c r="E17" s="173"/>
+      <c r="F17" s="173"/>
+      <c r="G17" s="173"/>
+      <c r="H17" s="173"/>
+      <c r="I17" s="173"/>
+      <c r="J17" s="174"/>
       <c r="K17" s="21" t="s">
         <v>37</v>
       </c>
@@ -35532,16 +35692,16 @@
       <c r="CD17" s="23"/>
     </row>
     <row r="18" spans="1:82" ht="21" customHeight="1" thickBot="1">
-      <c r="A18" s="149"/>
-      <c r="B18" s="150"/>
-      <c r="C18" s="159"/>
-      <c r="D18" s="160"/>
-      <c r="E18" s="160"/>
-      <c r="F18" s="160"/>
-      <c r="G18" s="160"/>
-      <c r="H18" s="160"/>
-      <c r="I18" s="160"/>
-      <c r="J18" s="161"/>
+      <c r="A18" s="150"/>
+      <c r="B18" s="151"/>
+      <c r="C18" s="160"/>
+      <c r="D18" s="161"/>
+      <c r="E18" s="161"/>
+      <c r="F18" s="161"/>
+      <c r="G18" s="161"/>
+      <c r="H18" s="161"/>
+      <c r="I18" s="161"/>
+      <c r="J18" s="162"/>
       <c r="K18" s="28" t="s">
         <v>39</v>
       </c>
@@ -35618,20 +35778,20 @@
       <c r="CD18" s="23"/>
     </row>
     <row r="19" spans="1:82" ht="21" customHeight="1">
-      <c r="A19" s="226" t="s">
-        <v>117</v>
+      <c r="A19" s="227" t="s">
+        <v>122</v>
       </c>
-      <c r="B19" s="227"/>
-      <c r="C19" s="229" t="s">
-        <v>118</v>
+      <c r="B19" s="228"/>
+      <c r="C19" s="230" t="s">
+        <v>123</v>
       </c>
-      <c r="D19" s="163"/>
-      <c r="E19" s="163"/>
-      <c r="F19" s="163"/>
-      <c r="G19" s="163"/>
-      <c r="H19" s="163"/>
-      <c r="I19" s="163"/>
-      <c r="J19" s="164"/>
+      <c r="D19" s="164"/>
+      <c r="E19" s="164"/>
+      <c r="F19" s="164"/>
+      <c r="G19" s="164"/>
+      <c r="H19" s="164"/>
+      <c r="I19" s="164"/>
+      <c r="J19" s="165"/>
       <c r="K19" s="21" t="s">
         <v>37</v>
       </c>
@@ -35708,16 +35868,16 @@
       <c r="CD19" s="23"/>
     </row>
     <row r="20" spans="1:82" ht="21" customHeight="1">
-      <c r="A20" s="147"/>
-      <c r="B20" s="148"/>
-      <c r="C20" s="168"/>
-      <c r="D20" s="169"/>
-      <c r="E20" s="169"/>
-      <c r="F20" s="169"/>
-      <c r="G20" s="169"/>
-      <c r="H20" s="169"/>
-      <c r="I20" s="169"/>
-      <c r="J20" s="170"/>
+      <c r="A20" s="148"/>
+      <c r="B20" s="149"/>
+      <c r="C20" s="169"/>
+      <c r="D20" s="170"/>
+      <c r="E20" s="170"/>
+      <c r="F20" s="170"/>
+      <c r="G20" s="170"/>
+      <c r="H20" s="170"/>
+      <c r="I20" s="170"/>
+      <c r="J20" s="171"/>
       <c r="K20" s="28" t="s">
         <v>39</v>
       </c>
@@ -35794,18 +35954,18 @@
       <c r="CD20" s="23"/>
     </row>
     <row r="21" spans="1:82" ht="21" customHeight="1">
-      <c r="A21" s="147"/>
-      <c r="B21" s="148"/>
-      <c r="C21" s="228" t="s">
+      <c r="A21" s="148"/>
+      <c r="B21" s="149"/>
+      <c r="C21" s="229" t="s">
         <v>54</v>
       </c>
-      <c r="D21" s="172"/>
-      <c r="E21" s="172"/>
-      <c r="F21" s="172"/>
-      <c r="G21" s="172"/>
-      <c r="H21" s="172"/>
-      <c r="I21" s="172"/>
-      <c r="J21" s="173"/>
+      <c r="D21" s="173"/>
+      <c r="E21" s="173"/>
+      <c r="F21" s="173"/>
+      <c r="G21" s="173"/>
+      <c r="H21" s="173"/>
+      <c r="I21" s="173"/>
+      <c r="J21" s="174"/>
       <c r="K21" s="21" t="s">
         <v>37</v>
       </c>
@@ -35882,16 +36042,16 @@
       <c r="CD21" s="23"/>
     </row>
     <row r="22" spans="1:82" ht="21" customHeight="1" thickBot="1">
-      <c r="A22" s="149"/>
-      <c r="B22" s="150"/>
-      <c r="C22" s="159"/>
-      <c r="D22" s="160"/>
-      <c r="E22" s="160"/>
-      <c r="F22" s="160"/>
-      <c r="G22" s="160"/>
-      <c r="H22" s="160"/>
-      <c r="I22" s="160"/>
-      <c r="J22" s="161"/>
+      <c r="A22" s="150"/>
+      <c r="B22" s="151"/>
+      <c r="C22" s="160"/>
+      <c r="D22" s="161"/>
+      <c r="E22" s="161"/>
+      <c r="F22" s="161"/>
+      <c r="G22" s="161"/>
+      <c r="H22" s="161"/>
+      <c r="I22" s="161"/>
+      <c r="J22" s="162"/>
       <c r="K22" s="28" t="s">
         <v>39</v>
       </c>
@@ -35968,20 +36128,20 @@
       <c r="CD22" s="23"/>
     </row>
     <row r="23" spans="1:82" ht="21" customHeight="1">
-      <c r="A23" s="226" t="s">
-        <v>119</v>
+      <c r="A23" s="227" t="s">
+        <v>124</v>
       </c>
-      <c r="B23" s="227"/>
-      <c r="C23" s="229" t="s">
-        <v>120</v>
+      <c r="B23" s="228"/>
+      <c r="C23" s="230" t="s">
+        <v>125</v>
       </c>
-      <c r="D23" s="163"/>
-      <c r="E23" s="163"/>
-      <c r="F23" s="163"/>
-      <c r="G23" s="163"/>
-      <c r="H23" s="163"/>
-      <c r="I23" s="163"/>
-      <c r="J23" s="164"/>
+      <c r="D23" s="164"/>
+      <c r="E23" s="164"/>
+      <c r="F23" s="164"/>
+      <c r="G23" s="164"/>
+      <c r="H23" s="164"/>
+      <c r="I23" s="164"/>
+      <c r="J23" s="165"/>
       <c r="K23" s="21" t="s">
         <v>37</v>
       </c>
@@ -36058,16 +36218,16 @@
       <c r="CD23" s="23"/>
     </row>
     <row r="24" spans="1:82" ht="21" customHeight="1">
-      <c r="A24" s="147"/>
-      <c r="B24" s="148"/>
-      <c r="C24" s="232"/>
-      <c r="D24" s="233"/>
-      <c r="E24" s="233"/>
-      <c r="F24" s="233"/>
-      <c r="G24" s="233"/>
-      <c r="H24" s="233"/>
-      <c r="I24" s="233"/>
-      <c r="J24" s="234"/>
+      <c r="A24" s="148"/>
+      <c r="B24" s="149"/>
+      <c r="C24" s="233"/>
+      <c r="D24" s="234"/>
+      <c r="E24" s="234"/>
+      <c r="F24" s="234"/>
+      <c r="G24" s="234"/>
+      <c r="H24" s="234"/>
+      <c r="I24" s="234"/>
+      <c r="J24" s="235"/>
       <c r="K24" s="28" t="s">
         <v>39</v>
       </c>
@@ -36144,20 +36304,20 @@
       <c r="CD24" s="23"/>
     </row>
     <row r="25" spans="1:82" ht="21" customHeight="1">
-      <c r="A25" s="147"/>
-      <c r="B25" s="148"/>
-      <c r="C25" s="235" t="s">
-        <v>121</v>
+      <c r="A25" s="148"/>
+      <c r="B25" s="149"/>
+      <c r="C25" s="236" t="s">
+        <v>126</v>
       </c>
-      <c r="D25" s="236"/>
-      <c r="E25" s="241" t="s">
-        <v>122</v>
+      <c r="D25" s="237"/>
+      <c r="E25" s="242" t="s">
+        <v>127</v>
       </c>
-      <c r="F25" s="242"/>
-      <c r="G25" s="242"/>
-      <c r="H25" s="242"/>
-      <c r="I25" s="242"/>
-      <c r="J25" s="243"/>
+      <c r="F25" s="243"/>
+      <c r="G25" s="243"/>
+      <c r="H25" s="243"/>
+      <c r="I25" s="243"/>
+      <c r="J25" s="244"/>
       <c r="K25" s="21" t="s">
         <v>37</v>
       </c>
@@ -36234,16 +36394,16 @@
       <c r="CD25" s="23"/>
     </row>
     <row r="26" spans="1:82" ht="21" customHeight="1">
-      <c r="A26" s="147"/>
-      <c r="B26" s="148"/>
-      <c r="C26" s="237"/>
-      <c r="D26" s="238"/>
-      <c r="E26" s="244"/>
-      <c r="F26" s="169"/>
-      <c r="G26" s="169"/>
-      <c r="H26" s="169"/>
-      <c r="I26" s="169"/>
-      <c r="J26" s="170"/>
+      <c r="A26" s="148"/>
+      <c r="B26" s="149"/>
+      <c r="C26" s="238"/>
+      <c r="D26" s="239"/>
+      <c r="E26" s="245"/>
+      <c r="F26" s="170"/>
+      <c r="G26" s="170"/>
+      <c r="H26" s="170"/>
+      <c r="I26" s="170"/>
+      <c r="J26" s="171"/>
       <c r="K26" s="28" t="s">
         <v>39</v>
       </c>
@@ -36320,18 +36480,18 @@
       <c r="CD26" s="23"/>
     </row>
     <row r="27" spans="1:82" ht="21" customHeight="1">
-      <c r="A27" s="147"/>
-      <c r="B27" s="148"/>
-      <c r="C27" s="237"/>
-      <c r="D27" s="238"/>
-      <c r="E27" s="245" t="s">
-        <v>123</v>
+      <c r="A27" s="148"/>
+      <c r="B27" s="149"/>
+      <c r="C27" s="238"/>
+      <c r="D27" s="239"/>
+      <c r="E27" s="246" t="s">
+        <v>128</v>
       </c>
-      <c r="F27" s="157"/>
-      <c r="G27" s="157"/>
-      <c r="H27" s="157"/>
-      <c r="I27" s="157"/>
-      <c r="J27" s="158"/>
+      <c r="F27" s="158"/>
+      <c r="G27" s="158"/>
+      <c r="H27" s="158"/>
+      <c r="I27" s="158"/>
+      <c r="J27" s="159"/>
       <c r="K27" s="21" t="s">
         <v>37</v>
       </c>
@@ -36408,16 +36568,16 @@
       <c r="CD27" s="23"/>
     </row>
     <row r="28" spans="1:82" ht="21" customHeight="1">
-      <c r="A28" s="147"/>
-      <c r="B28" s="148"/>
-      <c r="C28" s="237"/>
-      <c r="D28" s="238"/>
-      <c r="E28" s="244"/>
-      <c r="F28" s="169"/>
-      <c r="G28" s="169"/>
-      <c r="H28" s="169"/>
-      <c r="I28" s="169"/>
-      <c r="J28" s="170"/>
+      <c r="A28" s="148"/>
+      <c r="B28" s="149"/>
+      <c r="C28" s="238"/>
+      <c r="D28" s="239"/>
+      <c r="E28" s="245"/>
+      <c r="F28" s="170"/>
+      <c r="G28" s="170"/>
+      <c r="H28" s="170"/>
+      <c r="I28" s="170"/>
+      <c r="J28" s="171"/>
       <c r="K28" s="28" t="s">
         <v>39</v>
       </c>
@@ -36494,18 +36654,18 @@
       <c r="CD28" s="23"/>
     </row>
     <row r="29" spans="1:82" ht="21" customHeight="1">
-      <c r="A29" s="147"/>
-      <c r="B29" s="148"/>
-      <c r="C29" s="237"/>
-      <c r="D29" s="238"/>
-      <c r="E29" s="245" t="s">
-        <v>124</v>
+      <c r="A29" s="148"/>
+      <c r="B29" s="149"/>
+      <c r="C29" s="238"/>
+      <c r="D29" s="239"/>
+      <c r="E29" s="246" t="s">
+        <v>129</v>
       </c>
-      <c r="F29" s="157"/>
-      <c r="G29" s="157"/>
-      <c r="H29" s="157"/>
-      <c r="I29" s="157"/>
-      <c r="J29" s="158"/>
+      <c r="F29" s="158"/>
+      <c r="G29" s="158"/>
+      <c r="H29" s="158"/>
+      <c r="I29" s="158"/>
+      <c r="J29" s="159"/>
       <c r="K29" s="21" t="s">
         <v>37</v>
       </c>
@@ -36582,16 +36742,16 @@
       <c r="CD29" s="23"/>
     </row>
     <row r="30" spans="1:82" ht="21" customHeight="1">
-      <c r="A30" s="147"/>
-      <c r="B30" s="148"/>
-      <c r="C30" s="237"/>
-      <c r="D30" s="238"/>
-      <c r="E30" s="244"/>
-      <c r="F30" s="169"/>
-      <c r="G30" s="169"/>
-      <c r="H30" s="169"/>
-      <c r="I30" s="169"/>
-      <c r="J30" s="170"/>
+      <c r="A30" s="148"/>
+      <c r="B30" s="149"/>
+      <c r="C30" s="238"/>
+      <c r="D30" s="239"/>
+      <c r="E30" s="245"/>
+      <c r="F30" s="170"/>
+      <c r="G30" s="170"/>
+      <c r="H30" s="170"/>
+      <c r="I30" s="170"/>
+      <c r="J30" s="171"/>
       <c r="K30" s="47" t="s">
         <v>39</v>
       </c>
@@ -36668,18 +36828,18 @@
       <c r="CD30" s="23"/>
     </row>
     <row r="31" spans="1:82" ht="21" customHeight="1">
-      <c r="A31" s="147"/>
-      <c r="B31" s="148"/>
-      <c r="C31" s="237"/>
-      <c r="D31" s="238"/>
-      <c r="E31" s="245" t="s">
-        <v>125</v>
+      <c r="A31" s="148"/>
+      <c r="B31" s="149"/>
+      <c r="C31" s="238"/>
+      <c r="D31" s="239"/>
+      <c r="E31" s="246" t="s">
+        <v>130</v>
       </c>
-      <c r="F31" s="157"/>
-      <c r="G31" s="157"/>
-      <c r="H31" s="157"/>
-      <c r="I31" s="157"/>
-      <c r="J31" s="158"/>
+      <c r="F31" s="158"/>
+      <c r="G31" s="158"/>
+      <c r="H31" s="158"/>
+      <c r="I31" s="158"/>
+      <c r="J31" s="159"/>
       <c r="K31" s="21" t="s">
         <v>37</v>
       </c>
@@ -36756,16 +36916,16 @@
       <c r="CD31" s="23"/>
     </row>
     <row r="32" spans="1:82" ht="21" customHeight="1">
-      <c r="A32" s="147"/>
-      <c r="B32" s="148"/>
-      <c r="C32" s="237"/>
-      <c r="D32" s="238"/>
-      <c r="E32" s="244"/>
-      <c r="F32" s="169"/>
-      <c r="G32" s="169"/>
-      <c r="H32" s="169"/>
-      <c r="I32" s="169"/>
-      <c r="J32" s="170"/>
+      <c r="A32" s="148"/>
+      <c r="B32" s="149"/>
+      <c r="C32" s="238"/>
+      <c r="D32" s="239"/>
+      <c r="E32" s="245"/>
+      <c r="F32" s="170"/>
+      <c r="G32" s="170"/>
+      <c r="H32" s="170"/>
+      <c r="I32" s="170"/>
+      <c r="J32" s="171"/>
       <c r="K32" s="28" t="s">
         <v>39</v>
       </c>
@@ -36842,18 +37002,18 @@
       <c r="CD32" s="23"/>
     </row>
     <row r="33" spans="1:82" ht="21" customHeight="1">
-      <c r="A33" s="147"/>
-      <c r="B33" s="148"/>
-      <c r="C33" s="237"/>
-      <c r="D33" s="238"/>
-      <c r="E33" s="245" t="s">
-        <v>126</v>
+      <c r="A33" s="148"/>
+      <c r="B33" s="149"/>
+      <c r="C33" s="238"/>
+      <c r="D33" s="239"/>
+      <c r="E33" s="246" t="s">
+        <v>131</v>
       </c>
-      <c r="F33" s="157"/>
-      <c r="G33" s="157"/>
-      <c r="H33" s="157"/>
-      <c r="I33" s="157"/>
-      <c r="J33" s="158"/>
+      <c r="F33" s="158"/>
+      <c r="G33" s="158"/>
+      <c r="H33" s="158"/>
+      <c r="I33" s="158"/>
+      <c r="J33" s="159"/>
       <c r="K33" s="21" t="s">
         <v>37</v>
       </c>
@@ -36930,16 +37090,16 @@
       <c r="CD33" s="23"/>
     </row>
     <row r="34" spans="1:82" ht="21" customHeight="1">
-      <c r="A34" s="147"/>
-      <c r="B34" s="148"/>
-      <c r="C34" s="237"/>
-      <c r="D34" s="238"/>
-      <c r="E34" s="244"/>
-      <c r="F34" s="169"/>
-      <c r="G34" s="169"/>
-      <c r="H34" s="169"/>
-      <c r="I34" s="169"/>
-      <c r="J34" s="170"/>
+      <c r="A34" s="148"/>
+      <c r="B34" s="149"/>
+      <c r="C34" s="238"/>
+      <c r="D34" s="239"/>
+      <c r="E34" s="245"/>
+      <c r="F34" s="170"/>
+      <c r="G34" s="170"/>
+      <c r="H34" s="170"/>
+      <c r="I34" s="170"/>
+      <c r="J34" s="171"/>
       <c r="K34" s="28" t="s">
         <v>39</v>
       </c>
@@ -37016,18 +37176,18 @@
       <c r="CD34" s="23"/>
     </row>
     <row r="35" spans="1:82" ht="21" customHeight="1">
-      <c r="A35" s="147"/>
-      <c r="B35" s="148"/>
-      <c r="C35" s="237"/>
-      <c r="D35" s="238"/>
-      <c r="E35" s="245" t="s">
-        <v>127</v>
+      <c r="A35" s="148"/>
+      <c r="B35" s="149"/>
+      <c r="C35" s="238"/>
+      <c r="D35" s="239"/>
+      <c r="E35" s="246" t="s">
+        <v>132</v>
       </c>
-      <c r="F35" s="157"/>
-      <c r="G35" s="157"/>
-      <c r="H35" s="157"/>
-      <c r="I35" s="157"/>
-      <c r="J35" s="158"/>
+      <c r="F35" s="158"/>
+      <c r="G35" s="158"/>
+      <c r="H35" s="158"/>
+      <c r="I35" s="158"/>
+      <c r="J35" s="159"/>
       <c r="K35" s="21" t="s">
         <v>37</v>
       </c>
@@ -37104,16 +37264,16 @@
       <c r="CD35" s="23"/>
     </row>
     <row r="36" spans="1:82" ht="21" customHeight="1">
-      <c r="A36" s="147"/>
-      <c r="B36" s="148"/>
-      <c r="C36" s="237"/>
-      <c r="D36" s="238"/>
-      <c r="E36" s="244"/>
-      <c r="F36" s="169"/>
-      <c r="G36" s="169"/>
-      <c r="H36" s="169"/>
-      <c r="I36" s="169"/>
-      <c r="J36" s="170"/>
+      <c r="A36" s="148"/>
+      <c r="B36" s="149"/>
+      <c r="C36" s="238"/>
+      <c r="D36" s="239"/>
+      <c r="E36" s="245"/>
+      <c r="F36" s="170"/>
+      <c r="G36" s="170"/>
+      <c r="H36" s="170"/>
+      <c r="I36" s="170"/>
+      <c r="J36" s="171"/>
       <c r="K36" s="28" t="s">
         <v>39</v>
       </c>
@@ -37190,18 +37350,18 @@
       <c r="CD36" s="23"/>
     </row>
     <row r="37" spans="1:82" ht="21" customHeight="1">
-      <c r="A37" s="147"/>
-      <c r="B37" s="148"/>
-      <c r="C37" s="237"/>
-      <c r="D37" s="238"/>
-      <c r="E37" s="246" t="s">
-        <v>128</v>
+      <c r="A37" s="148"/>
+      <c r="B37" s="149"/>
+      <c r="C37" s="238"/>
+      <c r="D37" s="239"/>
+      <c r="E37" s="247" t="s">
+        <v>133</v>
       </c>
-      <c r="F37" s="172"/>
-      <c r="G37" s="172"/>
-      <c r="H37" s="172"/>
-      <c r="I37" s="172"/>
-      <c r="J37" s="173"/>
+      <c r="F37" s="173"/>
+      <c r="G37" s="173"/>
+      <c r="H37" s="173"/>
+      <c r="I37" s="173"/>
+      <c r="J37" s="174"/>
       <c r="K37" s="21" t="s">
         <v>37</v>
       </c>
@@ -37278,16 +37438,16 @@
       <c r="CD37" s="23"/>
     </row>
     <row r="38" spans="1:82" ht="21" customHeight="1">
-      <c r="A38" s="147"/>
-      <c r="B38" s="148"/>
-      <c r="C38" s="239"/>
-      <c r="D38" s="240"/>
-      <c r="E38" s="247"/>
-      <c r="F38" s="233"/>
-      <c r="G38" s="233"/>
-      <c r="H38" s="233"/>
-      <c r="I38" s="233"/>
-      <c r="J38" s="234"/>
+      <c r="A38" s="148"/>
+      <c r="B38" s="149"/>
+      <c r="C38" s="240"/>
+      <c r="D38" s="241"/>
+      <c r="E38" s="248"/>
+      <c r="F38" s="234"/>
+      <c r="G38" s="234"/>
+      <c r="H38" s="234"/>
+      <c r="I38" s="234"/>
+      <c r="J38" s="235"/>
       <c r="K38" s="47" t="s">
         <v>39</v>
       </c>
@@ -37364,20 +37524,20 @@
       <c r="CD38" s="23"/>
     </row>
     <row r="39" spans="1:82" ht="21" customHeight="1">
-      <c r="A39" s="147"/>
-      <c r="B39" s="148"/>
-      <c r="C39" s="235" t="s">
-        <v>129</v>
+      <c r="A39" s="148"/>
+      <c r="B39" s="149"/>
+      <c r="C39" s="236" t="s">
+        <v>134</v>
       </c>
-      <c r="D39" s="236"/>
-      <c r="E39" s="242" t="s">
-        <v>130</v>
+      <c r="D39" s="237"/>
+      <c r="E39" s="243" t="s">
+        <v>135</v>
       </c>
-      <c r="F39" s="242"/>
-      <c r="G39" s="242"/>
-      <c r="H39" s="242"/>
-      <c r="I39" s="242"/>
-      <c r="J39" s="243"/>
+      <c r="F39" s="243"/>
+      <c r="G39" s="243"/>
+      <c r="H39" s="243"/>
+      <c r="I39" s="243"/>
+      <c r="J39" s="244"/>
       <c r="K39" s="21" t="s">
         <v>37</v>
       </c>
@@ -37454,16 +37614,16 @@
       <c r="CD39" s="23"/>
     </row>
     <row r="40" spans="1:82" ht="21" customHeight="1">
-      <c r="A40" s="147"/>
-      <c r="B40" s="148"/>
-      <c r="C40" s="237"/>
-      <c r="D40" s="238"/>
-      <c r="E40" s="169"/>
-      <c r="F40" s="169"/>
-      <c r="G40" s="169"/>
-      <c r="H40" s="169"/>
-      <c r="I40" s="169"/>
-      <c r="J40" s="170"/>
+      <c r="A40" s="148"/>
+      <c r="B40" s="149"/>
+      <c r="C40" s="238"/>
+      <c r="D40" s="239"/>
+      <c r="E40" s="170"/>
+      <c r="F40" s="170"/>
+      <c r="G40" s="170"/>
+      <c r="H40" s="170"/>
+      <c r="I40" s="170"/>
+      <c r="J40" s="171"/>
       <c r="K40" s="28" t="s">
         <v>39</v>
       </c>
@@ -37540,18 +37700,18 @@
       <c r="CD40" s="23"/>
     </row>
     <row r="41" spans="1:82" ht="21" customHeight="1">
-      <c r="A41" s="147"/>
-      <c r="B41" s="148"/>
-      <c r="C41" s="237"/>
-      <c r="D41" s="238"/>
-      <c r="E41" s="157" t="s">
-        <v>131</v>
+      <c r="A41" s="148"/>
+      <c r="B41" s="149"/>
+      <c r="C41" s="238"/>
+      <c r="D41" s="239"/>
+      <c r="E41" s="158" t="s">
+        <v>136</v>
       </c>
-      <c r="F41" s="157"/>
-      <c r="G41" s="157"/>
-      <c r="H41" s="157"/>
-      <c r="I41" s="157"/>
-      <c r="J41" s="158"/>
+      <c r="F41" s="158"/>
+      <c r="G41" s="158"/>
+      <c r="H41" s="158"/>
+      <c r="I41" s="158"/>
+      <c r="J41" s="159"/>
       <c r="K41" s="21" t="s">
         <v>37</v>
       </c>
@@ -37628,16 +37788,16 @@
       <c r="CD41" s="23"/>
     </row>
     <row r="42" spans="1:82" ht="21" customHeight="1">
-      <c r="A42" s="147"/>
-      <c r="B42" s="148"/>
-      <c r="C42" s="237"/>
-      <c r="D42" s="238"/>
-      <c r="E42" s="169"/>
-      <c r="F42" s="169"/>
-      <c r="G42" s="169"/>
-      <c r="H42" s="169"/>
-      <c r="I42" s="169"/>
-      <c r="J42" s="170"/>
+      <c r="A42" s="148"/>
+      <c r="B42" s="149"/>
+      <c r="C42" s="238"/>
+      <c r="D42" s="239"/>
+      <c r="E42" s="170"/>
+      <c r="F42" s="170"/>
+      <c r="G42" s="170"/>
+      <c r="H42" s="170"/>
+      <c r="I42" s="170"/>
+      <c r="J42" s="171"/>
       <c r="K42" s="28" t="s">
         <v>39</v>
       </c>
@@ -37714,18 +37874,18 @@
       <c r="CD42" s="23"/>
     </row>
     <row r="43" spans="1:82" ht="21" customHeight="1">
-      <c r="A43" s="147"/>
-      <c r="B43" s="148"/>
-      <c r="C43" s="237"/>
-      <c r="D43" s="238"/>
-      <c r="E43" s="157" t="s">
-        <v>132</v>
+      <c r="A43" s="148"/>
+      <c r="B43" s="149"/>
+      <c r="C43" s="238"/>
+      <c r="D43" s="239"/>
+      <c r="E43" s="158" t="s">
+        <v>137</v>
       </c>
-      <c r="F43" s="157"/>
-      <c r="G43" s="157"/>
-      <c r="H43" s="157"/>
-      <c r="I43" s="157"/>
-      <c r="J43" s="158"/>
+      <c r="F43" s="158"/>
+      <c r="G43" s="158"/>
+      <c r="H43" s="158"/>
+      <c r="I43" s="158"/>
+      <c r="J43" s="159"/>
       <c r="K43" s="21" t="s">
         <v>37</v>
       </c>
@@ -37802,16 +37962,16 @@
       <c r="CD43" s="23"/>
     </row>
     <row r="44" spans="1:82" ht="21" customHeight="1">
-      <c r="A44" s="147"/>
-      <c r="B44" s="148"/>
-      <c r="C44" s="237"/>
-      <c r="D44" s="238"/>
-      <c r="E44" s="169"/>
-      <c r="F44" s="169"/>
-      <c r="G44" s="169"/>
-      <c r="H44" s="169"/>
-      <c r="I44" s="169"/>
-      <c r="J44" s="170"/>
+      <c r="A44" s="148"/>
+      <c r="B44" s="149"/>
+      <c r="C44" s="238"/>
+      <c r="D44" s="239"/>
+      <c r="E44" s="170"/>
+      <c r="F44" s="170"/>
+      <c r="G44" s="170"/>
+      <c r="H44" s="170"/>
+      <c r="I44" s="170"/>
+      <c r="J44" s="171"/>
       <c r="K44" s="28" t="s">
         <v>39</v>
       </c>
@@ -37888,20 +38048,20 @@
       <c r="CD44" s="23"/>
     </row>
     <row r="45" spans="1:82" ht="21" customHeight="1">
-      <c r="A45" s="147"/>
-      <c r="B45" s="148"/>
-      <c r="C45" s="237"/>
-      <c r="D45" s="238"/>
-      <c r="E45" s="252" t="s">
-        <v>133</v>
+      <c r="A45" s="148"/>
+      <c r="B45" s="149"/>
+      <c r="C45" s="238"/>
+      <c r="D45" s="239"/>
+      <c r="E45" s="253" t="s">
+        <v>138</v>
       </c>
-      <c r="F45" s="253"/>
-      <c r="G45" s="157" t="s">
-        <v>134</v>
+      <c r="F45" s="254"/>
+      <c r="G45" s="158" t="s">
+        <v>139</v>
       </c>
-      <c r="H45" s="157"/>
-      <c r="I45" s="157"/>
-      <c r="J45" s="158"/>
+      <c r="H45" s="158"/>
+      <c r="I45" s="158"/>
+      <c r="J45" s="159"/>
       <c r="K45" s="21" t="s">
         <v>37</v>
       </c>
@@ -37978,16 +38138,16 @@
       <c r="CD45" s="23"/>
     </row>
     <row r="46" spans="1:82" ht="21" customHeight="1">
-      <c r="A46" s="147"/>
-      <c r="B46" s="148"/>
-      <c r="C46" s="237"/>
-      <c r="D46" s="238"/>
-      <c r="E46" s="254"/>
-      <c r="F46" s="255"/>
-      <c r="G46" s="169"/>
-      <c r="H46" s="169"/>
-      <c r="I46" s="169"/>
-      <c r="J46" s="170"/>
+      <c r="A46" s="148"/>
+      <c r="B46" s="149"/>
+      <c r="C46" s="238"/>
+      <c r="D46" s="239"/>
+      <c r="E46" s="255"/>
+      <c r="F46" s="256"/>
+      <c r="G46" s="170"/>
+      <c r="H46" s="170"/>
+      <c r="I46" s="170"/>
+      <c r="J46" s="171"/>
       <c r="K46" s="28" t="s">
         <v>39</v>
       </c>
@@ -38064,18 +38224,18 @@
       <c r="CD46" s="23"/>
     </row>
     <row r="47" spans="1:82" ht="21" customHeight="1">
-      <c r="A47" s="147"/>
-      <c r="B47" s="148"/>
-      <c r="C47" s="237"/>
-      <c r="D47" s="238"/>
-      <c r="E47" s="254"/>
-      <c r="F47" s="255"/>
-      <c r="G47" s="258" t="s">
-        <v>135</v>
+      <c r="A47" s="148"/>
+      <c r="B47" s="149"/>
+      <c r="C47" s="238"/>
+      <c r="D47" s="239"/>
+      <c r="E47" s="255"/>
+      <c r="F47" s="256"/>
+      <c r="G47" s="259" t="s">
+        <v>140</v>
       </c>
-      <c r="H47" s="157"/>
-      <c r="I47" s="157"/>
-      <c r="J47" s="158"/>
+      <c r="H47" s="158"/>
+      <c r="I47" s="158"/>
+      <c r="J47" s="159"/>
       <c r="K47" s="21" t="s">
         <v>37</v>
       </c>
@@ -38152,16 +38312,16 @@
       <c r="CD47" s="23"/>
     </row>
     <row r="48" spans="1:82" ht="21" customHeight="1">
-      <c r="A48" s="147"/>
-      <c r="B48" s="148"/>
-      <c r="C48" s="237"/>
-      <c r="D48" s="238"/>
-      <c r="E48" s="254"/>
-      <c r="F48" s="255"/>
-      <c r="G48" s="169"/>
-      <c r="H48" s="169"/>
-      <c r="I48" s="169"/>
-      <c r="J48" s="170"/>
+      <c r="A48" s="148"/>
+      <c r="B48" s="149"/>
+      <c r="C48" s="238"/>
+      <c r="D48" s="239"/>
+      <c r="E48" s="255"/>
+      <c r="F48" s="256"/>
+      <c r="G48" s="170"/>
+      <c r="H48" s="170"/>
+      <c r="I48" s="170"/>
+      <c r="J48" s="171"/>
       <c r="K48" s="28" t="s">
         <v>39</v>
       </c>
@@ -38238,18 +38398,18 @@
       <c r="CD48" s="23"/>
     </row>
     <row r="49" spans="1:82" ht="21" customHeight="1">
-      <c r="A49" s="147"/>
-      <c r="B49" s="148"/>
-      <c r="C49" s="237"/>
-      <c r="D49" s="238"/>
-      <c r="E49" s="254"/>
-      <c r="F49" s="255"/>
-      <c r="G49" s="258" t="s">
-        <v>136</v>
+      <c r="A49" s="148"/>
+      <c r="B49" s="149"/>
+      <c r="C49" s="238"/>
+      <c r="D49" s="239"/>
+      <c r="E49" s="255"/>
+      <c r="F49" s="256"/>
+      <c r="G49" s="259" t="s">
+        <v>141</v>
       </c>
-      <c r="H49" s="157"/>
-      <c r="I49" s="157"/>
-      <c r="J49" s="158"/>
+      <c r="H49" s="158"/>
+      <c r="I49" s="158"/>
+      <c r="J49" s="159"/>
       <c r="K49" s="21" t="s">
         <v>37</v>
       </c>
@@ -38326,16 +38486,16 @@
       <c r="CD49" s="23"/>
     </row>
     <row r="50" spans="1:82" ht="21" customHeight="1">
-      <c r="A50" s="147"/>
-      <c r="B50" s="148"/>
-      <c r="C50" s="237"/>
-      <c r="D50" s="238"/>
-      <c r="E50" s="254"/>
-      <c r="F50" s="255"/>
-      <c r="G50" s="172"/>
-      <c r="H50" s="172"/>
-      <c r="I50" s="172"/>
-      <c r="J50" s="173"/>
+      <c r="A50" s="148"/>
+      <c r="B50" s="149"/>
+      <c r="C50" s="238"/>
+      <c r="D50" s="239"/>
+      <c r="E50" s="255"/>
+      <c r="F50" s="256"/>
+      <c r="G50" s="173"/>
+      <c r="H50" s="173"/>
+      <c r="I50" s="173"/>
+      <c r="J50" s="174"/>
       <c r="K50" s="28" t="s">
         <v>39</v>
       </c>
@@ -38412,18 +38572,18 @@
       <c r="CD50" s="23"/>
     </row>
     <row r="51" spans="1:82" ht="21" customHeight="1">
-      <c r="A51" s="147"/>
-      <c r="B51" s="148"/>
-      <c r="C51" s="237"/>
-      <c r="D51" s="238"/>
-      <c r="E51" s="254"/>
-      <c r="F51" s="255"/>
-      <c r="G51" s="245" t="s">
-        <v>137</v>
+      <c r="A51" s="148"/>
+      <c r="B51" s="149"/>
+      <c r="C51" s="238"/>
+      <c r="D51" s="239"/>
+      <c r="E51" s="255"/>
+      <c r="F51" s="256"/>
+      <c r="G51" s="246" t="s">
+        <v>142</v>
       </c>
-      <c r="H51" s="157"/>
-      <c r="I51" s="157"/>
-      <c r="J51" s="158"/>
+      <c r="H51" s="158"/>
+      <c r="I51" s="158"/>
+      <c r="J51" s="159"/>
       <c r="K51" s="21" t="s">
         <v>37</v>
       </c>
@@ -38500,16 +38660,16 @@
       <c r="CD51" s="23"/>
     </row>
     <row r="52" spans="1:82" ht="21" customHeight="1">
-      <c r="A52" s="147"/>
-      <c r="B52" s="148"/>
-      <c r="C52" s="237"/>
-      <c r="D52" s="238"/>
-      <c r="E52" s="254"/>
-      <c r="F52" s="255"/>
-      <c r="G52" s="244"/>
-      <c r="H52" s="169"/>
-      <c r="I52" s="169"/>
-      <c r="J52" s="170"/>
+      <c r="A52" s="148"/>
+      <c r="B52" s="149"/>
+      <c r="C52" s="238"/>
+      <c r="D52" s="239"/>
+      <c r="E52" s="255"/>
+      <c r="F52" s="256"/>
+      <c r="G52" s="245"/>
+      <c r="H52" s="170"/>
+      <c r="I52" s="170"/>
+      <c r="J52" s="171"/>
       <c r="K52" s="53" t="s">
         <v>39</v>
       </c>
@@ -38586,18 +38746,18 @@
       <c r="CD52" s="23"/>
     </row>
     <row r="53" spans="1:82" ht="21" customHeight="1">
-      <c r="A53" s="147"/>
-      <c r="B53" s="148"/>
-      <c r="C53" s="237"/>
-      <c r="D53" s="238"/>
-      <c r="E53" s="254"/>
-      <c r="F53" s="255"/>
-      <c r="G53" s="245" t="s">
-        <v>138</v>
+      <c r="A53" s="148"/>
+      <c r="B53" s="149"/>
+      <c r="C53" s="238"/>
+      <c r="D53" s="239"/>
+      <c r="E53" s="255"/>
+      <c r="F53" s="256"/>
+      <c r="G53" s="246" t="s">
+        <v>143</v>
       </c>
-      <c r="H53" s="157"/>
-      <c r="I53" s="157"/>
-      <c r="J53" s="158"/>
+      <c r="H53" s="158"/>
+      <c r="I53" s="158"/>
+      <c r="J53" s="159"/>
       <c r="K53" s="21" t="s">
         <v>37</v>
       </c>
@@ -38674,16 +38834,16 @@
       <c r="CD53" s="23"/>
     </row>
     <row r="54" spans="1:82" ht="21" customHeight="1">
-      <c r="A54" s="147"/>
-      <c r="B54" s="148"/>
-      <c r="C54" s="237"/>
-      <c r="D54" s="238"/>
-      <c r="E54" s="254"/>
-      <c r="F54" s="255"/>
-      <c r="G54" s="244"/>
-      <c r="H54" s="169"/>
-      <c r="I54" s="169"/>
-      <c r="J54" s="170"/>
+      <c r="A54" s="148"/>
+      <c r="B54" s="149"/>
+      <c r="C54" s="238"/>
+      <c r="D54" s="239"/>
+      <c r="E54" s="255"/>
+      <c r="F54" s="256"/>
+      <c r="G54" s="245"/>
+      <c r="H54" s="170"/>
+      <c r="I54" s="170"/>
+      <c r="J54" s="171"/>
       <c r="K54" s="28" t="s">
         <v>39</v>
       </c>
@@ -38760,18 +38920,18 @@
       <c r="CD54" s="23"/>
     </row>
     <row r="55" spans="1:82" ht="21" customHeight="1">
-      <c r="A55" s="147"/>
-      <c r="B55" s="148"/>
-      <c r="C55" s="237"/>
-      <c r="D55" s="238"/>
-      <c r="E55" s="254"/>
-      <c r="F55" s="255"/>
-      <c r="G55" s="172" t="s">
-        <v>139</v>
+      <c r="A55" s="148"/>
+      <c r="B55" s="149"/>
+      <c r="C55" s="238"/>
+      <c r="D55" s="239"/>
+      <c r="E55" s="255"/>
+      <c r="F55" s="256"/>
+      <c r="G55" s="173" t="s">
+        <v>144</v>
       </c>
-      <c r="H55" s="172"/>
-      <c r="I55" s="172"/>
-      <c r="J55" s="173"/>
+      <c r="H55" s="173"/>
+      <c r="I55" s="173"/>
+      <c r="J55" s="174"/>
       <c r="K55" s="21" t="s">
         <v>37</v>
       </c>
@@ -38848,16 +39008,16 @@
       <c r="CD55" s="23"/>
     </row>
     <row r="56" spans="1:82" ht="21" customHeight="1" thickBot="1">
-      <c r="A56" s="147"/>
-      <c r="B56" s="148"/>
-      <c r="C56" s="250"/>
-      <c r="D56" s="251"/>
-      <c r="E56" s="256"/>
-      <c r="F56" s="257"/>
-      <c r="G56" s="160"/>
-      <c r="H56" s="160"/>
-      <c r="I56" s="160"/>
-      <c r="J56" s="161"/>
+      <c r="A56" s="148"/>
+      <c r="B56" s="149"/>
+      <c r="C56" s="251"/>
+      <c r="D56" s="252"/>
+      <c r="E56" s="257"/>
+      <c r="F56" s="258"/>
+      <c r="G56" s="161"/>
+      <c r="H56" s="161"/>
+      <c r="I56" s="161"/>
+      <c r="J56" s="162"/>
       <c r="K56" s="28" t="s">
         <v>39</v>
       </c>
@@ -38934,18 +39094,18 @@
       <c r="CD56" s="23"/>
     </row>
     <row r="57" spans="1:82" ht="21" customHeight="1">
-      <c r="A57" s="248"/>
-      <c r="B57" s="148"/>
-      <c r="C57" s="162" t="s">
-        <v>73</v>
+      <c r="A57" s="249"/>
+      <c r="B57" s="149"/>
+      <c r="C57" s="163" t="s">
+        <v>78</v>
       </c>
-      <c r="D57" s="163"/>
-      <c r="E57" s="163"/>
-      <c r="F57" s="163"/>
-      <c r="G57" s="163"/>
-      <c r="H57" s="163"/>
-      <c r="I57" s="163"/>
-      <c r="J57" s="164"/>
+      <c r="D57" s="164"/>
+      <c r="E57" s="164"/>
+      <c r="F57" s="164"/>
+      <c r="G57" s="164"/>
+      <c r="H57" s="164"/>
+      <c r="I57" s="164"/>
+      <c r="J57" s="165"/>
       <c r="K57" s="21" t="s">
         <v>37</v>
       </c>
@@ -39022,16 +39182,16 @@
       <c r="CD57" s="23"/>
     </row>
     <row r="58" spans="1:82" ht="21" customHeight="1" thickBot="1">
-      <c r="A58" s="149"/>
-      <c r="B58" s="150"/>
-      <c r="C58" s="159"/>
-      <c r="D58" s="160"/>
-      <c r="E58" s="160"/>
-      <c r="F58" s="160"/>
-      <c r="G58" s="160"/>
-      <c r="H58" s="160"/>
-      <c r="I58" s="160"/>
-      <c r="J58" s="161"/>
+      <c r="A58" s="150"/>
+      <c r="B58" s="151"/>
+      <c r="C58" s="160"/>
+      <c r="D58" s="161"/>
+      <c r="E58" s="161"/>
+      <c r="F58" s="161"/>
+      <c r="G58" s="161"/>
+      <c r="H58" s="161"/>
+      <c r="I58" s="161"/>
+      <c r="J58" s="162"/>
       <c r="K58" s="34" t="s">
         <v>39</v>
       </c>
@@ -39248,70 +39408,70 @@
       <c r="CB60"/>
     </row>
     <row r="61" spans="1:82" ht="11.25" customHeight="1">
-      <c r="M61" s="249" t="s">
-        <v>105</v>
+      <c r="M61" s="250" t="s">
+        <v>110</v>
       </c>
-      <c r="N61" s="151"/>
+      <c r="N61" s="152"/>
       <c r="O61" s="13"/>
       <c r="P61" s="14"/>
-      <c r="R61" s="151" t="s">
-        <v>106</v>
+      <c r="R61" s="152" t="s">
+        <v>111</v>
       </c>
-      <c r="S61" s="151"/>
+      <c r="S61" s="152"/>
       <c r="T61" s="13"/>
       <c r="V61" s="14"/>
-      <c r="W61" s="151" t="s">
-        <v>107</v>
+      <c r="W61" s="152" t="s">
+        <v>112</v>
       </c>
-      <c r="X61" s="151"/>
+      <c r="X61" s="152"/>
       <c r="Y61" s="13"/>
       <c r="Z61" s="14"/>
-      <c r="AB61" s="151" t="s">
-        <v>108</v>
+      <c r="AB61" s="152" t="s">
+        <v>113</v>
       </c>
-      <c r="AC61" s="151"/>
+      <c r="AC61" s="152"/>
       <c r="AD61" s="13"/>
       <c r="AE61" s="13"/>
-      <c r="AG61" s="151" t="s">
-        <v>109</v>
+      <c r="AG61" s="152" t="s">
+        <v>114</v>
       </c>
-      <c r="AH61" s="151"/>
+      <c r="AH61" s="152"/>
       <c r="AI61" s="13"/>
-      <c r="AL61" s="151" t="s">
-        <v>105</v>
+      <c r="AL61" s="152" t="s">
+        <v>110</v>
       </c>
-      <c r="AM61" s="151"/>
+      <c r="AM61" s="152"/>
       <c r="AN61" s="13"/>
       <c r="AO61" s="13"/>
-      <c r="AQ61" s="151" t="s">
-        <v>106</v>
+      <c r="AQ61" s="152" t="s">
+        <v>111</v>
       </c>
-      <c r="AR61" s="151"/>
+      <c r="AR61" s="152"/>
       <c r="AS61" s="13"/>
-      <c r="AV61" s="151" t="s">
-        <v>107</v>
+      <c r="AV61" s="152" t="s">
+        <v>112</v>
       </c>
-      <c r="AW61" s="151"/>
+      <c r="AW61" s="152"/>
       <c r="AX61" s="13"/>
       <c r="AZ61" s="14"/>
-      <c r="BA61" s="151" t="s">
-        <v>108</v>
+      <c r="BA61" s="152" t="s">
+        <v>113</v>
       </c>
-      <c r="BB61" s="151"/>
+      <c r="BB61" s="152"/>
       <c r="BC61" s="13"/>
       <c r="BD61" s="14"/>
       <c r="BE61" s="14"/>
-      <c r="BF61" s="151" t="s">
-        <v>105</v>
+      <c r="BF61" s="152" t="s">
+        <v>110</v>
       </c>
-      <c r="BG61" s="151"/>
+      <c r="BG61" s="152"/>
       <c r="BH61" s="13"/>
       <c r="BI61" s="14"/>
       <c r="BJ61" s="14"/>
-      <c r="BK61" s="151" t="s">
-        <v>106</v>
+      <c r="BK61" s="152" t="s">
+        <v>111</v>
       </c>
-      <c r="BL61" s="151"/>
+      <c r="BL61" s="152"/>
       <c r="BM61" s="13"/>
       <c r="BN61" s="13"/>
       <c r="BO61" s="13"/>
@@ -39327,10 +39487,10 @@
       <c r="BY61"/>
     </row>
     <row r="62" spans="1:82" ht="16" thickBot="1">
-      <c r="M62" s="259" t="s">
-        <v>103</v>
+      <c r="M62" s="260" t="s">
+        <v>108</v>
       </c>
-      <c r="N62" s="260"/>
+      <c r="N62" s="261"/>
       <c r="O62" s="45"/>
       <c r="P62" s="45"/>
       <c r="Q62" s="45"/>
@@ -39354,10 +39514,10 @@
       <c r="AI62" s="45"/>
       <c r="AJ62" s="45"/>
       <c r="AK62" s="45"/>
-      <c r="AL62" s="260" t="s">
+      <c r="AL62" s="261" t="s">
         <v>17</v>
       </c>
-      <c r="AM62" s="260"/>
+      <c r="AM62" s="261"/>
       <c r="AN62" s="45"/>
       <c r="AO62" s="45"/>
       <c r="AP62" s="3"/>
@@ -39376,10 +39536,10 @@
       <c r="BC62" s="45"/>
       <c r="BD62" s="45"/>
       <c r="BE62" s="45"/>
-      <c r="BF62" s="260" t="s">
-        <v>104</v>
+      <c r="BF62" s="261" t="s">
+        <v>109</v>
       </c>
-      <c r="BG62" s="260"/>
+      <c r="BG62" s="261"/>
       <c r="BH62" s="45"/>
       <c r="BI62" s="45"/>
       <c r="BJ62" s="45"/>
@@ -39478,26 +39638,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="540e6531-8795-4248-80ce-25efd73518ad">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="d4884cc8-da59-4935-9350-efc2119afb64" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100E0A7EB1C84FE4E48B42E395C0170D4D9" ma:contentTypeVersion="13" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="5841263e4c5f98b2dd158151943496d0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="540e6531-8795-4248-80ce-25efd73518ad" xmlns:ns3="d4884cc8-da59-4935-9350-efc2119afb64" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ab58f85e02a6cccc23910f93e0b18f7c" ns2:_="" ns3:_="">
     <xsd:import namespace="540e6531-8795-4248-80ce-25efd73518ad"/>
@@ -39720,32 +39860,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6BF4EFD9-4047-42CC-914A-003C86640B2B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="540e6531-8795-4248-80ce-25efd73518ad"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="d4884cc8-da59-4935-9350-efc2119afb64"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="540e6531-8795-4248-80ce-25efd73518ad">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="d4884cc8-da59-4935-9350-efc2119afb64" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{59F154ED-CD43-4EC8-99F5-99FADD63535B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B18C654C-FEFF-4ED1-8175-D253336A849E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -39762,4 +39897,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6BF4EFD9-4047-42CC-914A-003C86640B2B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="540e6531-8795-4248-80ce-25efd73518ad"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="d4884cc8-da59-4935-9350-efc2119afb64"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{59F154ED-CD43-4EC8-99F5-99FADD63535B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>